--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D7D14-AE6F-4A3B-B67B-B17E0E45D281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E8FF5-5ABE-40E4-AC31-879FCFD1DC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="479" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$97</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="39">
   <si>
     <t>Te_cal</t>
   </si>
@@ -137,14 +140,41 @@
   <si>
     <t>svc</t>
   </si>
+  <si>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>hh_n1_pre_az</t>
+  </si>
+  <si>
+    <t>hh_n1_post_loc</t>
+  </si>
+  <si>
+    <t>hh_n1_post_az</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -172,8 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,1074 +526,1122 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>95.6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>69.7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>91.5</v>
       </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
       <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
         <v>95.8</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>80.2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>29</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>85.1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>17</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>85.4</v>
       </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
       <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
         <v>87.4</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>91.9</v>
       </c>
-      <c r="R2">
-        <v>10</v>
-      </c>
       <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
         <v>70.2</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>30</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>73.7</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>13</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>75.2</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>13</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>75.2</v>
       </c>
-      <c r="Z2">
-        <v>10</v>
-      </c>
       <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
         <v>75</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
       <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>68.599999999999994</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>47.4</v>
       </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
         <v>74.7</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>45</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>80.599999999999994</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>25</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>88.6</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>11</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>91.2</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>13</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>63.7</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>55</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>76.8</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>18</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>80.2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
       <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>70.3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>41.9</v>
       </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
         <v>73.7</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>49</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>80.599999999999994</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>36</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>87.9</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>14</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>94.3</v>
       </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="S4">
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="T4">
         <v>66.5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>44</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>71.3</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>31</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>78.3</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>65.5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>57.2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>30.8</v>
       </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
       <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
         <v>60.3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>59.2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>56</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>65.8</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>62.6</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>12</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>62</v>
       </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="S5">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="T5">
         <v>57.9</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>11</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>59.6</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>13</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>52.8</v>
       </c>
-      <c r="X5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>97.6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>57.2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>22.4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97.9</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>97.2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>60.3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>51</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>72</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>67.900000000000006</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>14</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>54</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>49</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>51.1</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>85.1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56.6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.4</v>
       </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
       <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
         <v>82.6</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>57.3</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>65</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>56.4</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>23</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>46.6</v>
       </c>
-      <c r="V7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>71.8</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>64</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>50.4</v>
       </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
       <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
         <v>69.599999999999994</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>66.099999999999994</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>54</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>70.900000000000006</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>19</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>73.900000000000006</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>11</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>69</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>12</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>64</v>
       </c>
-      <c r="R8">
-        <v>10</v>
-      </c>
       <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
         <v>64.3</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>35</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>66.8</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>21</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>71</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>13</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>62.2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>15</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>64.400000000000006</v>
       </c>
-      <c r="AB8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>99</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>60</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>28.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>99.6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>98.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>62.7</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>53</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>68.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>23</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>72.400000000000006</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>57</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>47</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>66.900000000000006</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>13</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>64.5</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>99.7</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>63.2</v>
       </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
         <v>99.5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>63.7</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>57</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>72.400000000000006</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>12</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>60.7</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>24</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>70.599999999999994</v>
       </c>
-      <c r="V10">
-        <v>10</v>
-      </c>
       <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
         <v>46.7</v>
       </c>
-      <c r="X10">
-        <v>100</v>
-      </c>
       <c r="Y10">
+        <v>100</v>
+      </c>
+      <c r="Z10">
         <v>46.7</v>
       </c>
-      <c r="Z10">
-        <v>100</v>
-      </c>
       <c r="AA10">
+        <v>100</v>
+      </c>
+      <c r="AB10">
         <v>46.6</v>
       </c>
-      <c r="AB10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>77.099999999999994</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>67.7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>67.3</v>
       </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
       <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
         <v>83.7</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>69</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>54</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>73.400000000000006</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>34</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>75.7</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>14</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>77.2</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>17</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>76.5</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>11</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>67.599999999999994</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>37</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>73.7</v>
       </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
       <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
         <v>74.7</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>15</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>72.2</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>11</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>65.7</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>99.8</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>62.9</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>26.2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>99.8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>99.7</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>64.7</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>55</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>71.3</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>28</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>75</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>12</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>60.9</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>44</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>69.900000000000006</v>
       </c>
-      <c r="V12">
-        <v>10</v>
-      </c>
       <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
         <v>74</v>
       </c>
-      <c r="X12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
       <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
         <v>66.3</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>18.5</v>
       </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
       <c r="H13">
         <v>100</v>
       </c>
       <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
         <v>67.900000000000006</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>54</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>77.599999999999994</v>
       </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
       <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
         <v>75</v>
       </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="S13">
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="T13">
         <v>66.7</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>33</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>73</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>11</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>69.5</v>
       </c>
-      <c r="X13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>82.1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>68.7</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>74.099999999999994</v>
       </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
       <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
         <v>87.7</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>71.8</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>50</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>78.3</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>33</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>84.1</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>19</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>85.8</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>13</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>88.6</v>
       </c>
-      <c r="R14">
-        <v>10</v>
-      </c>
       <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
         <v>70.5</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>33</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>70.8</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>35</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>74</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>17</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>79.599999999999994</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>13</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>69.7</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>99.8</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>65.5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>30.2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>99.9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>99.8</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>67.900000000000006</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>52</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>73.099999999999994</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>36</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>82.6</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>13</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>63</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>47</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>67.8</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>25</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>73.900000000000006</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
       <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
         <v>68.400000000000006</v>
       </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
       <c r="G16">
         <v>100</v>
       </c>
@@ -1570,221 +1649,230 @@
         <v>100</v>
       </c>
       <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
         <v>77.5</v>
       </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
       <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
         <v>82.9</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>11</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>84.2</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>15</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>68.599999999999994</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>41</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>73.2</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>26</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>76.8</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>13</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>46.6</v>
       </c>
-      <c r="Z16">
-        <v>100</v>
-      </c>
       <c r="AA16">
+        <v>100</v>
+      </c>
+      <c r="AB16">
         <v>46.6</v>
       </c>
-      <c r="AB16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>83.8</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>69.3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>78.5</v>
       </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
       <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
         <v>84.4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>71.599999999999994</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>52</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>78.5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>30</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>81.099999999999994</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>17</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>84</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>15</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>82.9</v>
       </c>
-      <c r="R17">
-        <v>10</v>
-      </c>
       <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
         <v>68.2</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>40</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>72.599999999999994</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>31</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>76.5</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>17</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>77.099999999999994</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>11</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>76</v>
       </c>
-      <c r="AB17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>99.9</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>65.3</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>30</v>
-      </c>
-      <c r="G18">
-        <v>99.9</v>
       </c>
       <c r="H18">
         <v>99.9</v>
       </c>
       <c r="I18">
+        <v>99.9</v>
+      </c>
+      <c r="J18">
         <v>67.8</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>52</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>74.400000000000006</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>36</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>81.900000000000006</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>12</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>62.7</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>47</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>69.8</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>26</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>77.900000000000006</v>
       </c>
-      <c r="X18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
       <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
         <v>69</v>
       </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
       <c r="G19">
         <v>100</v>
       </c>
@@ -1792,2384 +1880,6905 @@
         <v>100</v>
       </c>
       <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
         <v>69.599999999999994</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>57</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>81</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>14</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>82.4</v>
       </c>
-      <c r="N19">
-        <v>10</v>
-      </c>
-      <c r="S19">
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="T19">
         <v>69.099999999999994</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>40</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>78.400000000000006</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>11</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>75.2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>13</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>52.9</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>79</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>46.6</v>
       </c>
-      <c r="AB19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>69.5</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>67</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>48.6</v>
       </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
       <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
         <v>75.3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>71.8</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>47</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>80.3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>30</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>85.8</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>13</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>86.8</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>16</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>68.3</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>27</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>71.3</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>26</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>75.3</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>95.2</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>66.599999999999994</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>55.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>95.7</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>94.9</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>73.400000000000006</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>41</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>77.099999999999994</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>36</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>79.900000000000006</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>30</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>86.1</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>15</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>84</v>
       </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
       <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
         <v>62.5</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>53</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>66</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>38</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>74.400000000000006</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>12</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>63.4</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>69.2</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>67.2</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>78</v>
       </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
       <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
         <v>77.8</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>83.9</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>22</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>85.3</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>17</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>86.2</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>13</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>87.7</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>16</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>68.099999999999994</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>33</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>73.900000000000006</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>15</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>75.7</v>
       </c>
-      <c r="X22">
-        <v>10</v>
-      </c>
       <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
         <v>71</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>73.099999999999994</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>71.900000000000006</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>56.6</v>
       </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
       <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
         <v>76.900000000000006</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>75.599999999999994</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>48</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>82.3</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>30</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>86.4</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>24</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>89.7</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>19</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>91.7</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>12</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>68.400000000000006</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>50</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>73.099999999999994</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>13</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>77.900000000000006</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>18</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>77.900000000000006</v>
       </c>
-      <c r="Z23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>98</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>70</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>57.2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>98.7</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>97.4</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>74.5</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>40</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>78.7</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>36</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>81.8</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>29</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>86.1</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>17</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>84.2</v>
       </c>
-      <c r="R24">
-        <v>10</v>
-      </c>
       <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
         <v>66.3</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>50</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>68.900000000000006</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>40</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>78.8</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>16</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>82.7</v>
       </c>
-      <c r="Z24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>77.8</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>71.8</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>57.4</v>
       </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
       <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
         <v>80</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>76.400000000000006</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>48</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>81.400000000000006</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>35</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>86.4</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>23</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>89.7</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>15</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>67.900000000000006</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>46</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>71</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>35</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>77.599999999999994</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>15</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>71.400000000000006</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>75.3</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>71.8</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>65.599999999999994</v>
       </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
       <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
         <v>78.400000000000006</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>76.099999999999994</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>44</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>84.4</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>16</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>86.4</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>18</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>88.3</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>12</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>90.7</v>
       </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
       <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
         <v>68</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>50</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>72.900000000000006</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>34</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>77.8</v>
       </c>
-      <c r="X26">
-        <v>10</v>
-      </c>
       <c r="Y26">
+        <v>10</v>
+      </c>
+      <c r="Z26">
         <v>83.3</v>
       </c>
-      <c r="Z26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>15</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>98.9</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>69.7</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>55.1</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>99.3</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>98.4</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>74.400000000000006</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>40</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>78</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>36</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>81.8</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>29</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>86.3</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>21</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>86.5</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>11</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>66</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>51</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>69.5</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>40</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>79.2</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>17</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>79.599999999999994</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>91</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>71.8</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>56.9</v>
       </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
       <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
         <v>90.5</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>76.900000000000006</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>47</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>81.8</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>35</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>86.6</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>12</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>88.1</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>16</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>68.099999999999994</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>46</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>72.099999999999994</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>34</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>79.099999999999994</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>17</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>74.8</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>26</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>75.599999999999994</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>71.7</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>65.5</v>
       </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
       <c r="H29">
-        <v>75.900000000000006</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>75.900000000000006</v>
       </c>
       <c r="J29">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="K29">
         <v>48</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>82.2</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>34</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>86.6</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>17</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>88</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>12</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>90.7</v>
       </c>
-      <c r="R29">
-        <v>10</v>
-      </c>
       <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
         <v>67.900000000000006</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>51</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>72</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>36</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>77.3</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>24</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>82.1</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>20</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>99.4</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>68.599999999999994</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>53.6</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>99.9</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>98.9</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>74.5</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>40</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>77.599999999999994</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>38</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>82.4</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>28</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>87</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>21</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>88.1</v>
       </c>
-      <c r="R30">
-        <v>10</v>
-      </c>
       <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
         <v>64.7</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>52</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>69.5</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>41</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>78.099999999999994</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>15</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>85.9</v>
       </c>
-      <c r="Z30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>20</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
       <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
         <v>71.400000000000006</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>59.3</v>
       </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
       <c r="H31">
         <v>100</v>
       </c>
       <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
         <v>76.2</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>48</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>81.7</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>35</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>88.3</v>
       </c>
-      <c r="N31">
-        <v>10</v>
-      </c>
       <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
         <v>88.3</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>11</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>67.599999999999994</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>49</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>72.2</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>34</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>77.099999999999994</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>18</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>73</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>12</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>25.2</v>
       </c>
-      <c r="AB31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>26</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>77.900000000000006</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>72.099999999999994</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>68.2</v>
       </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
       <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
         <v>78.099999999999994</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>76.400000000000006</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>48</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>81.8</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>36</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>86.3</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>18</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>88.1</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>19</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>91.2</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>11</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>68.099999999999994</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>49</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>72.7</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>21</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>78.400000000000006</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>18</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>81</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>12</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>77.2</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>25</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>29</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>99.5</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>68.8</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>52.4</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>99.9</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>99.1</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>74.400000000000006</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>40</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>78.599999999999994</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>38</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>81.5</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>29</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>86.4</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>21</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>65</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>51</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>70.2</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>40</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>77.900000000000006</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>30</v>
       </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
       <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
         <v>71.2</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>48.1</v>
       </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
       <c r="H34">
         <v>100</v>
       </c>
       <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
         <v>76.599999999999994</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>46</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>82.4</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>35</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>86.5</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>22</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>88.1</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>17</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>67.8</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>47</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>73.5</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>35</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>79.900000000000006</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>15</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>73.8</v>
       </c>
-      <c r="Z34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>69.3</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>67.599999999999994</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>44.8</v>
       </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
       <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
         <v>77</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>73.099999999999994</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>45</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>84.7</v>
       </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
       <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
         <v>85.4</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>17</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>86.7</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>16</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>70.099999999999994</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>25</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>71.400000000000006</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>24</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>77.2</v>
       </c>
-      <c r="X35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>29</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>94.1</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>66.599999999999994</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>58.5</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>94.6</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>93.6</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>72.599999999999994</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>41</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>77.3</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>35</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>82.4</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>28</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>86</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>17</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>86.4</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>11</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>63.3</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>48</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>67.3</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>38</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>75.099999999999994</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>18</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>70</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>69.099999999999994</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>67.5</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>87</v>
       </c>
-      <c r="G37">
-        <v>100</v>
-      </c>
       <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
         <v>82.7</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>85.6</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>17</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>85.3</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>18</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>86.1</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>16</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>86.4</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>15</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>65.7</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>38</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>71.2</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>21</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>77.400000000000006</v>
       </c>
-      <c r="X37">
-        <v>10</v>
-      </c>
       <c r="Y37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
         <v>70.400000000000006</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>21</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>69.8</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>74.2</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>70.7</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>62.5</v>
       </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
       <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
         <v>79.099999999999994</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>75.2</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>45</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>82.1</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>34</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>86.7</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>19</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>88.2</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>16</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>92</v>
       </c>
-      <c r="R38">
-        <v>10</v>
-      </c>
       <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
         <v>68.7</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>46</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>73.599999999999994</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>38</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>77.5</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>11</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>79.2</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
         <v>29</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>98.1</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>70.400000000000006</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>54.5</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>99.2</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>97</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>76.400000000000006</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>42</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>79.400000000000006</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>39</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>83.5</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>31</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>86.4</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>17</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>83.3</v>
       </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
       <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
         <v>66.599999999999994</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>49</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>70.3</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>40</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>77.3</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>13</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>80.2</v>
       </c>
-      <c r="Z39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
         <v>34</v>
       </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
         <v>30</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>77.599999999999994</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>70.599999999999994</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>66.099999999999994</v>
       </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
       <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
         <v>82.8</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>75.3</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>46</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>82.4</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>19</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>86.2</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>14</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>90.6</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>14</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>90.9</v>
       </c>
-      <c r="R40">
-        <v>10</v>
-      </c>
       <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
         <v>67.7</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>48</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>73.2</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>36</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>77.2</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>14</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>72.5</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
         <v>34</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>15</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>74.400000000000006</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>71.8</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>60.4</v>
       </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
       <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
         <v>78.7</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>76.2</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>47</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>87.3</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>14</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>86.7</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>19</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>89.3</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>17</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>91.3</v>
       </c>
-      <c r="R41">
-        <v>10</v>
-      </c>
       <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
         <v>68.900000000000006</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>46</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>74.400000000000006</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>32</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>78.8</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>25</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>84.3</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
         <v>34</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>29</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>98.9</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>70.2</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>53.4</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>99.8</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>97.8</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>76.3</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>42</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>79.7</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>37</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>83.8</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>29</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>86.7</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>17</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>82.5</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>12</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>66.3</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>52</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>70</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>39</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>76</v>
       </c>
-      <c r="X42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>15</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>83.6</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>71</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>68.5</v>
       </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
       <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
         <v>84.5</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>80.400000000000006</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>27</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>85.3</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>15</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>87.1</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>13</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>89.8</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>19</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>89.1</v>
       </c>
-      <c r="R43">
-        <v>10</v>
-      </c>
       <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
         <v>67.8</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>50</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>74.2</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>33</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>78</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>18</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>72.5</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
         <v>34</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>20</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>26</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>75.3</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>71.7</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>65</v>
       </c>
-      <c r="G44">
-        <v>100</v>
-      </c>
       <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
         <v>79.8</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>76.599999999999994</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>44</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>83.2</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>19</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>86.4</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>19</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>88.8</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>17</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>92.7</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>11</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>69.3</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>40</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>75.900000000000006</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>21</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>77.900000000000006</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>19</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>83.7</v>
       </c>
-      <c r="Z44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>20</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>29</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>99</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>69</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>53.2</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>99.4</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>98.6</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>74.8</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>42</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>80.099999999999994</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>37</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>82.9</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>31</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>87.1</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>18</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>84.9</v>
       </c>
-      <c r="R45">
-        <v>10</v>
-      </c>
       <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
         <v>64.8</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>53</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>69.099999999999994</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>38</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>78.5</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>14</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>84.2</v>
       </c>
-      <c r="Z45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
         <v>34</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>20</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>30</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>97.9</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>70.8</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>55.9</v>
       </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
       <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
         <v>98.6</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>76</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>47</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>81.599999999999994</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>36</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>86.4</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>21</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>90.9</v>
       </c>
-      <c r="P46">
-        <v>10</v>
-      </c>
       <c r="Q46">
+        <v>10</v>
+      </c>
+      <c r="R46">
         <v>88.9</v>
       </c>
-      <c r="R46">
-        <v>10</v>
-      </c>
       <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
         <v>67.8</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>47</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>74.099999999999994</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>34</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>79.400000000000006</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>17</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>74.599999999999994</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>25</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>26</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>76</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>71.8</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>61.7</v>
       </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
       <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
         <v>79.2</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>76.5</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>45</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>81.5</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>37</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>86.3</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>19</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>88.6</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>17</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>94.1</v>
       </c>
-      <c r="R47">
-        <v>10</v>
-      </c>
       <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
         <v>70.3</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>39</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>75.2</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>20</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>80</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>19</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>83</v>
       </c>
-      <c r="Z47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
         <v>34</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>25</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>29</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>99.1</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>68.5</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>51.6</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>99.5</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>98.7</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>74.7</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>43</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>79.5</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>36</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>83.5</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>29</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>86.4</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>19</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>64.099999999999994</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>54</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>70.2</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>36</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>78</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
         <v>34</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>25</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>30</v>
       </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
       <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
         <v>71.400000000000006</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>53.6</v>
       </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
       <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
         <v>99.9</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>76.2</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>47</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>81.5</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>37</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>88.2</v>
       </c>
-      <c r="N49">
-        <v>10</v>
-      </c>
       <c r="O49">
+        <v>10</v>
+      </c>
+      <c r="P49">
         <v>91.6</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>12</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>89.9</v>
       </c>
-      <c r="R49">
-        <v>10</v>
-      </c>
       <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
         <v>68.099999999999994</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>49</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>74.5</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>35</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>82.5</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>12</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>73.3</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>13</v>
       </c>
     </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>92</v>
+      </c>
+      <c r="F50">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G50">
+        <v>87.3</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>93.2</v>
+      </c>
+      <c r="J50">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="K50">
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>84.3</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>88.7</v>
+      </c>
+      <c r="O50">
+        <v>15</v>
+      </c>
+      <c r="P50">
+        <v>88.5</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50">
+        <v>92.1</v>
+      </c>
+      <c r="S50">
+        <v>12</v>
+      </c>
+      <c r="T50">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="U50">
+        <v>46</v>
+      </c>
+      <c r="V50">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W50">
+        <v>34</v>
+      </c>
+      <c r="X50">
+        <v>76.5</v>
+      </c>
+      <c r="Y50">
+        <v>18</v>
+      </c>
+      <c r="Z50">
+        <v>84.1</v>
+      </c>
+      <c r="AA50">
+        <v>12</v>
+      </c>
+      <c r="AB50">
+        <v>73</v>
+      </c>
+      <c r="AC50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>69.7</v>
+      </c>
+      <c r="G51">
+        <v>50.2</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K51">
+        <v>44</v>
+      </c>
+      <c r="L51">
+        <v>81.3</v>
+      </c>
+      <c r="M51">
+        <v>29</v>
+      </c>
+      <c r="N51">
+        <v>92</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>92.6</v>
+      </c>
+      <c r="Q51">
+        <v>12</v>
+      </c>
+      <c r="R51">
+        <v>85.2</v>
+      </c>
+      <c r="S51">
+        <v>10</v>
+      </c>
+      <c r="T51">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="U51">
+        <v>47</v>
+      </c>
+      <c r="V51">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="W51">
+        <v>13</v>
+      </c>
+      <c r="X51">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Y51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G52">
+        <v>45.8</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="K52">
+        <v>25</v>
+      </c>
+      <c r="L52">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>88.7</v>
+      </c>
+      <c r="O52">
+        <v>15</v>
+      </c>
+      <c r="P52">
+        <v>91.5</v>
+      </c>
+      <c r="Q52">
+        <v>13</v>
+      </c>
+      <c r="T52">
+        <v>67.8</v>
+      </c>
+      <c r="U52">
+        <v>47</v>
+      </c>
+      <c r="V52">
+        <v>74.2</v>
+      </c>
+      <c r="W52">
+        <v>30</v>
+      </c>
+      <c r="X52">
+        <v>78.8</v>
+      </c>
+      <c r="Y52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>67.7</v>
+      </c>
+      <c r="F53">
+        <v>56.1</v>
+      </c>
+      <c r="G53">
+        <v>37.9</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>70</v>
+      </c>
+      <c r="J53">
+        <v>58.8</v>
+      </c>
+      <c r="K53">
+        <v>51</v>
+      </c>
+      <c r="L53">
+        <v>61</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>64.3</v>
+      </c>
+      <c r="O53">
+        <v>13</v>
+      </c>
+      <c r="P53">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="Q53">
+        <v>12</v>
+      </c>
+      <c r="T53">
+        <v>54.4</v>
+      </c>
+      <c r="U53">
+        <v>36</v>
+      </c>
+      <c r="V53">
+        <v>56.2</v>
+      </c>
+      <c r="W53">
+        <v>12</v>
+      </c>
+      <c r="X53">
+        <v>56.2</v>
+      </c>
+      <c r="Y53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>98.1</v>
+      </c>
+      <c r="F54">
+        <v>56.6</v>
+      </c>
+      <c r="G54">
+        <v>28.6</v>
+      </c>
+      <c r="H54">
+        <v>98.8</v>
+      </c>
+      <c r="I54">
+        <v>97.2</v>
+      </c>
+      <c r="J54">
+        <v>58.5</v>
+      </c>
+      <c r="K54">
+        <v>56</v>
+      </c>
+      <c r="L54">
+        <v>61.2</v>
+      </c>
+      <c r="M54">
+        <v>31</v>
+      </c>
+      <c r="N54">
+        <v>61.2</v>
+      </c>
+      <c r="O54">
+        <v>17</v>
+      </c>
+      <c r="T54">
+        <v>54.2</v>
+      </c>
+      <c r="U54">
+        <v>44</v>
+      </c>
+      <c r="V54">
+        <v>57.6</v>
+      </c>
+      <c r="W54">
+        <v>14</v>
+      </c>
+      <c r="X54">
+        <v>52.9</v>
+      </c>
+      <c r="Y54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>86.3</v>
+      </c>
+      <c r="F55">
+        <v>56.2</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>83.5</v>
+      </c>
+      <c r="J55">
+        <v>57.9</v>
+      </c>
+      <c r="K55">
+        <v>24</v>
+      </c>
+      <c r="L55">
+        <v>62.6</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>52.9</v>
+      </c>
+      <c r="O55">
+        <v>100</v>
+      </c>
+      <c r="T55">
+        <v>60</v>
+      </c>
+      <c r="U55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F56">
+        <v>63.2</v>
+      </c>
+      <c r="G56">
+        <v>57.7</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="J56">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K56">
+        <v>57</v>
+      </c>
+      <c r="L56">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+      <c r="N56">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="Q56">
+        <v>12</v>
+      </c>
+      <c r="R56">
+        <v>68.2</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="U56">
+        <v>34</v>
+      </c>
+      <c r="V56">
+        <v>68.2</v>
+      </c>
+      <c r="W56">
+        <v>14</v>
+      </c>
+      <c r="X56">
+        <v>68.8</v>
+      </c>
+      <c r="Y56">
+        <v>14</v>
+      </c>
+      <c r="Z56">
+        <v>62.1</v>
+      </c>
+      <c r="AA56">
+        <v>10</v>
+      </c>
+      <c r="AB56">
+        <v>52</v>
+      </c>
+      <c r="AC56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57">
+        <v>99.4</v>
+      </c>
+      <c r="F57">
+        <v>61.2</v>
+      </c>
+      <c r="G57">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H57">
+        <v>99.5</v>
+      </c>
+      <c r="I57">
+        <v>99.3</v>
+      </c>
+      <c r="J57">
+        <v>62.5</v>
+      </c>
+      <c r="K57">
+        <v>56</v>
+      </c>
+      <c r="L57">
+        <v>69.2</v>
+      </c>
+      <c r="M57">
+        <v>29</v>
+      </c>
+      <c r="N57">
+        <v>74.2</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>59.9</v>
+      </c>
+      <c r="U57">
+        <v>42</v>
+      </c>
+      <c r="V57">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W57">
+        <v>23</v>
+      </c>
+      <c r="X57">
+        <v>63.8</v>
+      </c>
+      <c r="Y57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <v>99.6</v>
+      </c>
+      <c r="F58">
+        <v>62.4</v>
+      </c>
+      <c r="G58">
+        <v>5.8</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>99.4</v>
+      </c>
+      <c r="J58">
+        <v>63.3</v>
+      </c>
+      <c r="K58">
+        <v>60</v>
+      </c>
+      <c r="L58">
+        <v>78.8</v>
+      </c>
+      <c r="M58">
+        <v>11</v>
+      </c>
+      <c r="T58">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="U58">
+        <v>34</v>
+      </c>
+      <c r="V58">
+        <v>67.3</v>
+      </c>
+      <c r="W58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59">
+        <v>80.5</v>
+      </c>
+      <c r="F59">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G59">
+        <v>72.7</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>82</v>
+      </c>
+      <c r="J59">
+        <v>67.5</v>
+      </c>
+      <c r="K59">
+        <v>56</v>
+      </c>
+      <c r="L59">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="M59">
+        <v>15</v>
+      </c>
+      <c r="N59">
+        <v>75.3</v>
+      </c>
+      <c r="O59">
+        <v>27</v>
+      </c>
+      <c r="P59">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="Q59">
+        <v>11</v>
+      </c>
+      <c r="R59">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="S59">
+        <v>16</v>
+      </c>
+      <c r="T59">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="U59">
+        <v>39</v>
+      </c>
+      <c r="V59">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="W59">
+        <v>24</v>
+      </c>
+      <c r="X59">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="Y59">
+        <v>15</v>
+      </c>
+      <c r="Z59">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AA59">
+        <v>13</v>
+      </c>
+      <c r="AB59">
+        <v>69</v>
+      </c>
+      <c r="AC59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>99.7</v>
+      </c>
+      <c r="F60">
+        <v>62.4</v>
+      </c>
+      <c r="G60">
+        <v>33.1</v>
+      </c>
+      <c r="H60">
+        <v>99.9</v>
+      </c>
+      <c r="I60">
+        <v>99.6</v>
+      </c>
+      <c r="J60">
+        <v>63.5</v>
+      </c>
+      <c r="K60">
+        <v>57</v>
+      </c>
+      <c r="L60">
+        <v>67.3</v>
+      </c>
+      <c r="M60">
+        <v>37</v>
+      </c>
+      <c r="N60">
+        <v>71.5</v>
+      </c>
+      <c r="O60">
+        <v>16</v>
+      </c>
+      <c r="T60">
+        <v>61.1</v>
+      </c>
+      <c r="U60">
+        <v>43</v>
+      </c>
+      <c r="V60">
+        <v>69.5</v>
+      </c>
+      <c r="W60">
+        <v>17</v>
+      </c>
+      <c r="X60">
+        <v>75.5</v>
+      </c>
+      <c r="Y60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>69.7</v>
+      </c>
+      <c r="K61">
+        <v>31</v>
+      </c>
+      <c r="L61">
+        <v>87</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>79.3</v>
+      </c>
+      <c r="O61">
+        <v>15</v>
+      </c>
+      <c r="P61">
+        <v>52.9</v>
+      </c>
+      <c r="Q61">
+        <v>100</v>
+      </c>
+      <c r="R61">
+        <v>52.9</v>
+      </c>
+      <c r="S61">
+        <v>100</v>
+      </c>
+      <c r="T61">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="U61">
+        <v>39</v>
+      </c>
+      <c r="V61">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W61">
+        <v>22</v>
+      </c>
+      <c r="X61">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Y61">
+        <v>10</v>
+      </c>
+      <c r="Z61">
+        <v>47.5</v>
+      </c>
+      <c r="AA61">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>85.3</v>
+      </c>
+      <c r="F62">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G62">
+        <v>82.8</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>85.8</v>
+      </c>
+      <c r="J62">
+        <v>70.8</v>
+      </c>
+      <c r="K62">
+        <v>54</v>
+      </c>
+      <c r="L62">
+        <v>76.8</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>78</v>
+      </c>
+      <c r="O62">
+        <v>32</v>
+      </c>
+      <c r="P62">
+        <v>80</v>
+      </c>
+      <c r="Q62">
+        <v>12</v>
+      </c>
+      <c r="R62">
+        <v>80.5</v>
+      </c>
+      <c r="S62">
+        <v>13</v>
+      </c>
+      <c r="T62">
+        <v>70.8</v>
+      </c>
+      <c r="U62">
+        <v>32</v>
+      </c>
+      <c r="V62">
+        <v>73.3</v>
+      </c>
+      <c r="W62">
+        <v>31</v>
+      </c>
+      <c r="X62">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Y62">
+        <v>18</v>
+      </c>
+      <c r="Z62">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AA62">
+        <v>11</v>
+      </c>
+      <c r="AB62">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AC62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>64.3</v>
+      </c>
+      <c r="G63">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>64.3</v>
+      </c>
+      <c r="K63">
+        <v>60</v>
+      </c>
+      <c r="L63">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="M63">
+        <v>34</v>
+      </c>
+      <c r="N63">
+        <v>75.3</v>
+      </c>
+      <c r="O63">
+        <v>21</v>
+      </c>
+      <c r="T63">
+        <v>64.3</v>
+      </c>
+      <c r="U63">
+        <v>40</v>
+      </c>
+      <c r="V63">
+        <v>77.3</v>
+      </c>
+      <c r="W63">
+        <v>13</v>
+      </c>
+      <c r="X63">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Y63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <v>68.5</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="K64">
+        <v>45</v>
+      </c>
+      <c r="L64">
+        <v>84.6</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>87.8</v>
+      </c>
+      <c r="O64">
+        <v>13</v>
+      </c>
+      <c r="P64">
+        <v>52.9</v>
+      </c>
+      <c r="Q64">
+        <v>100</v>
+      </c>
+      <c r="R64">
+        <v>52.9</v>
+      </c>
+      <c r="S64">
+        <v>100</v>
+      </c>
+      <c r="T64">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="U64">
+        <v>35</v>
+      </c>
+      <c r="V64">
+        <v>73.7</v>
+      </c>
+      <c r="W64">
+        <v>22</v>
+      </c>
+      <c r="X64">
+        <v>80.5</v>
+      </c>
+      <c r="Y64">
+        <v>10</v>
+      </c>
+      <c r="Z64">
+        <v>69.5</v>
+      </c>
+      <c r="AA64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>85.6</v>
+      </c>
+      <c r="F65">
+        <v>69.3</v>
+      </c>
+      <c r="G65">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65">
+        <v>88.2</v>
+      </c>
+      <c r="J65">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="K65">
+        <v>53</v>
+      </c>
+      <c r="L65">
+        <v>76.8</v>
+      </c>
+      <c r="M65">
+        <v>37</v>
+      </c>
+      <c r="N65">
+        <v>79.2</v>
+      </c>
+      <c r="O65">
+        <v>29</v>
+      </c>
+      <c r="P65">
+        <v>82.3</v>
+      </c>
+      <c r="Q65">
+        <v>14</v>
+      </c>
+      <c r="R65">
+        <v>82.4</v>
+      </c>
+      <c r="S65">
+        <v>11</v>
+      </c>
+      <c r="T65">
+        <v>69.8</v>
+      </c>
+      <c r="U65">
+        <v>35</v>
+      </c>
+      <c r="V65">
+        <v>72.3</v>
+      </c>
+      <c r="W65">
+        <v>27</v>
+      </c>
+      <c r="X65">
+        <v>74.8</v>
+      </c>
+      <c r="Y65">
+        <v>13</v>
+      </c>
+      <c r="Z65">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AA65">
+        <v>12</v>
+      </c>
+      <c r="AB65">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AC65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
+        <v>65.5</v>
+      </c>
+      <c r="G66">
+        <v>34.4</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="K66">
+        <v>60</v>
+      </c>
+      <c r="L66">
+        <v>69.8</v>
+      </c>
+      <c r="M66">
+        <v>34</v>
+      </c>
+      <c r="N66">
+        <v>75.3</v>
+      </c>
+      <c r="O66">
+        <v>20</v>
+      </c>
+      <c r="T66">
+        <v>65.7</v>
+      </c>
+      <c r="U66">
+        <v>40</v>
+      </c>
+      <c r="V66">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="W66">
+        <v>13</v>
+      </c>
+      <c r="X66">
+        <v>78.8</v>
+      </c>
+      <c r="Y66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>72.8</v>
+      </c>
+      <c r="K67">
+        <v>34</v>
+      </c>
+      <c r="L67">
+        <v>82.4</v>
+      </c>
+      <c r="M67">
+        <v>17</v>
+      </c>
+      <c r="N67">
+        <v>86.4</v>
+      </c>
+      <c r="O67">
+        <v>10</v>
+      </c>
+      <c r="P67">
+        <v>52.9</v>
+      </c>
+      <c r="Q67">
+        <v>100</v>
+      </c>
+      <c r="R67">
+        <v>52.9</v>
+      </c>
+      <c r="S67">
+        <v>100</v>
+      </c>
+      <c r="T67">
+        <v>70.3</v>
+      </c>
+      <c r="U67">
+        <v>20</v>
+      </c>
+      <c r="V67">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="W67">
+        <v>24</v>
+      </c>
+      <c r="X67">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="Y67">
+        <v>11</v>
+      </c>
+      <c r="Z67">
+        <v>63.6</v>
+      </c>
+      <c r="AA67">
+        <v>18</v>
+      </c>
+      <c r="AB67">
+        <v>63</v>
+      </c>
+      <c r="AC67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F68">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G68">
+        <v>55.6</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J68">
+        <v>71.8</v>
+      </c>
+      <c r="K68">
+        <v>50</v>
+      </c>
+      <c r="L68">
+        <v>80.8</v>
+      </c>
+      <c r="M68">
+        <v>34</v>
+      </c>
+      <c r="N68">
+        <v>87.3</v>
+      </c>
+      <c r="O68">
+        <v>15</v>
+      </c>
+      <c r="P68">
+        <v>89.2</v>
+      </c>
+      <c r="Q68">
+        <v>11</v>
+      </c>
+      <c r="T68">
+        <v>69.8</v>
+      </c>
+      <c r="U68">
+        <v>40</v>
+      </c>
+      <c r="V68">
+        <v>73.5</v>
+      </c>
+      <c r="W68">
+        <v>28</v>
+      </c>
+      <c r="X68">
+        <v>78.3</v>
+      </c>
+      <c r="Y68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>96.1</v>
+      </c>
+      <c r="F69">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69">
+        <v>97</v>
+      </c>
+      <c r="I69">
+        <v>95.4</v>
+      </c>
+      <c r="J69">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="K69">
+        <v>48</v>
+      </c>
+      <c r="L69">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="M69">
+        <v>39</v>
+      </c>
+      <c r="N69">
+        <v>78.7</v>
+      </c>
+      <c r="O69">
+        <v>37</v>
+      </c>
+      <c r="P69">
+        <v>85.5</v>
+      </c>
+      <c r="Q69">
+        <v>20</v>
+      </c>
+      <c r="R69">
+        <v>90.8</v>
+      </c>
+      <c r="S69">
+        <v>10</v>
+      </c>
+      <c r="T69">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="U69">
+        <v>46</v>
+      </c>
+      <c r="V69">
+        <v>71.7</v>
+      </c>
+      <c r="W69">
+        <v>37</v>
+      </c>
+      <c r="X69">
+        <v>75.7</v>
+      </c>
+      <c r="Y69">
+        <v>21</v>
+      </c>
+      <c r="Z69">
+        <v>81.5</v>
+      </c>
+      <c r="AA69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70">
+        <v>71</v>
+      </c>
+      <c r="F70">
+        <v>69.7</v>
+      </c>
+      <c r="G70">
+        <v>82.6</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <v>75.2</v>
+      </c>
+      <c r="J70">
+        <v>89.8</v>
+      </c>
+      <c r="K70">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>89.1</v>
+      </c>
+      <c r="M70">
+        <v>11</v>
+      </c>
+      <c r="N70">
+        <v>89.6</v>
+      </c>
+      <c r="O70">
+        <v>12</v>
+      </c>
+      <c r="P70">
+        <v>89.3</v>
+      </c>
+      <c r="Q70">
+        <v>12</v>
+      </c>
+      <c r="T70">
+        <v>71.8</v>
+      </c>
+      <c r="U70">
+        <v>37</v>
+      </c>
+      <c r="V70">
+        <v>74.7</v>
+      </c>
+      <c r="W70">
+        <v>25</v>
+      </c>
+      <c r="X70">
+        <v>75.7</v>
+      </c>
+      <c r="Y70">
+        <v>19</v>
+      </c>
+      <c r="Z70">
+        <v>71.5</v>
+      </c>
+      <c r="AA70">
+        <v>16</v>
+      </c>
+      <c r="AB70">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AC70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <v>73.5</v>
+      </c>
+      <c r="F71">
+        <v>72.5</v>
+      </c>
+      <c r="G71">
+        <v>58.2</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>76.2</v>
+      </c>
+      <c r="J71">
+        <v>74.5</v>
+      </c>
+      <c r="K71">
+        <v>50</v>
+      </c>
+      <c r="L71">
+        <v>83.7</v>
+      </c>
+      <c r="M71">
+        <v>31</v>
+      </c>
+      <c r="N71">
+        <v>86.9</v>
+      </c>
+      <c r="O71">
+        <v>19</v>
+      </c>
+      <c r="P71">
+        <v>90.5</v>
+      </c>
+      <c r="Q71">
+        <v>12</v>
+      </c>
+      <c r="R71">
+        <v>93.2</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="U71">
+        <v>48</v>
+      </c>
+      <c r="V71">
+        <v>75.3</v>
+      </c>
+      <c r="W71">
+        <v>31</v>
+      </c>
+      <c r="X71">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="Y71">
+        <v>23</v>
+      </c>
+      <c r="Z71">
+        <v>76.2</v>
+      </c>
+      <c r="AA71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72">
+        <v>98.9</v>
+      </c>
+      <c r="F72">
+        <v>69.2</v>
+      </c>
+      <c r="G72">
+        <v>59.1</v>
+      </c>
+      <c r="H72">
+        <v>99.7</v>
+      </c>
+      <c r="I72">
+        <v>98.1</v>
+      </c>
+      <c r="J72">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K72">
+        <v>44</v>
+      </c>
+      <c r="L72">
+        <v>78.2</v>
+      </c>
+      <c r="M72">
+        <v>39</v>
+      </c>
+      <c r="N72">
+        <v>80.7</v>
+      </c>
+      <c r="O72">
+        <v>32</v>
+      </c>
+      <c r="P72">
+        <v>84.9</v>
+      </c>
+      <c r="Q72">
+        <v>24</v>
+      </c>
+      <c r="R72">
+        <v>89.8</v>
+      </c>
+      <c r="S72">
+        <v>11</v>
+      </c>
+      <c r="T72">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="U72">
+        <v>46</v>
+      </c>
+      <c r="V72">
+        <v>71.8</v>
+      </c>
+      <c r="W72">
+        <v>36</v>
+      </c>
+      <c r="X72">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="Y72">
+        <v>24</v>
+      </c>
+      <c r="Z72">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AA72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73">
+        <v>76.3</v>
+      </c>
+      <c r="F73">
+        <v>71.7</v>
+      </c>
+      <c r="G73">
+        <v>57.3</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="I73">
+        <v>82.4</v>
+      </c>
+      <c r="J73">
+        <v>87.5</v>
+      </c>
+      <c r="K73">
+        <v>13</v>
+      </c>
+      <c r="L73">
+        <v>88</v>
+      </c>
+      <c r="M73">
+        <v>13</v>
+      </c>
+      <c r="N73">
+        <v>88.8</v>
+      </c>
+      <c r="O73">
+        <v>15</v>
+      </c>
+      <c r="P73">
+        <v>90.2</v>
+      </c>
+      <c r="Q73">
+        <v>13</v>
+      </c>
+      <c r="R73">
+        <v>92.6</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U73">
+        <v>45</v>
+      </c>
+      <c r="V73">
+        <v>74.7</v>
+      </c>
+      <c r="W73">
+        <v>31</v>
+      </c>
+      <c r="X73">
+        <v>80</v>
+      </c>
+      <c r="Y73">
+        <v>21</v>
+      </c>
+      <c r="Z73">
+        <v>71.3</v>
+      </c>
+      <c r="AA73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74">
+        <v>74.7</v>
+      </c>
+      <c r="F74">
+        <v>72</v>
+      </c>
+      <c r="G74">
+        <v>62.1</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>78.8</v>
+      </c>
+      <c r="J74">
+        <v>75.3</v>
+      </c>
+      <c r="K74">
+        <v>49</v>
+      </c>
+      <c r="L74">
+        <v>83.6</v>
+      </c>
+      <c r="M74">
+        <v>24</v>
+      </c>
+      <c r="N74">
+        <v>89.4</v>
+      </c>
+      <c r="O74">
+        <v>20</v>
+      </c>
+      <c r="P74">
+        <v>91</v>
+      </c>
+      <c r="Q74">
+        <v>15</v>
+      </c>
+      <c r="R74">
+        <v>94.2</v>
+      </c>
+      <c r="S74">
+        <v>11</v>
+      </c>
+      <c r="T74">
+        <v>71.2</v>
+      </c>
+      <c r="U74">
+        <v>42</v>
+      </c>
+      <c r="V74">
+        <v>74.3</v>
+      </c>
+      <c r="W74">
+        <v>12</v>
+      </c>
+      <c r="X74">
+        <v>78.3</v>
+      </c>
+      <c r="Y74">
+        <v>23</v>
+      </c>
+      <c r="Z74">
+        <v>82.7</v>
+      </c>
+      <c r="AA74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75">
+        <v>99.4</v>
+      </c>
+      <c r="F75">
+        <v>69.7</v>
+      </c>
+      <c r="G75">
+        <v>55.5</v>
+      </c>
+      <c r="H75">
+        <v>99.9</v>
+      </c>
+      <c r="I75">
+        <v>98.9</v>
+      </c>
+      <c r="J75">
+        <v>74.7</v>
+      </c>
+      <c r="K75">
+        <v>44</v>
+      </c>
+      <c r="L75">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="M75">
+        <v>39</v>
+      </c>
+      <c r="N75">
+        <v>81</v>
+      </c>
+      <c r="O75">
+        <v>33</v>
+      </c>
+      <c r="P75">
+        <v>85.9</v>
+      </c>
+      <c r="Q75">
+        <v>22</v>
+      </c>
+      <c r="R75">
+        <v>91.6</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="U75">
+        <v>46</v>
+      </c>
+      <c r="V75">
+        <v>73.3</v>
+      </c>
+      <c r="W75">
+        <v>36</v>
+      </c>
+      <c r="X75">
+        <v>81.3</v>
+      </c>
+      <c r="Y75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76">
+        <v>90.3</v>
+      </c>
+      <c r="F76">
+        <v>72.2</v>
+      </c>
+      <c r="G76">
+        <v>57.2</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76">
+        <v>90.5</v>
+      </c>
+      <c r="J76">
+        <v>75.8</v>
+      </c>
+      <c r="K76">
+        <v>26</v>
+      </c>
+      <c r="L76">
+        <v>82.2</v>
+      </c>
+      <c r="M76">
+        <v>38</v>
+      </c>
+      <c r="N76">
+        <v>90.4</v>
+      </c>
+      <c r="O76">
+        <v>11</v>
+      </c>
+      <c r="P76">
+        <v>92.2</v>
+      </c>
+      <c r="Q76">
+        <v>11</v>
+      </c>
+      <c r="R76">
+        <v>92.4</v>
+      </c>
+      <c r="S76">
+        <v>10</v>
+      </c>
+      <c r="T76">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="U76">
+        <v>46</v>
+      </c>
+      <c r="V76">
+        <v>74.5</v>
+      </c>
+      <c r="W76">
+        <v>30</v>
+      </c>
+      <c r="X76">
+        <v>81.3</v>
+      </c>
+      <c r="Y76">
+        <v>18</v>
+      </c>
+      <c r="Z76">
+        <v>72.7</v>
+      </c>
+      <c r="AA76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77">
+        <v>79</v>
+      </c>
+      <c r="F77">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G77">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77">
+        <v>80.2</v>
+      </c>
+      <c r="J77">
+        <v>74</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>82.2</v>
+      </c>
+      <c r="M77">
+        <v>38</v>
+      </c>
+      <c r="N77">
+        <v>87.8</v>
+      </c>
+      <c r="O77">
+        <v>24</v>
+      </c>
+      <c r="P77">
+        <v>90.5</v>
+      </c>
+      <c r="Q77">
+        <v>13</v>
+      </c>
+      <c r="R77">
+        <v>92.3</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <v>70</v>
+      </c>
+      <c r="U77">
+        <v>40</v>
+      </c>
+      <c r="V77">
+        <v>74.3</v>
+      </c>
+      <c r="W77">
+        <v>20</v>
+      </c>
+      <c r="X77">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Y77">
+        <v>20</v>
+      </c>
+      <c r="Z77">
+        <v>77.7</v>
+      </c>
+      <c r="AA77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78">
+        <v>99.8</v>
+      </c>
+      <c r="F78">
+        <v>69.3</v>
+      </c>
+      <c r="G78">
+        <v>51.8</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78">
+        <v>99.6</v>
+      </c>
+      <c r="J78">
+        <v>74.7</v>
+      </c>
+      <c r="K78">
+        <v>44</v>
+      </c>
+      <c r="L78">
+        <v>78.3</v>
+      </c>
+      <c r="M78">
+        <v>38</v>
+      </c>
+      <c r="N78">
+        <v>81</v>
+      </c>
+      <c r="O78">
+        <v>32</v>
+      </c>
+      <c r="P78">
+        <v>84.7</v>
+      </c>
+      <c r="Q78">
+        <v>22</v>
+      </c>
+      <c r="R78">
+        <v>89.4</v>
+      </c>
+      <c r="S78">
+        <v>11</v>
+      </c>
+      <c r="T78">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="U78">
+        <v>49</v>
+      </c>
+      <c r="V78">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="W78">
+        <v>36</v>
+      </c>
+      <c r="X78">
+        <v>79.3</v>
+      </c>
+      <c r="Y78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>99.9</v>
+      </c>
+      <c r="F79">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G79">
+        <v>51.6</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <v>99.9</v>
+      </c>
+      <c r="J79">
+        <v>75.3</v>
+      </c>
+      <c r="K79">
+        <v>50</v>
+      </c>
+      <c r="L79">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="M79">
+        <v>38</v>
+      </c>
+      <c r="N79">
+        <v>89.4</v>
+      </c>
+      <c r="O79">
+        <v>12</v>
+      </c>
+      <c r="P79">
+        <v>90.9</v>
+      </c>
+      <c r="Q79">
+        <v>13</v>
+      </c>
+      <c r="R79">
+        <v>92.1</v>
+      </c>
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U79">
+        <v>47</v>
+      </c>
+      <c r="V79">
+        <v>74</v>
+      </c>
+      <c r="W79">
+        <v>34</v>
+      </c>
+      <c r="X79">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="Y79">
+        <v>18</v>
+      </c>
+      <c r="Z79">
+        <v>70.7</v>
+      </c>
+      <c r="AA79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F80">
+        <v>71.2</v>
+      </c>
+      <c r="G80">
+        <v>69</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J80">
+        <v>76.2</v>
+      </c>
+      <c r="K80">
+        <v>45</v>
+      </c>
+      <c r="L80">
+        <v>83.4</v>
+      </c>
+      <c r="M80">
+        <v>28</v>
+      </c>
+      <c r="N80">
+        <v>89.7</v>
+      </c>
+      <c r="O80">
+        <v>20</v>
+      </c>
+      <c r="P80">
+        <v>91.2</v>
+      </c>
+      <c r="Q80">
+        <v>12</v>
+      </c>
+      <c r="R80">
+        <v>93.3</v>
+      </c>
+      <c r="S80">
+        <v>10</v>
+      </c>
+      <c r="T80">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="U80">
+        <v>44</v>
+      </c>
+      <c r="V80">
+        <v>73.2</v>
+      </c>
+      <c r="W80">
+        <v>35</v>
+      </c>
+      <c r="X80">
+        <v>77.5</v>
+      </c>
+      <c r="Y80">
+        <v>20</v>
+      </c>
+      <c r="Z80">
+        <v>81</v>
+      </c>
+      <c r="AA80">
+        <v>11</v>
+      </c>
+      <c r="AB80">
+        <v>68.8</v>
+      </c>
+      <c r="AC80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <v>99.9</v>
+      </c>
+      <c r="F81">
+        <v>69.8</v>
+      </c>
+      <c r="G81">
+        <v>51.7</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>99.8</v>
+      </c>
+      <c r="J81">
+        <v>74.5</v>
+      </c>
+      <c r="K81">
+        <v>44</v>
+      </c>
+      <c r="L81">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>82.3</v>
+      </c>
+      <c r="O81">
+        <v>28</v>
+      </c>
+      <c r="P81">
+        <v>87.2</v>
+      </c>
+      <c r="Q81">
+        <v>22</v>
+      </c>
+      <c r="R81">
+        <v>92.3</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <v>67.5</v>
+      </c>
+      <c r="U81">
+        <v>48</v>
+      </c>
+      <c r="V81">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W81">
+        <v>32</v>
+      </c>
+      <c r="X81">
+        <v>80.3</v>
+      </c>
+      <c r="Y81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>71.7</v>
+      </c>
+      <c r="G82">
+        <v>52.1</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>74.2</v>
+      </c>
+      <c r="K82">
+        <v>50</v>
+      </c>
+      <c r="L82">
+        <v>86.2</v>
+      </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
+      <c r="N82">
+        <v>91</v>
+      </c>
+      <c r="O82">
+        <v>12</v>
+      </c>
+      <c r="P82">
+        <v>92</v>
+      </c>
+      <c r="Q82">
+        <v>10</v>
+      </c>
+      <c r="R82">
+        <v>94.3</v>
+      </c>
+      <c r="S82">
+        <v>10</v>
+      </c>
+      <c r="T82">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="U82">
+        <v>45</v>
+      </c>
+      <c r="V82">
+        <v>75.3</v>
+      </c>
+      <c r="W82">
+        <v>11</v>
+      </c>
+      <c r="X82">
+        <v>80.5</v>
+      </c>
+      <c r="Y82">
+        <v>17</v>
+      </c>
+      <c r="Z82">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AA82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83">
+        <v>70.3</v>
+      </c>
+      <c r="F83">
+        <v>71.2</v>
+      </c>
+      <c r="G83">
+        <v>50.9</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>75.5</v>
+      </c>
+      <c r="J83">
+        <v>74</v>
+      </c>
+      <c r="K83">
+        <v>50</v>
+      </c>
+      <c r="L83">
+        <v>82</v>
+      </c>
+      <c r="M83">
+        <v>34</v>
+      </c>
+      <c r="N83">
+        <v>86.7</v>
+      </c>
+      <c r="O83">
+        <v>20</v>
+      </c>
+      <c r="P83">
+        <v>91</v>
+      </c>
+      <c r="Q83">
+        <v>12</v>
+      </c>
+      <c r="T83">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="U83">
+        <v>42</v>
+      </c>
+      <c r="V83">
+        <v>71.8</v>
+      </c>
+      <c r="W83">
+        <v>20</v>
+      </c>
+      <c r="X83">
+        <v>78.7</v>
+      </c>
+      <c r="Y83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84">
+        <v>95.6</v>
+      </c>
+      <c r="F84">
+        <v>70</v>
+      </c>
+      <c r="G84">
+        <v>59.9</v>
+      </c>
+      <c r="H84">
+        <v>97.3</v>
+      </c>
+      <c r="I84">
+        <v>93.7</v>
+      </c>
+      <c r="J84">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K84">
+        <v>45</v>
+      </c>
+      <c r="L84">
+        <v>79.8</v>
+      </c>
+      <c r="M84">
+        <v>38</v>
+      </c>
+      <c r="N84">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="O84">
+        <v>33</v>
+      </c>
+      <c r="P84">
+        <v>84.6</v>
+      </c>
+      <c r="Q84">
+        <v>26</v>
+      </c>
+      <c r="R84">
+        <v>85.9</v>
+      </c>
+      <c r="S84">
+        <v>14</v>
+      </c>
+      <c r="T84">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="U84">
+        <v>52</v>
+      </c>
+      <c r="V84">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="W84">
+        <v>39</v>
+      </c>
+      <c r="X84">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="Y84">
+        <v>12</v>
+      </c>
+      <c r="Z84">
+        <v>71.7</v>
+      </c>
+      <c r="AA84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>70.3</v>
+      </c>
+      <c r="F85">
+        <v>70.5</v>
+      </c>
+      <c r="G85">
+        <v>69.3</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>84.4</v>
+      </c>
+      <c r="J85">
+        <v>90.2</v>
+      </c>
+      <c r="K85">
+        <v>13</v>
+      </c>
+      <c r="L85">
+        <v>89.7</v>
+      </c>
+      <c r="M85">
+        <v>14</v>
+      </c>
+      <c r="N85">
+        <v>89.9</v>
+      </c>
+      <c r="O85">
+        <v>13</v>
+      </c>
+      <c r="P85">
+        <v>91</v>
+      </c>
+      <c r="Q85">
+        <v>10</v>
+      </c>
+      <c r="R85">
+        <v>75.5</v>
+      </c>
+      <c r="S85">
+        <v>16</v>
+      </c>
+      <c r="T85">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="U85">
+        <v>22</v>
+      </c>
+      <c r="V85">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="W85">
+        <v>22</v>
+      </c>
+      <c r="X85">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Y85">
+        <v>10</v>
+      </c>
+      <c r="Z85">
+        <v>72.8</v>
+      </c>
+      <c r="AA85">
+        <v>10</v>
+      </c>
+      <c r="AB85">
+        <v>72</v>
+      </c>
+      <c r="AC85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F86">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G86">
+        <v>62.9</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J86">
+        <v>74.7</v>
+      </c>
+      <c r="K86">
+        <v>50</v>
+      </c>
+      <c r="L86">
+        <v>82.7</v>
+      </c>
+      <c r="M86">
+        <v>32</v>
+      </c>
+      <c r="N86">
+        <v>86.7</v>
+      </c>
+      <c r="O86">
+        <v>21</v>
+      </c>
+      <c r="P86">
+        <v>90.2</v>
+      </c>
+      <c r="Q86">
+        <v>11</v>
+      </c>
+      <c r="R86">
+        <v>93.9</v>
+      </c>
+      <c r="S86">
+        <v>11</v>
+      </c>
+      <c r="T86">
+        <v>70.8</v>
+      </c>
+      <c r="U86">
+        <v>44</v>
+      </c>
+      <c r="V86">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="W86">
+        <v>33</v>
+      </c>
+      <c r="X86">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Y86">
+        <v>21</v>
+      </c>
+      <c r="Z86">
+        <v>84.5</v>
+      </c>
+      <c r="AA86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87">
+        <v>98.9</v>
+      </c>
+      <c r="F87">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G87">
+        <v>56.7</v>
+      </c>
+      <c r="H87">
+        <v>99.9</v>
+      </c>
+      <c r="I87">
+        <v>97.8</v>
+      </c>
+      <c r="J87">
+        <v>75.3</v>
+      </c>
+      <c r="K87">
+        <v>43</v>
+      </c>
+      <c r="L87">
+        <v>78.5</v>
+      </c>
+      <c r="M87">
+        <v>39</v>
+      </c>
+      <c r="N87">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="O87">
+        <v>31</v>
+      </c>
+      <c r="P87">
+        <v>83.4</v>
+      </c>
+      <c r="Q87">
+        <v>24</v>
+      </c>
+      <c r="R87">
+        <v>86.1</v>
+      </c>
+      <c r="S87">
+        <v>13</v>
+      </c>
+      <c r="T87">
+        <v>68.2</v>
+      </c>
+      <c r="U87">
+        <v>47</v>
+      </c>
+      <c r="V87">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="W87">
+        <v>34</v>
+      </c>
+      <c r="X87">
+        <v>79.8</v>
+      </c>
+      <c r="Y87">
+        <v>10</v>
+      </c>
+      <c r="Z87">
+        <v>80.7</v>
+      </c>
+      <c r="AA87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>79.2</v>
+      </c>
+      <c r="F88">
+        <v>72.2</v>
+      </c>
+      <c r="G88">
+        <v>60.5</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <v>82.8</v>
+      </c>
+      <c r="J88">
+        <v>89.1</v>
+      </c>
+      <c r="K88">
+        <v>13</v>
+      </c>
+      <c r="L88">
+        <v>85.6</v>
+      </c>
+      <c r="M88">
+        <v>14</v>
+      </c>
+      <c r="N88">
+        <v>89.6</v>
+      </c>
+      <c r="O88">
+        <v>13</v>
+      </c>
+      <c r="P88">
+        <v>89.7</v>
+      </c>
+      <c r="Q88">
+        <v>12</v>
+      </c>
+      <c r="R88">
+        <v>94.3</v>
+      </c>
+      <c r="S88">
+        <v>10</v>
+      </c>
+      <c r="T88">
+        <v>71.3</v>
+      </c>
+      <c r="U88">
+        <v>43</v>
+      </c>
+      <c r="V88">
+        <v>76.7</v>
+      </c>
+      <c r="W88">
+        <v>29</v>
+      </c>
+      <c r="X88">
+        <v>82.2</v>
+      </c>
+      <c r="Y88">
+        <v>16</v>
+      </c>
+      <c r="Z88">
+        <v>71.3</v>
+      </c>
+      <c r="AA88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89">
+        <v>76</v>
+      </c>
+      <c r="F89">
+        <v>72.5</v>
+      </c>
+      <c r="G89">
+        <v>61.9</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>76</v>
+      </c>
+      <c r="J89">
+        <v>74.5</v>
+      </c>
+      <c r="K89">
+        <v>52</v>
+      </c>
+      <c r="L89">
+        <v>83.4</v>
+      </c>
+      <c r="M89">
+        <v>17</v>
+      </c>
+      <c r="N89">
+        <v>87.3</v>
+      </c>
+      <c r="O89">
+        <v>20</v>
+      </c>
+      <c r="P89">
+        <v>90.4</v>
+      </c>
+      <c r="Q89">
+        <v>12</v>
+      </c>
+      <c r="R89">
+        <v>93.5</v>
+      </c>
+      <c r="S89">
+        <v>10</v>
+      </c>
+      <c r="T89">
+        <v>71.3</v>
+      </c>
+      <c r="U89">
+        <v>43</v>
+      </c>
+      <c r="V89">
+        <v>74.2</v>
+      </c>
+      <c r="W89">
+        <v>34</v>
+      </c>
+      <c r="X89">
+        <v>78</v>
+      </c>
+      <c r="Y89">
+        <v>23</v>
+      </c>
+      <c r="Z89">
+        <v>87.4</v>
+      </c>
+      <c r="AA89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90">
+        <v>99.4</v>
+      </c>
+      <c r="F90">
+        <v>70.5</v>
+      </c>
+      <c r="G90">
+        <v>55</v>
+      </c>
+      <c r="H90">
+        <v>99.9</v>
+      </c>
+      <c r="I90">
+        <v>98.8</v>
+      </c>
+      <c r="J90">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K90">
+        <v>43</v>
+      </c>
+      <c r="L90">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="M90">
+        <v>38</v>
+      </c>
+      <c r="N90">
+        <v>81.2</v>
+      </c>
+      <c r="O90">
+        <v>31</v>
+      </c>
+      <c r="P90">
+        <v>86</v>
+      </c>
+      <c r="Q90">
+        <v>23</v>
+      </c>
+      <c r="R90">
+        <v>91.4</v>
+      </c>
+      <c r="S90">
+        <v>12</v>
+      </c>
+      <c r="T90">
+        <v>68.5</v>
+      </c>
+      <c r="U90">
+        <v>46</v>
+      </c>
+      <c r="V90">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="W90">
+        <v>34</v>
+      </c>
+      <c r="X90">
+        <v>83</v>
+      </c>
+      <c r="Y90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>95.4</v>
+      </c>
+      <c r="F91">
+        <v>72.5</v>
+      </c>
+      <c r="G91">
+        <v>59.6</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>95.1</v>
+      </c>
+      <c r="J91">
+        <v>73.7</v>
+      </c>
+      <c r="K91">
+        <v>50</v>
+      </c>
+      <c r="L91">
+        <v>83.1</v>
+      </c>
+      <c r="M91">
+        <v>15</v>
+      </c>
+      <c r="N91">
+        <v>88.6</v>
+      </c>
+      <c r="O91">
+        <v>12</v>
+      </c>
+      <c r="P91">
+        <v>91.8</v>
+      </c>
+      <c r="Q91">
+        <v>11</v>
+      </c>
+      <c r="R91">
+        <v>95.5</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="T91">
+        <v>72.5</v>
+      </c>
+      <c r="U91">
+        <v>43</v>
+      </c>
+      <c r="V91">
+        <v>74.5</v>
+      </c>
+      <c r="W91">
+        <v>33</v>
+      </c>
+      <c r="X91">
+        <v>82.5</v>
+      </c>
+      <c r="Y91">
+        <v>18</v>
+      </c>
+      <c r="Z91">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AA91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92">
+        <v>76.7</v>
+      </c>
+      <c r="F92">
+        <v>72.5</v>
+      </c>
+      <c r="G92">
+        <v>65.5</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="J92">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="K92">
+        <v>52</v>
+      </c>
+      <c r="L92">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="M92">
+        <v>37</v>
+      </c>
+      <c r="N92">
+        <v>87.8</v>
+      </c>
+      <c r="O92">
+        <v>21</v>
+      </c>
+      <c r="P92">
+        <v>90.5</v>
+      </c>
+      <c r="Q92">
+        <v>14</v>
+      </c>
+      <c r="R92">
+        <v>95.5</v>
+      </c>
+      <c r="S92">
+        <v>10</v>
+      </c>
+      <c r="T92">
+        <v>71.5</v>
+      </c>
+      <c r="U92">
+        <v>46</v>
+      </c>
+      <c r="V92">
+        <v>75.3</v>
+      </c>
+      <c r="W92">
+        <v>34</v>
+      </c>
+      <c r="X92">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Y92">
+        <v>23</v>
+      </c>
+      <c r="Z92">
+        <v>81.2</v>
+      </c>
+      <c r="AA92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93">
+        <v>99.6</v>
+      </c>
+      <c r="F93">
+        <v>71.2</v>
+      </c>
+      <c r="G93">
+        <v>53.6</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>99.2</v>
+      </c>
+      <c r="J93">
+        <v>75.2</v>
+      </c>
+      <c r="K93">
+        <v>43</v>
+      </c>
+      <c r="L93">
+        <v>78.8</v>
+      </c>
+      <c r="M93">
+        <v>38</v>
+      </c>
+      <c r="N93">
+        <v>82.7</v>
+      </c>
+      <c r="O93">
+        <v>30</v>
+      </c>
+      <c r="P93">
+        <v>85.4</v>
+      </c>
+      <c r="Q93">
+        <v>22</v>
+      </c>
+      <c r="R93">
+        <v>90.7</v>
+      </c>
+      <c r="S93">
+        <v>11</v>
+      </c>
+      <c r="T93">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="U93">
+        <v>48</v>
+      </c>
+      <c r="V93">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="W93">
+        <v>33</v>
+      </c>
+      <c r="X93">
+        <v>83.2</v>
+      </c>
+      <c r="Y93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <v>72.5</v>
+      </c>
+      <c r="G94">
+        <v>55.2</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>74.2</v>
+      </c>
+      <c r="K94">
+        <v>50</v>
+      </c>
+      <c r="L94">
+        <v>81.7</v>
+      </c>
+      <c r="M94">
+        <v>11</v>
+      </c>
+      <c r="N94">
+        <v>89.9</v>
+      </c>
+      <c r="O94">
+        <v>15</v>
+      </c>
+      <c r="P94">
+        <v>92.8</v>
+      </c>
+      <c r="Q94">
+        <v>11</v>
+      </c>
+      <c r="R94">
+        <v>96.6</v>
+      </c>
+      <c r="S94">
+        <v>10</v>
+      </c>
+      <c r="T94">
+        <v>71</v>
+      </c>
+      <c r="U94">
+        <v>47</v>
+      </c>
+      <c r="V94">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="W94">
+        <v>34</v>
+      </c>
+      <c r="X94">
+        <v>83</v>
+      </c>
+      <c r="Y94">
+        <v>15</v>
+      </c>
+      <c r="Z94">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AA94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95">
+        <v>77.8</v>
+      </c>
+      <c r="F95">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G95">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>78.3</v>
+      </c>
+      <c r="J95">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K95">
+        <v>48</v>
+      </c>
+      <c r="L95">
+        <v>79.2</v>
+      </c>
+      <c r="M95">
+        <v>36</v>
+      </c>
+      <c r="N95">
+        <v>90.4</v>
+      </c>
+      <c r="O95">
+        <v>14</v>
+      </c>
+      <c r="P95">
+        <v>91.2</v>
+      </c>
+      <c r="Q95">
+        <v>12</v>
+      </c>
+      <c r="R95">
+        <v>96.6</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>71.3</v>
+      </c>
+      <c r="U95">
+        <v>44</v>
+      </c>
+      <c r="V95">
+        <v>75.3</v>
+      </c>
+      <c r="W95">
+        <v>36</v>
+      </c>
+      <c r="X95">
+        <v>79.8</v>
+      </c>
+      <c r="Y95">
+        <v>22</v>
+      </c>
+      <c r="Z95">
+        <v>81.5</v>
+      </c>
+      <c r="AA95">
+        <v>14</v>
+      </c>
+      <c r="AB95">
+        <v>77.2</v>
+      </c>
+      <c r="AC95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96">
+        <v>99.8</v>
+      </c>
+      <c r="F96">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G96">
+        <v>52.7</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>99.5</v>
+      </c>
+      <c r="J96">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K96">
+        <v>43</v>
+      </c>
+      <c r="L96">
+        <v>78.5</v>
+      </c>
+      <c r="M96">
+        <v>37</v>
+      </c>
+      <c r="N96">
+        <v>83.4</v>
+      </c>
+      <c r="O96">
+        <v>30</v>
+      </c>
+      <c r="P96">
+        <v>87.2</v>
+      </c>
+      <c r="Q96">
+        <v>22</v>
+      </c>
+      <c r="R96">
+        <v>93</v>
+      </c>
+      <c r="S96">
+        <v>11</v>
+      </c>
+      <c r="T96">
+        <v>68.2</v>
+      </c>
+      <c r="U96">
+        <v>48</v>
+      </c>
+      <c r="V96">
+        <v>72.7</v>
+      </c>
+      <c r="W96">
+        <v>34</v>
+      </c>
+      <c r="X96">
+        <v>82.2</v>
+      </c>
+      <c r="Y96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97">
+        <v>72.5</v>
+      </c>
+      <c r="G97">
+        <v>55.5</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K97">
+        <v>51</v>
+      </c>
+      <c r="L97">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M97">
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>89.9</v>
+      </c>
+      <c r="O97">
+        <v>17</v>
+      </c>
+      <c r="P97">
+        <v>92.9</v>
+      </c>
+      <c r="Q97">
+        <v>14</v>
+      </c>
+      <c r="R97">
+        <v>94.6</v>
+      </c>
+      <c r="S97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>71.3</v>
+      </c>
+      <c r="U97">
+        <v>46</v>
+      </c>
+      <c r="V97">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="W97">
+        <v>33</v>
+      </c>
+      <c r="X97">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="Y97">
+        <v>20</v>
+      </c>
+      <c r="Z97">
+        <v>77.3</v>
+      </c>
+      <c r="AA97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125">
+        <v>25</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127">
+        <v>25</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="AA1:AA1048576 Y1:Y1048576 W1:W1048576 U1:U1048576 S1:S1048576 Q1:Q1048576 O1:O1048576 M1:M1048576 K1:K1048576 D1:I1048576">
+  <autoFilter ref="A1:AC97" xr:uid="{A260B6F8-B2E4-4984-ACC2-D5D428DD9BCD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC97">
+      <sortCondition ref="A2:A97"/>
+      <sortCondition ref="B2:B97"/>
+      <sortCondition ref="C2:C97"/>
+      <sortCondition ref="D2:D97"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AB1:AB1048576 Z1:Z1048576 X1:X1048576 V1:V1048576 T1:T1048576 R1:R1048576 P1:P1048576 N1:N1048576 L1:L1048576 E1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E8FF5-5ABE-40E4-AC31-879FCFD1DC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02427279-3C08-445F-BF8D-78F52329B05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -528,8 +528,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8055,7 +8055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -8151,8 +8151,65 @@
       <c r="D98" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>65.3</v>
+      </c>
+      <c r="F98">
+        <v>58.1</v>
+      </c>
+      <c r="G98">
+        <v>32.1</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="J98">
+        <v>60</v>
+      </c>
+      <c r="K98">
+        <v>58</v>
+      </c>
+      <c r="L98">
+        <v>64.2</v>
+      </c>
+      <c r="M98">
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>62.6</v>
+      </c>
+      <c r="O98">
+        <v>12</v>
+      </c>
+      <c r="P98">
+        <v>61.6</v>
+      </c>
+      <c r="Q98">
+        <v>10</v>
+      </c>
+      <c r="T98">
+        <v>57.9</v>
+      </c>
+      <c r="U98">
+        <v>11</v>
+      </c>
+      <c r="V98">
+        <v>59.6</v>
+      </c>
+      <c r="W98">
+        <v>13</v>
+      </c>
+      <c r="X98">
+        <v>53.8</v>
+      </c>
+      <c r="Y98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -8165,8 +8222,53 @@
       <c r="D99" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>97.6</v>
+      </c>
+      <c r="F99">
+        <v>57.2</v>
+      </c>
+      <c r="G99">
+        <v>22.3</v>
+      </c>
+      <c r="H99">
+        <v>97.9</v>
+      </c>
+      <c r="I99">
+        <v>97.2</v>
+      </c>
+      <c r="J99">
+        <v>60.4</v>
+      </c>
+      <c r="K99">
+        <v>51</v>
+      </c>
+      <c r="L99">
+        <v>72</v>
+      </c>
+      <c r="M99">
+        <v>15</v>
+      </c>
+      <c r="N99">
+        <v>68.3</v>
+      </c>
+      <c r="O99">
+        <v>14</v>
+      </c>
+      <c r="T99">
+        <v>54</v>
+      </c>
+      <c r="U99">
+        <v>49</v>
+      </c>
+      <c r="V99">
+        <v>51.1</v>
+      </c>
+      <c r="W99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -8179,8 +8281,35 @@
       <c r="D100" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>85.1</v>
+      </c>
+      <c r="F100">
+        <v>56.5</v>
+      </c>
+      <c r="G100">
+        <v>0.3</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>82.6</v>
+      </c>
+      <c r="J100">
+        <v>57.5</v>
+      </c>
+      <c r="K100">
+        <v>41</v>
+      </c>
+      <c r="T100">
+        <v>57</v>
+      </c>
+      <c r="U100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -8193,8 +8322,83 @@
       <c r="D101" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>71.8</v>
+      </c>
+      <c r="F101">
+        <v>64.2</v>
+      </c>
+      <c r="G101">
+        <v>50.6</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="J101">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K101">
+        <v>54</v>
+      </c>
+      <c r="L101">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="M101">
+        <v>17</v>
+      </c>
+      <c r="N101">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="O101">
+        <v>11</v>
+      </c>
+      <c r="P101">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="Q101">
+        <v>11</v>
+      </c>
+      <c r="R101">
+        <v>63</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>63.4</v>
+      </c>
+      <c r="U101">
+        <v>34</v>
+      </c>
+      <c r="V101">
+        <v>66.2</v>
+      </c>
+      <c r="W101">
+        <v>21</v>
+      </c>
+      <c r="X101">
+        <v>71.2</v>
+      </c>
+      <c r="Y101">
+        <v>13</v>
+      </c>
+      <c r="Z101">
+        <v>59.2</v>
+      </c>
+      <c r="AA101">
+        <v>12</v>
+      </c>
+      <c r="AB101">
+        <v>58</v>
+      </c>
+      <c r="AC101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -8207,8 +8411,59 @@
       <c r="D102" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>99</v>
+      </c>
+      <c r="F102">
+        <v>60</v>
+      </c>
+      <c r="G102">
+        <v>28.3</v>
+      </c>
+      <c r="H102">
+        <v>99.6</v>
+      </c>
+      <c r="I102">
+        <v>98.5</v>
+      </c>
+      <c r="J102">
+        <v>62.7</v>
+      </c>
+      <c r="K102">
+        <v>53</v>
+      </c>
+      <c r="L102">
+        <v>67.8</v>
+      </c>
+      <c r="M102">
+        <v>28</v>
+      </c>
+      <c r="N102">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="O102">
+        <v>11</v>
+      </c>
+      <c r="T102">
+        <v>57</v>
+      </c>
+      <c r="U102">
+        <v>47</v>
+      </c>
+      <c r="V102">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="W102">
+        <v>13</v>
+      </c>
+      <c r="X102">
+        <v>64.5</v>
+      </c>
+      <c r="Y102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -8221,8 +8476,47 @@
       <c r="D103" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>99.7</v>
+      </c>
+      <c r="F103">
+        <v>63.2</v>
+      </c>
+      <c r="G103">
+        <v>7.8</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>99.5</v>
+      </c>
+      <c r="J103">
+        <v>64.8</v>
+      </c>
+      <c r="K103">
+        <v>16</v>
+      </c>
+      <c r="L103">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="M103">
+        <v>10</v>
+      </c>
+      <c r="T103">
+        <v>61.3</v>
+      </c>
+      <c r="U103">
+        <v>27</v>
+      </c>
+      <c r="V103">
+        <v>70.7</v>
+      </c>
+      <c r="W103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -8235,8 +8529,83 @@
       <c r="D104" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>76.3</v>
+      </c>
+      <c r="F104">
+        <v>67.2</v>
+      </c>
+      <c r="G104">
+        <v>65</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="I104">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="J104">
+        <v>69</v>
+      </c>
+      <c r="K104">
+        <v>54</v>
+      </c>
+      <c r="L104">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="M104">
+        <v>34</v>
+      </c>
+      <c r="N104">
+        <v>75</v>
+      </c>
+      <c r="O104">
+        <v>20</v>
+      </c>
+      <c r="P104">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="Q104">
+        <v>12</v>
+      </c>
+      <c r="R104">
+        <v>75.7</v>
+      </c>
+      <c r="S104">
+        <v>11</v>
+      </c>
+      <c r="T104">
+        <v>66.3</v>
+      </c>
+      <c r="U104">
+        <v>42</v>
+      </c>
+      <c r="V104">
+        <v>73.7</v>
+      </c>
+      <c r="W104">
+        <v>10</v>
+      </c>
+      <c r="X104">
+        <v>74.7</v>
+      </c>
+      <c r="Y104">
+        <v>15</v>
+      </c>
+      <c r="Z104">
+        <v>72.2</v>
+      </c>
+      <c r="AA104">
+        <v>11</v>
+      </c>
+      <c r="AB104">
+        <v>66.7</v>
+      </c>
+      <c r="AC104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>38</v>
       </c>
@@ -8249,8 +8618,59 @@
       <c r="D105" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>99.8</v>
+      </c>
+      <c r="F105">
+        <v>62.9</v>
+      </c>
+      <c r="G105">
+        <v>26.2</v>
+      </c>
+      <c r="H105">
+        <v>99.8</v>
+      </c>
+      <c r="I105">
+        <v>99.7</v>
+      </c>
+      <c r="J105">
+        <v>64.7</v>
+      </c>
+      <c r="K105">
+        <v>55</v>
+      </c>
+      <c r="L105">
+        <v>71.3</v>
+      </c>
+      <c r="M105">
+        <v>28</v>
+      </c>
+      <c r="N105">
+        <v>75</v>
+      </c>
+      <c r="O105">
+        <v>12</v>
+      </c>
+      <c r="T105">
+        <v>60.9</v>
+      </c>
+      <c r="U105">
+        <v>44</v>
+      </c>
+      <c r="V105">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="W105">
+        <v>17</v>
+      </c>
+      <c r="X105">
+        <v>74</v>
+      </c>
+      <c r="Y105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -8263,8 +8683,59 @@
       <c r="D106" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>100</v>
+      </c>
+      <c r="F106">
+        <v>66.3</v>
+      </c>
+      <c r="G106">
+        <v>48.2</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106">
+        <v>67.8</v>
+      </c>
+      <c r="K106">
+        <v>55</v>
+      </c>
+      <c r="L106">
+        <v>75.5</v>
+      </c>
+      <c r="M106">
+        <v>10</v>
+      </c>
+      <c r="N106">
+        <v>75.2</v>
+      </c>
+      <c r="O106">
+        <v>11</v>
+      </c>
+      <c r="T106">
+        <v>66.8</v>
+      </c>
+      <c r="U106">
+        <v>32</v>
+      </c>
+      <c r="V106">
+        <v>73.7</v>
+      </c>
+      <c r="W106">
+        <v>10</v>
+      </c>
+      <c r="X106">
+        <v>58.8</v>
+      </c>
+      <c r="Y106">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>38</v>
       </c>
@@ -8278,7 +8749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -8291,8 +8762,59 @@
       <c r="D108" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>99.8</v>
+      </c>
+      <c r="F108">
+        <v>65.5</v>
+      </c>
+      <c r="G108">
+        <v>30.2</v>
+      </c>
+      <c r="H108">
+        <v>99.9</v>
+      </c>
+      <c r="I108">
+        <v>99.8</v>
+      </c>
+      <c r="J108">
+        <v>68</v>
+      </c>
+      <c r="K108">
+        <v>52</v>
+      </c>
+      <c r="L108">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="M108">
+        <v>34</v>
+      </c>
+      <c r="N108">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="O108">
+        <v>15</v>
+      </c>
+      <c r="T108">
+        <v>63</v>
+      </c>
+      <c r="U108">
+        <v>47</v>
+      </c>
+      <c r="V108">
+        <v>67.8</v>
+      </c>
+      <c r="W108">
+        <v>25</v>
+      </c>
+      <c r="X108">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="Y108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -8305,8 +8827,71 @@
       <c r="D109" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>71.2</v>
+      </c>
+      <c r="K109">
+        <v>41</v>
+      </c>
+      <c r="L109">
+        <v>82.9</v>
+      </c>
+      <c r="M109">
+        <v>15</v>
+      </c>
+      <c r="N109">
+        <v>84.3</v>
+      </c>
+      <c r="O109">
+        <v>10</v>
+      </c>
+      <c r="T109">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="U109">
+        <v>42</v>
+      </c>
+      <c r="V109">
+        <v>73</v>
+      </c>
+      <c r="W109">
+        <v>23</v>
+      </c>
+      <c r="X109">
+        <v>77.5</v>
+      </c>
+      <c r="Y109">
+        <v>10</v>
+      </c>
+      <c r="Z109">
+        <v>53.6</v>
+      </c>
+      <c r="AA109">
+        <v>75</v>
+      </c>
+      <c r="AB109">
+        <v>46.6</v>
+      </c>
+      <c r="AC109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -8319,8 +8904,83 @@
       <c r="D110" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>83.9</v>
+      </c>
+      <c r="F110">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G110">
+        <v>79.5</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="I110">
+        <v>85.7</v>
+      </c>
+      <c r="J110">
+        <v>71.8</v>
+      </c>
+      <c r="K110">
+        <v>51</v>
+      </c>
+      <c r="L110">
+        <v>78.8</v>
+      </c>
+      <c r="M110">
+        <v>30</v>
+      </c>
+      <c r="N110">
+        <v>81</v>
+      </c>
+      <c r="O110">
+        <v>16</v>
+      </c>
+      <c r="P110">
+        <v>81.7</v>
+      </c>
+      <c r="Q110">
+        <v>15</v>
+      </c>
+      <c r="R110">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="S110">
+        <v>10</v>
+      </c>
+      <c r="T110">
+        <v>68.2</v>
+      </c>
+      <c r="U110">
+        <v>40</v>
+      </c>
+      <c r="V110">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="W110">
+        <v>31</v>
+      </c>
+      <c r="X110">
+        <v>76.5</v>
+      </c>
+      <c r="Y110">
+        <v>17</v>
+      </c>
+      <c r="Z110">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AA110">
+        <v>11</v>
+      </c>
+      <c r="AB110">
+        <v>76</v>
+      </c>
+      <c r="AC110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -8333,8 +8993,59 @@
       <c r="D111" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>99.9</v>
+      </c>
+      <c r="F111">
+        <v>66</v>
+      </c>
+      <c r="G111">
+        <v>30</v>
+      </c>
+      <c r="H111">
+        <v>99.9</v>
+      </c>
+      <c r="I111">
+        <v>99.9</v>
+      </c>
+      <c r="J111">
+        <v>68.7</v>
+      </c>
+      <c r="K111">
+        <v>52</v>
+      </c>
+      <c r="L111">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="M111">
+        <v>33</v>
+      </c>
+      <c r="N111">
+        <v>80.5</v>
+      </c>
+      <c r="O111">
+        <v>14</v>
+      </c>
+      <c r="T111">
+        <v>63.1</v>
+      </c>
+      <c r="U111">
+        <v>48</v>
+      </c>
+      <c r="V111">
+        <v>69.8</v>
+      </c>
+      <c r="W111">
+        <v>26</v>
+      </c>
+      <c r="X111">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Y111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -8347,8 +9058,77 @@
       <c r="D112" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>100</v>
+      </c>
+      <c r="F112">
+        <v>69</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112">
+        <v>78.8</v>
+      </c>
+      <c r="K112">
+        <v>11</v>
+      </c>
+      <c r="L112">
+        <v>80.7</v>
+      </c>
+      <c r="M112">
+        <v>14</v>
+      </c>
+      <c r="N112">
+        <v>82.5</v>
+      </c>
+      <c r="O112">
+        <v>10</v>
+      </c>
+      <c r="P112">
+        <v>53.4</v>
+      </c>
+      <c r="Q112">
+        <v>100</v>
+      </c>
+      <c r="R112">
+        <v>53.4</v>
+      </c>
+      <c r="S112">
+        <v>100</v>
+      </c>
+      <c r="T112">
+        <v>69.2</v>
+      </c>
+      <c r="U112">
+        <v>40</v>
+      </c>
+      <c r="V112">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="W112">
+        <v>14</v>
+      </c>
+      <c r="X112">
+        <v>75.2</v>
+      </c>
+      <c r="Y112">
+        <v>14</v>
+      </c>
+      <c r="Z112">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AA112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -8361,8 +9141,65 @@
       <c r="D113" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>69.7</v>
+      </c>
+      <c r="F113">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G113">
+        <v>50.9</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
+      <c r="I113">
+        <v>76.7</v>
+      </c>
+      <c r="J113">
+        <v>72.7</v>
+      </c>
+      <c r="K113">
+        <v>46</v>
+      </c>
+      <c r="L113">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="M113">
+        <v>30</v>
+      </c>
+      <c r="N113">
+        <v>85.4</v>
+      </c>
+      <c r="O113">
+        <v>15</v>
+      </c>
+      <c r="P113">
+        <v>87.2</v>
+      </c>
+      <c r="Q113">
+        <v>17</v>
+      </c>
+      <c r="T113">
+        <v>65.3</v>
+      </c>
+      <c r="U113">
+        <v>44</v>
+      </c>
+      <c r="V113">
+        <v>71.3</v>
+      </c>
+      <c r="W113">
+        <v>26</v>
+      </c>
+      <c r="X113">
+        <v>76.7</v>
+      </c>
+      <c r="Y113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -8375,8 +9212,77 @@
       <c r="D114" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>95.2</v>
+      </c>
+      <c r="F114">
+        <v>66.7</v>
+      </c>
+      <c r="G114">
+        <v>55.5</v>
+      </c>
+      <c r="H114">
+        <v>95.6</v>
+      </c>
+      <c r="I114">
+        <v>94.9</v>
+      </c>
+      <c r="J114">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="K114">
+        <v>41</v>
+      </c>
+      <c r="L114">
+        <v>77.3</v>
+      </c>
+      <c r="M114">
+        <v>36</v>
+      </c>
+      <c r="N114">
+        <v>79.5</v>
+      </c>
+      <c r="O114">
+        <v>30</v>
+      </c>
+      <c r="P114">
+        <v>86.2</v>
+      </c>
+      <c r="Q114">
+        <v>15</v>
+      </c>
+      <c r="R114">
+        <v>84</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>62.5</v>
+      </c>
+      <c r="U114">
+        <v>53</v>
+      </c>
+      <c r="V114">
+        <v>66.3</v>
+      </c>
+      <c r="W114">
+        <v>38</v>
+      </c>
+      <c r="X114">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="Y114">
+        <v>12</v>
+      </c>
+      <c r="Z114">
+        <v>63.4</v>
+      </c>
+      <c r="AA114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -8389,8 +9295,77 @@
       <c r="D115" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>69.2</v>
+      </c>
+      <c r="F115">
+        <v>67.2</v>
+      </c>
+      <c r="G115">
+        <v>85.2</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>77.8</v>
+      </c>
+      <c r="J115">
+        <v>83.5</v>
+      </c>
+      <c r="K115">
+        <v>21</v>
+      </c>
+      <c r="L115">
+        <v>86</v>
+      </c>
+      <c r="M115">
+        <v>13</v>
+      </c>
+      <c r="N115">
+        <v>86.5</v>
+      </c>
+      <c r="O115">
+        <v>14</v>
+      </c>
+      <c r="P115">
+        <v>87.2</v>
+      </c>
+      <c r="Q115">
+        <v>15</v>
+      </c>
+      <c r="T115">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U115">
+        <v>33</v>
+      </c>
+      <c r="V115">
+        <v>74.5</v>
+      </c>
+      <c r="W115">
+        <v>16</v>
+      </c>
+      <c r="X115">
+        <v>76</v>
+      </c>
+      <c r="Y115">
+        <v>14</v>
+      </c>
+      <c r="Z115">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AA115">
+        <v>20</v>
+      </c>
+      <c r="AB115">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AC115">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>38</v>
       </c>
@@ -8403,8 +9378,77 @@
       <c r="D116" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F116">
+        <v>71.7</v>
+      </c>
+      <c r="G116">
+        <v>58.3</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
+      <c r="I116">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="J116">
+        <v>75.5</v>
+      </c>
+      <c r="K116">
+        <v>48</v>
+      </c>
+      <c r="L116">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M116">
+        <v>35</v>
+      </c>
+      <c r="N116">
+        <v>87</v>
+      </c>
+      <c r="O116">
+        <v>16</v>
+      </c>
+      <c r="P116">
+        <v>88.1</v>
+      </c>
+      <c r="Q116">
+        <v>19</v>
+      </c>
+      <c r="R116">
+        <v>89</v>
+      </c>
+      <c r="S116">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="U116">
+        <v>51</v>
+      </c>
+      <c r="V116">
+        <v>71.5</v>
+      </c>
+      <c r="W116">
+        <v>34</v>
+      </c>
+      <c r="X116">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Y116">
+        <v>19</v>
+      </c>
+      <c r="Z116">
+        <v>79.5</v>
+      </c>
+      <c r="AA116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>38</v>
       </c>
@@ -8417,8 +9461,77 @@
       <c r="D117" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>98</v>
+      </c>
+      <c r="F117">
+        <v>70</v>
+      </c>
+      <c r="G117">
+        <v>57.3</v>
+      </c>
+      <c r="H117">
+        <v>98.7</v>
+      </c>
+      <c r="I117">
+        <v>97.4</v>
+      </c>
+      <c r="J117">
+        <v>74.8</v>
+      </c>
+      <c r="K117">
+        <v>45</v>
+      </c>
+      <c r="L117">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="M117">
+        <v>36</v>
+      </c>
+      <c r="N117">
+        <v>81.8</v>
+      </c>
+      <c r="O117">
+        <v>29</v>
+      </c>
+      <c r="P117">
+        <v>85.9</v>
+      </c>
+      <c r="Q117">
+        <v>17</v>
+      </c>
+      <c r="R117">
+        <v>84.2</v>
+      </c>
+      <c r="S117">
+        <v>10</v>
+      </c>
+      <c r="T117">
+        <v>66.3</v>
+      </c>
+      <c r="U117">
+        <v>50</v>
+      </c>
+      <c r="V117">
+        <v>69</v>
+      </c>
+      <c r="W117">
+        <v>41</v>
+      </c>
+      <c r="X117">
+        <v>78.8</v>
+      </c>
+      <c r="Y117">
+        <v>16</v>
+      </c>
+      <c r="Z117">
+        <v>82.7</v>
+      </c>
+      <c r="AA117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -8431,8 +9544,71 @@
       <c r="D118" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>77.8</v>
+      </c>
+      <c r="F118">
+        <v>71.8</v>
+      </c>
+      <c r="G118">
+        <v>56.9</v>
+      </c>
+      <c r="H118">
+        <v>100</v>
+      </c>
+      <c r="I118">
+        <v>80</v>
+      </c>
+      <c r="J118">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K118">
+        <v>48</v>
+      </c>
+      <c r="L118">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M118">
+        <v>35</v>
+      </c>
+      <c r="N118">
+        <v>86.4</v>
+      </c>
+      <c r="O118">
+        <v>23</v>
+      </c>
+      <c r="P118">
+        <v>89.4</v>
+      </c>
+      <c r="Q118">
+        <v>16</v>
+      </c>
+      <c r="T118">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="U118">
+        <v>46</v>
+      </c>
+      <c r="V118">
+        <v>71</v>
+      </c>
+      <c r="W118">
+        <v>34</v>
+      </c>
+      <c r="X118">
+        <v>78.8</v>
+      </c>
+      <c r="Y118">
+        <v>15</v>
+      </c>
+      <c r="Z118">
+        <v>73</v>
+      </c>
+      <c r="AA118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -8445,8 +9621,77 @@
       <c r="D119" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>75.3</v>
+      </c>
+      <c r="F119">
+        <v>71.8</v>
+      </c>
+      <c r="G119">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="J119">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="K119">
+        <v>44</v>
+      </c>
+      <c r="L119">
+        <v>84.4</v>
+      </c>
+      <c r="M119">
+        <v>16</v>
+      </c>
+      <c r="N119">
+        <v>86.4</v>
+      </c>
+      <c r="O119">
+        <v>18</v>
+      </c>
+      <c r="P119">
+        <v>88.3</v>
+      </c>
+      <c r="Q119">
+        <v>12</v>
+      </c>
+      <c r="R119">
+        <v>90.7</v>
+      </c>
+      <c r="S119">
+        <v>10</v>
+      </c>
+      <c r="T119">
+        <v>68</v>
+      </c>
+      <c r="U119">
+        <v>50</v>
+      </c>
+      <c r="V119">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="W119">
+        <v>34</v>
+      </c>
+      <c r="X119">
+        <v>77.8</v>
+      </c>
+      <c r="Y119">
+        <v>10</v>
+      </c>
+      <c r="Z119">
+        <v>83.3</v>
+      </c>
+      <c r="AA119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>38</v>
       </c>
@@ -8459,8 +9704,77 @@
       <c r="D120" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>98.9</v>
+      </c>
+      <c r="F120">
+        <v>69.7</v>
+      </c>
+      <c r="G120">
+        <v>55.1</v>
+      </c>
+      <c r="H120">
+        <v>99.3</v>
+      </c>
+      <c r="I120">
+        <v>98.4</v>
+      </c>
+      <c r="J120">
+        <v>74.5</v>
+      </c>
+      <c r="K120">
+        <v>46</v>
+      </c>
+      <c r="L120">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="M120">
+        <v>36</v>
+      </c>
+      <c r="N120">
+        <v>81.8</v>
+      </c>
+      <c r="O120">
+        <v>29</v>
+      </c>
+      <c r="P120">
+        <v>86.3</v>
+      </c>
+      <c r="Q120">
+        <v>21</v>
+      </c>
+      <c r="R120">
+        <v>86.5</v>
+      </c>
+      <c r="S120">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>66</v>
+      </c>
+      <c r="U120">
+        <v>51</v>
+      </c>
+      <c r="V120">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="W120">
+        <v>40</v>
+      </c>
+      <c r="X120">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Y120">
+        <v>18</v>
+      </c>
+      <c r="Z120">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AA120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -8473,8 +9787,71 @@
       <c r="D121" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>91</v>
+      </c>
+      <c r="F121">
+        <v>71.8</v>
+      </c>
+      <c r="G121">
+        <v>56.9</v>
+      </c>
+      <c r="H121">
+        <v>100</v>
+      </c>
+      <c r="I121">
+        <v>90.5</v>
+      </c>
+      <c r="J121">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K121">
+        <v>47</v>
+      </c>
+      <c r="L121">
+        <v>81.8</v>
+      </c>
+      <c r="M121">
+        <v>35</v>
+      </c>
+      <c r="N121">
+        <v>87.1</v>
+      </c>
+      <c r="O121">
+        <v>15</v>
+      </c>
+      <c r="P121">
+        <v>88.1</v>
+      </c>
+      <c r="Q121">
+        <v>16</v>
+      </c>
+      <c r="T121">
+        <v>68.5</v>
+      </c>
+      <c r="U121">
+        <v>42</v>
+      </c>
+      <c r="V121">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="W121">
+        <v>34</v>
+      </c>
+      <c r="X121">
+        <v>79.2</v>
+      </c>
+      <c r="Y121">
+        <v>17</v>
+      </c>
+      <c r="Z121">
+        <v>74.8</v>
+      </c>
+      <c r="AA121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -8487,8 +9864,77 @@
       <c r="D122" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F122">
+        <v>71.7</v>
+      </c>
+      <c r="G122">
+        <v>65.5</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="J122">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="K122">
+        <v>48</v>
+      </c>
+      <c r="L122">
+        <v>82.2</v>
+      </c>
+      <c r="M122">
+        <v>34</v>
+      </c>
+      <c r="N122">
+        <v>86.6</v>
+      </c>
+      <c r="O122">
+        <v>17</v>
+      </c>
+      <c r="P122">
+        <v>88</v>
+      </c>
+      <c r="Q122">
+        <v>12</v>
+      </c>
+      <c r="R122">
+        <v>90.7</v>
+      </c>
+      <c r="S122">
+        <v>10</v>
+      </c>
+      <c r="T122">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="U122">
+        <v>51</v>
+      </c>
+      <c r="V122">
+        <v>72</v>
+      </c>
+      <c r="W122">
+        <v>36</v>
+      </c>
+      <c r="X122">
+        <v>77.3</v>
+      </c>
+      <c r="Y122">
+        <v>24</v>
+      </c>
+      <c r="Z122">
+        <v>82.1</v>
+      </c>
+      <c r="AA122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -8501,8 +9947,77 @@
       <c r="D123" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>99.4</v>
+      </c>
+      <c r="F123">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G123">
+        <v>53.6</v>
+      </c>
+      <c r="H123">
+        <v>99.9</v>
+      </c>
+      <c r="I123">
+        <v>98.9</v>
+      </c>
+      <c r="J123">
+        <v>74.5</v>
+      </c>
+      <c r="K123">
+        <v>40</v>
+      </c>
+      <c r="L123">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="M123">
+        <v>38</v>
+      </c>
+      <c r="N123">
+        <v>82.4</v>
+      </c>
+      <c r="O123">
+        <v>28</v>
+      </c>
+      <c r="P123">
+        <v>87</v>
+      </c>
+      <c r="Q123">
+        <v>21</v>
+      </c>
+      <c r="R123">
+        <v>88.1</v>
+      </c>
+      <c r="S123">
+        <v>10</v>
+      </c>
+      <c r="T123">
+        <v>64.7</v>
+      </c>
+      <c r="U123">
+        <v>52</v>
+      </c>
+      <c r="V123">
+        <v>69.5</v>
+      </c>
+      <c r="W123">
+        <v>41</v>
+      </c>
+      <c r="X123">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="Y123">
+        <v>15</v>
+      </c>
+      <c r="Z123">
+        <v>85.9</v>
+      </c>
+      <c r="AA123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -8515,8 +10030,77 @@
       <c r="D124" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G124">
+        <v>59.3</v>
+      </c>
+      <c r="H124">
+        <v>100</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>76.2</v>
+      </c>
+      <c r="K124">
+        <v>48</v>
+      </c>
+      <c r="L124">
+        <v>81.8</v>
+      </c>
+      <c r="M124">
+        <v>35</v>
+      </c>
+      <c r="N124">
+        <v>88.3</v>
+      </c>
+      <c r="O124">
+        <v>10</v>
+      </c>
+      <c r="P124">
+        <v>88.3</v>
+      </c>
+      <c r="Q124">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>67.7</v>
+      </c>
+      <c r="U124">
+        <v>48</v>
+      </c>
+      <c r="V124">
+        <v>73</v>
+      </c>
+      <c r="W124">
+        <v>35</v>
+      </c>
+      <c r="X124">
+        <v>77.2</v>
+      </c>
+      <c r="Y124">
+        <v>18</v>
+      </c>
+      <c r="Z124">
+        <v>73</v>
+      </c>
+      <c r="AA124">
+        <v>12</v>
+      </c>
+      <c r="AB124">
+        <v>25.2</v>
+      </c>
+      <c r="AC124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -8529,8 +10113,83 @@
       <c r="D125" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F125">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G125">
+        <v>68.2</v>
+      </c>
+      <c r="H125">
+        <v>100</v>
+      </c>
+      <c r="I125">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J125">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K125">
+        <v>48</v>
+      </c>
+      <c r="L125">
+        <v>81.8</v>
+      </c>
+      <c r="M125">
+        <v>36</v>
+      </c>
+      <c r="N125">
+        <v>86.3</v>
+      </c>
+      <c r="O125">
+        <v>18</v>
+      </c>
+      <c r="P125">
+        <v>88.1</v>
+      </c>
+      <c r="Q125">
+        <v>19</v>
+      </c>
+      <c r="R125">
+        <v>91.2</v>
+      </c>
+      <c r="S125">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="U125">
+        <v>49</v>
+      </c>
+      <c r="V125">
+        <v>72.7</v>
+      </c>
+      <c r="W125">
+        <v>21</v>
+      </c>
+      <c r="X125">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Y125">
+        <v>18</v>
+      </c>
+      <c r="Z125">
+        <v>81</v>
+      </c>
+      <c r="AA125">
+        <v>12</v>
+      </c>
+      <c r="AB125">
+        <v>77.2</v>
+      </c>
+      <c r="AC125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -8543,8 +10202,65 @@
       <c r="D126" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>99.5</v>
+      </c>
+      <c r="F126">
+        <v>68.8</v>
+      </c>
+      <c r="G126">
+        <v>52.4</v>
+      </c>
+      <c r="H126">
+        <v>99.9</v>
+      </c>
+      <c r="I126">
+        <v>99.1</v>
+      </c>
+      <c r="J126">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K126">
+        <v>40</v>
+      </c>
+      <c r="L126">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="M126">
+        <v>38</v>
+      </c>
+      <c r="N126">
+        <v>81.5</v>
+      </c>
+      <c r="O126">
+        <v>29</v>
+      </c>
+      <c r="P126">
+        <v>86.4</v>
+      </c>
+      <c r="Q126">
+        <v>21</v>
+      </c>
+      <c r="T126">
+        <v>65</v>
+      </c>
+      <c r="U126">
+        <v>51</v>
+      </c>
+      <c r="V126">
+        <v>70.3</v>
+      </c>
+      <c r="W126">
+        <v>40</v>
+      </c>
+      <c r="X126">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Y126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>38</v>
       </c>
@@ -8557,8 +10273,71 @@
       <c r="D127" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>100</v>
+      </c>
+      <c r="F127">
+        <v>71.2</v>
+      </c>
+      <c r="G127">
+        <v>48.1</v>
+      </c>
+      <c r="H127">
+        <v>100</v>
+      </c>
+      <c r="I127">
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>76.8</v>
+      </c>
+      <c r="K127">
+        <v>47</v>
+      </c>
+      <c r="L127">
+        <v>82.4</v>
+      </c>
+      <c r="M127">
+        <v>35</v>
+      </c>
+      <c r="N127">
+        <v>86.5</v>
+      </c>
+      <c r="O127">
+        <v>22</v>
+      </c>
+      <c r="P127">
+        <v>88.1</v>
+      </c>
+      <c r="Q127">
+        <v>17</v>
+      </c>
+      <c r="T127">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U127">
+        <v>44</v>
+      </c>
+      <c r="V127">
+        <v>73.5</v>
+      </c>
+      <c r="W127">
+        <v>35</v>
+      </c>
+      <c r="X127">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="Y127">
+        <v>15</v>
+      </c>
+      <c r="Z127">
+        <v>73.8</v>
+      </c>
+      <c r="AA127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>38</v>
       </c>
@@ -8571,8 +10350,65 @@
       <c r="D128" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>69</v>
+      </c>
+      <c r="F128">
+        <v>67.3</v>
+      </c>
+      <c r="G128">
+        <v>46.7</v>
+      </c>
+      <c r="H128">
+        <v>100</v>
+      </c>
+      <c r="I128">
+        <v>76.7</v>
+      </c>
+      <c r="J128">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="K128">
+        <v>46</v>
+      </c>
+      <c r="L128">
+        <v>81.8</v>
+      </c>
+      <c r="M128">
+        <v>28</v>
+      </c>
+      <c r="N128">
+        <v>86.1</v>
+      </c>
+      <c r="O128">
+        <v>16</v>
+      </c>
+      <c r="P128">
+        <v>86.7</v>
+      </c>
+      <c r="Q128">
+        <v>16</v>
+      </c>
+      <c r="T128">
+        <v>63.1</v>
+      </c>
+      <c r="U128">
+        <v>52</v>
+      </c>
+      <c r="V128">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="W128">
+        <v>24</v>
+      </c>
+      <c r="X128">
+        <v>76.5</v>
+      </c>
+      <c r="Y128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>38</v>
       </c>
@@ -8585,8 +10421,77 @@
       <c r="D129" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>94.1</v>
+      </c>
+      <c r="F129">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G129">
+        <v>58.4</v>
+      </c>
+      <c r="H129">
+        <v>94.6</v>
+      </c>
+      <c r="I129">
+        <v>93.6</v>
+      </c>
+      <c r="J129">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="K129">
+        <v>41</v>
+      </c>
+      <c r="L129">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="M129">
+        <v>35</v>
+      </c>
+      <c r="N129">
+        <v>82.5</v>
+      </c>
+      <c r="O129">
+        <v>28</v>
+      </c>
+      <c r="P129">
+        <v>86</v>
+      </c>
+      <c r="Q129">
+        <v>17</v>
+      </c>
+      <c r="R129">
+        <v>85.6</v>
+      </c>
+      <c r="S129">
+        <v>11</v>
+      </c>
+      <c r="T129">
+        <v>63.3</v>
+      </c>
+      <c r="U129">
+        <v>48</v>
+      </c>
+      <c r="V129">
+        <v>67</v>
+      </c>
+      <c r="W129">
+        <v>38</v>
+      </c>
+      <c r="X129">
+        <v>75.7</v>
+      </c>
+      <c r="Y129">
+        <v>18</v>
+      </c>
+      <c r="Z129">
+        <v>70</v>
+      </c>
+      <c r="AA129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -8599,8 +10504,83 @@
       <c r="D130" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="F130">
+        <v>67.5</v>
+      </c>
+      <c r="G130">
+        <v>92.4</v>
+      </c>
+      <c r="H130">
+        <v>100</v>
+      </c>
+      <c r="I130">
+        <v>82.7</v>
+      </c>
+      <c r="J130">
+        <v>84.7</v>
+      </c>
+      <c r="K130">
+        <v>20</v>
+      </c>
+      <c r="L130">
+        <v>85.1</v>
+      </c>
+      <c r="M130">
+        <v>13</v>
+      </c>
+      <c r="N130">
+        <v>85.9</v>
+      </c>
+      <c r="O130">
+        <v>17</v>
+      </c>
+      <c r="P130">
+        <v>86.9</v>
+      </c>
+      <c r="Q130">
+        <v>12</v>
+      </c>
+      <c r="R130">
+        <v>83.3</v>
+      </c>
+      <c r="S130">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>71</v>
+      </c>
+      <c r="U130">
+        <v>20</v>
+      </c>
+      <c r="V130">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="W130">
+        <v>23</v>
+      </c>
+      <c r="X130">
+        <v>77.8</v>
+      </c>
+      <c r="Y130">
+        <v>10</v>
+      </c>
+      <c r="Z130">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AA130">
+        <v>23</v>
+      </c>
+      <c r="AB130">
+        <v>63.3</v>
+      </c>
+      <c r="AC130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -8613,8 +10593,77 @@
       <c r="D131" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>73.7</v>
+      </c>
+      <c r="F131">
+        <v>71.8</v>
+      </c>
+      <c r="G131">
+        <v>59.9</v>
+      </c>
+      <c r="H131">
+        <v>100</v>
+      </c>
+      <c r="I131">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J131">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K131">
+        <v>42</v>
+      </c>
+      <c r="L131">
+        <v>81.8</v>
+      </c>
+      <c r="M131">
+        <v>32</v>
+      </c>
+      <c r="N131">
+        <v>86.5</v>
+      </c>
+      <c r="O131">
+        <v>18</v>
+      </c>
+      <c r="P131">
+        <v>88.1</v>
+      </c>
+      <c r="Q131">
+        <v>16</v>
+      </c>
+      <c r="R131">
+        <v>91.5</v>
+      </c>
+      <c r="S131">
+        <v>10</v>
+      </c>
+      <c r="T131">
+        <v>69.2</v>
+      </c>
+      <c r="U131">
+        <v>48</v>
+      </c>
+      <c r="V131">
+        <v>72.5</v>
+      </c>
+      <c r="W131">
+        <v>39</v>
+      </c>
+      <c r="X131">
+        <v>78.8</v>
+      </c>
+      <c r="Y131">
+        <v>27</v>
+      </c>
+      <c r="Z131">
+        <v>82.4</v>
+      </c>
+      <c r="AA131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>38</v>
       </c>
@@ -8627,8 +10676,77 @@
       <c r="D132" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>98.1</v>
+      </c>
+      <c r="F132">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G132">
+        <v>54.4</v>
+      </c>
+      <c r="H132">
+        <v>99.2</v>
+      </c>
+      <c r="I132">
+        <v>97</v>
+      </c>
+      <c r="J132">
+        <v>76.2</v>
+      </c>
+      <c r="K132">
+        <v>43</v>
+      </c>
+      <c r="L132">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="M132">
+        <v>35</v>
+      </c>
+      <c r="N132">
+        <v>83.5</v>
+      </c>
+      <c r="O132">
+        <v>31</v>
+      </c>
+      <c r="P132">
+        <v>86.4</v>
+      </c>
+      <c r="Q132">
+        <v>17</v>
+      </c>
+      <c r="R132">
+        <v>83.3</v>
+      </c>
+      <c r="S132">
+        <v>10</v>
+      </c>
+      <c r="T132">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="U132">
+        <v>49</v>
+      </c>
+      <c r="V132">
+        <v>70.3</v>
+      </c>
+      <c r="W132">
+        <v>40</v>
+      </c>
+      <c r="X132">
+        <v>77.5</v>
+      </c>
+      <c r="Y132">
+        <v>11</v>
+      </c>
+      <c r="Z132">
+        <v>80.2</v>
+      </c>
+      <c r="AA132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -8641,8 +10759,83 @@
       <c r="D133" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F133">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G133">
+        <v>73.2</v>
+      </c>
+      <c r="H133">
+        <v>100</v>
+      </c>
+      <c r="I133">
+        <v>82.8</v>
+      </c>
+      <c r="J133">
+        <v>75.5</v>
+      </c>
+      <c r="K133">
+        <v>36</v>
+      </c>
+      <c r="L133">
+        <v>82.4</v>
+      </c>
+      <c r="M133">
+        <v>21</v>
+      </c>
+      <c r="N133">
+        <v>86.8</v>
+      </c>
+      <c r="O133">
+        <v>14</v>
+      </c>
+      <c r="P133">
+        <v>90.7</v>
+      </c>
+      <c r="Q133">
+        <v>14</v>
+      </c>
+      <c r="R133">
+        <v>90.8</v>
+      </c>
+      <c r="S133">
+        <v>10</v>
+      </c>
+      <c r="T133">
+        <v>67.5</v>
+      </c>
+      <c r="U133">
+        <v>48</v>
+      </c>
+      <c r="V133">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="W133">
+        <v>35</v>
+      </c>
+      <c r="X133">
+        <v>77.5</v>
+      </c>
+      <c r="Y133">
+        <v>18</v>
+      </c>
+      <c r="Z133">
+        <v>72.5</v>
+      </c>
+      <c r="AA133">
+        <v>18</v>
+      </c>
+      <c r="AB133">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AC133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -8655,8 +10848,77 @@
       <c r="D134" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>74.5</v>
+      </c>
+      <c r="F134">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G134">
+        <v>61.3</v>
+      </c>
+      <c r="H134">
+        <v>100</v>
+      </c>
+      <c r="I134">
+        <v>81.2</v>
+      </c>
+      <c r="J134">
+        <v>76.7</v>
+      </c>
+      <c r="K134">
+        <v>41</v>
+      </c>
+      <c r="L134">
+        <v>87.3</v>
+      </c>
+      <c r="M134">
+        <v>14</v>
+      </c>
+      <c r="N134">
+        <v>86.6</v>
+      </c>
+      <c r="O134">
+        <v>18</v>
+      </c>
+      <c r="P134">
+        <v>90.1</v>
+      </c>
+      <c r="Q134">
+        <v>17</v>
+      </c>
+      <c r="R134">
+        <v>91.2</v>
+      </c>
+      <c r="S134">
+        <v>10</v>
+      </c>
+      <c r="T134">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="U134">
+        <v>46</v>
+      </c>
+      <c r="V134">
+        <v>74.5</v>
+      </c>
+      <c r="W134">
+        <v>26</v>
+      </c>
+      <c r="X134">
+        <v>78.5</v>
+      </c>
+      <c r="Y134">
+        <v>25</v>
+      </c>
+      <c r="Z134">
+        <v>83.2</v>
+      </c>
+      <c r="AA134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>38</v>
       </c>
@@ -8669,8 +10931,71 @@
       <c r="D135" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>98.9</v>
+      </c>
+      <c r="F135">
+        <v>70.2</v>
+      </c>
+      <c r="G135">
+        <v>53.4</v>
+      </c>
+      <c r="H135">
+        <v>99.8</v>
+      </c>
+      <c r="I135">
+        <v>97.8</v>
+      </c>
+      <c r="J135">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="K135">
+        <v>43</v>
+      </c>
+      <c r="L135">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="M135">
+        <v>35</v>
+      </c>
+      <c r="N135">
+        <v>83.8</v>
+      </c>
+      <c r="O135">
+        <v>29</v>
+      </c>
+      <c r="P135">
+        <v>86.7</v>
+      </c>
+      <c r="Q135">
+        <v>17</v>
+      </c>
+      <c r="R135">
+        <v>83.2</v>
+      </c>
+      <c r="S135">
+        <v>12</v>
+      </c>
+      <c r="T135">
+        <v>66.3</v>
+      </c>
+      <c r="U135">
+        <v>52</v>
+      </c>
+      <c r="V135">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="W135">
+        <v>39</v>
+      </c>
+      <c r="X135">
+        <v>76</v>
+      </c>
+      <c r="Y135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>38</v>
       </c>
@@ -8683,8 +11008,83 @@
       <c r="D136" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>83.6</v>
+      </c>
+      <c r="F136">
+        <v>71</v>
+      </c>
+      <c r="G136">
+        <v>69.3</v>
+      </c>
+      <c r="H136">
+        <v>100</v>
+      </c>
+      <c r="I136">
+        <v>84.5</v>
+      </c>
+      <c r="J136">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="K136">
+        <v>28</v>
+      </c>
+      <c r="L136">
+        <v>85.4</v>
+      </c>
+      <c r="M136">
+        <v>15</v>
+      </c>
+      <c r="N136">
+        <v>87.1</v>
+      </c>
+      <c r="O136">
+        <v>14</v>
+      </c>
+      <c r="P136">
+        <v>89.7</v>
+      </c>
+      <c r="Q136">
+        <v>19</v>
+      </c>
+      <c r="R136">
+        <v>89.1</v>
+      </c>
+      <c r="S136">
+        <v>10</v>
+      </c>
+      <c r="T136">
+        <v>67.7</v>
+      </c>
+      <c r="U136">
+        <v>50</v>
+      </c>
+      <c r="V136">
+        <v>74.2</v>
+      </c>
+      <c r="W136">
+        <v>33</v>
+      </c>
+      <c r="X136">
+        <v>78</v>
+      </c>
+      <c r="Y136">
+        <v>18</v>
+      </c>
+      <c r="Z136">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AA136">
+        <v>19</v>
+      </c>
+      <c r="AB136">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AC136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -8697,8 +11097,77 @@
       <c r="D137" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>76.8</v>
+      </c>
+      <c r="F137">
+        <v>71.7</v>
+      </c>
+      <c r="G137">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="H137">
+        <v>100</v>
+      </c>
+      <c r="I137">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="J137">
+        <v>76.2</v>
+      </c>
+      <c r="K137">
+        <v>48</v>
+      </c>
+      <c r="L137">
+        <v>81.7</v>
+      </c>
+      <c r="M137">
+        <v>37</v>
+      </c>
+      <c r="N137">
+        <v>86.2</v>
+      </c>
+      <c r="O137">
+        <v>20</v>
+      </c>
+      <c r="P137">
+        <v>89.1</v>
+      </c>
+      <c r="Q137">
+        <v>19</v>
+      </c>
+      <c r="R137">
+        <v>92.7</v>
+      </c>
+      <c r="S137">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>68.3</v>
+      </c>
+      <c r="U137">
+        <v>47</v>
+      </c>
+      <c r="V137">
+        <v>73.3</v>
+      </c>
+      <c r="W137">
+        <v>37</v>
+      </c>
+      <c r="X137">
+        <v>78.8</v>
+      </c>
+      <c r="Y137">
+        <v>18</v>
+      </c>
+      <c r="Z137">
+        <v>83.7</v>
+      </c>
+      <c r="AA137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
@@ -8711,8 +11180,77 @@
       <c r="D138" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>99</v>
+      </c>
+      <c r="F138">
+        <v>69</v>
+      </c>
+      <c r="G138">
+        <v>53.2</v>
+      </c>
+      <c r="H138">
+        <v>99.4</v>
+      </c>
+      <c r="I138">
+        <v>98.5</v>
+      </c>
+      <c r="J138">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K138">
+        <v>39</v>
+      </c>
+      <c r="L138">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="M138">
+        <v>37</v>
+      </c>
+      <c r="N138">
+        <v>82.9</v>
+      </c>
+      <c r="O138">
+        <v>31</v>
+      </c>
+      <c r="P138">
+        <v>86.7</v>
+      </c>
+      <c r="Q138">
+        <v>17</v>
+      </c>
+      <c r="R138">
+        <v>84.9</v>
+      </c>
+      <c r="S138">
+        <v>10</v>
+      </c>
+      <c r="T138">
+        <v>64.8</v>
+      </c>
+      <c r="U138">
+        <v>53</v>
+      </c>
+      <c r="V138">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="W138">
+        <v>38</v>
+      </c>
+      <c r="X138">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="Y138">
+        <v>15</v>
+      </c>
+      <c r="Z138">
+        <v>84.2</v>
+      </c>
+      <c r="AA138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -8725,8 +11263,77 @@
       <c r="D139" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>97.9</v>
+      </c>
+      <c r="F139">
+        <v>70.8</v>
+      </c>
+      <c r="G139">
+        <v>54.3</v>
+      </c>
+      <c r="H139">
+        <v>100</v>
+      </c>
+      <c r="I139">
+        <v>98.6</v>
+      </c>
+      <c r="J139">
+        <v>76</v>
+      </c>
+      <c r="K139">
+        <v>47</v>
+      </c>
+      <c r="L139">
+        <v>83.3</v>
+      </c>
+      <c r="M139">
+        <v>14</v>
+      </c>
+      <c r="N139">
+        <v>86.8</v>
+      </c>
+      <c r="O139">
+        <v>22</v>
+      </c>
+      <c r="P139">
+        <v>91.5</v>
+      </c>
+      <c r="Q139">
+        <v>13</v>
+      </c>
+      <c r="R139">
+        <v>88.9</v>
+      </c>
+      <c r="S139">
+        <v>10</v>
+      </c>
+      <c r="T139">
+        <v>67.8</v>
+      </c>
+      <c r="U139">
+        <v>47</v>
+      </c>
+      <c r="V139">
+        <v>74.2</v>
+      </c>
+      <c r="W139">
+        <v>35</v>
+      </c>
+      <c r="X139">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Y139">
+        <v>17</v>
+      </c>
+      <c r="Z139">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AA139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -8739,8 +11346,77 @@
       <c r="D140" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F140">
+        <v>72.5</v>
+      </c>
+      <c r="G140">
+        <v>60.1</v>
+      </c>
+      <c r="H140">
+        <v>100</v>
+      </c>
+      <c r="I140">
+        <v>77.8</v>
+      </c>
+      <c r="J140">
+        <v>75.7</v>
+      </c>
+      <c r="K140">
+        <v>48</v>
+      </c>
+      <c r="L140">
+        <v>81.5</v>
+      </c>
+      <c r="M140">
+        <v>37</v>
+      </c>
+      <c r="N140">
+        <v>86.3</v>
+      </c>
+      <c r="O140">
+        <v>19</v>
+      </c>
+      <c r="P140">
+        <v>88.2</v>
+      </c>
+      <c r="Q140">
+        <v>12</v>
+      </c>
+      <c r="R140">
+        <v>93.9</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>70.3</v>
+      </c>
+      <c r="U140">
+        <v>47</v>
+      </c>
+      <c r="V140">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="W140">
+        <v>25</v>
+      </c>
+      <c r="X140">
+        <v>80.3</v>
+      </c>
+      <c r="Y140">
+        <v>20</v>
+      </c>
+      <c r="Z140">
+        <v>85.4</v>
+      </c>
+      <c r="AA140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>38</v>
       </c>
@@ -8753,8 +11429,65 @@
       <c r="D141" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>99.1</v>
+      </c>
+      <c r="F141">
+        <v>68.5</v>
+      </c>
+      <c r="G141">
+        <v>51.6</v>
+      </c>
+      <c r="H141">
+        <v>99.5</v>
+      </c>
+      <c r="I141">
+        <v>98.7</v>
+      </c>
+      <c r="J141">
+        <v>74.7</v>
+      </c>
+      <c r="K141">
+        <v>43</v>
+      </c>
+      <c r="L141">
+        <v>79.5</v>
+      </c>
+      <c r="M141">
+        <v>34</v>
+      </c>
+      <c r="N141">
+        <v>83.5</v>
+      </c>
+      <c r="O141">
+        <v>29</v>
+      </c>
+      <c r="P141">
+        <v>86.3</v>
+      </c>
+      <c r="Q141">
+        <v>19</v>
+      </c>
+      <c r="T141">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="U141">
+        <v>54</v>
+      </c>
+      <c r="V141">
+        <v>70.2</v>
+      </c>
+      <c r="W141">
+        <v>36</v>
+      </c>
+      <c r="X141">
+        <v>77.7</v>
+      </c>
+      <c r="Y141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -8767,16 +11500,77 @@
       <c r="D142" t="s">
         <v>30</v>
       </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+      <c r="F142">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G142">
+        <v>52.2</v>
+      </c>
+      <c r="H142">
+        <v>100</v>
+      </c>
+      <c r="I142">
+        <v>99.9</v>
+      </c>
+      <c r="J142">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K142">
+        <v>46</v>
+      </c>
+      <c r="L142">
+        <v>81.5</v>
+      </c>
+      <c r="M142">
+        <v>37</v>
+      </c>
+      <c r="N142">
+        <v>88.2</v>
+      </c>
+      <c r="O142">
+        <v>10</v>
+      </c>
+      <c r="P142">
+        <v>91.5</v>
+      </c>
+      <c r="Q142">
+        <v>11</v>
+      </c>
+      <c r="R142">
+        <v>89.9</v>
+      </c>
+      <c r="S142">
+        <v>10</v>
+      </c>
+      <c r="T142">
+        <v>68.2</v>
+      </c>
+      <c r="U142">
+        <v>49</v>
+      </c>
+      <c r="V142">
+        <v>73.8</v>
+      </c>
+      <c r="W142">
+        <v>35</v>
+      </c>
+      <c r="X142">
+        <v>82</v>
+      </c>
+      <c r="Y142">
+        <v>13</v>
+      </c>
+      <c r="Z142">
+        <v>71.7</v>
+      </c>
+      <c r="AA142">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC97" xr:uid="{A260B6F8-B2E4-4984-ACC2-D5D428DD9BCD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC97">
-      <sortCondition ref="A2:A97"/>
-      <sortCondition ref="B2:B97"/>
-      <sortCondition ref="C2:C97"/>
-      <sortCondition ref="D2:D97"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AB1:AB1048576 Z1:Z1048576 X1:X1048576 V1:V1048576 T1:T1048576 R1:R1048576 P1:P1048576 N1:N1048576 L1:L1048576 E1:J1048576">
     <cfRule type="colorScale" priority="1">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02427279-3C08-445F-BF8D-78F52329B05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A4368-B0F4-49FD-8064-75F2734619B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="40">
   <si>
     <t>Te_cal</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>hh_n1_post_az</t>
+  </si>
+  <si>
+    <t>hh_n1_pre_az_test</t>
   </si>
 </sst>
 </file>
@@ -526,15 +529,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11568,6 +11571,636 @@
       </c>
       <c r="AA142">
         <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154">
+        <v>20</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>39</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155">
+        <v>25</v>
+      </c>
+      <c r="D155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156">
+        <v>25</v>
+      </c>
+      <c r="D156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>39</v>
+      </c>
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>39</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167">
+        <v>20</v>
+      </c>
+      <c r="D167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168">
+        <v>20</v>
+      </c>
+      <c r="D168" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170">
+        <v>25</v>
+      </c>
+      <c r="D170" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171">
+        <v>25</v>
+      </c>
+      <c r="D171" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172">
+        <v>25</v>
+      </c>
+      <c r="D172" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182">
+        <v>20</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B183" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+      <c r="D183" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B185" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186">
+        <v>25</v>
+      </c>
+      <c r="D186" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>39</v>
+      </c>
+      <c r="B187" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187">
+        <v>25</v>
+      </c>
+      <c r="D187" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7943EA3D-4796-4D31-AEDB-9320CB0D6C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2EFB5-D634-4815-8B2E-926BD0BFC418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="870" windowWidth="21600" windowHeight="14625" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$328</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$343</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="47">
   <si>
     <t>Te_cal</t>
   </si>
@@ -173,6 +172,9 @@
   </si>
   <si>
     <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
   </si>
 </sst>
 </file>
@@ -548,13 +550,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC343"/>
+  <dimension ref="A1:AC388"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E351" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A331" sqref="A331"/>
+      <selection pane="bottomRight" activeCell="E389" sqref="E389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27126,9 +27128,3462 @@
         <v>10</v>
       </c>
     </row>
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>46</v>
+      </c>
+      <c r="B344" t="s">
+        <v>28</v>
+      </c>
+      <c r="C344">
+        <v>5</v>
+      </c>
+      <c r="D344" t="s">
+        <v>26</v>
+      </c>
+      <c r="E344">
+        <v>99.5</v>
+      </c>
+      <c r="F344">
+        <v>60.2</v>
+      </c>
+      <c r="G344">
+        <v>98.5</v>
+      </c>
+      <c r="H344">
+        <v>99.5</v>
+      </c>
+      <c r="I344">
+        <v>99.4</v>
+      </c>
+      <c r="J344">
+        <v>67</v>
+      </c>
+      <c r="K344">
+        <v>23</v>
+      </c>
+      <c r="L344">
+        <v>72.8</v>
+      </c>
+      <c r="M344">
+        <v>10</v>
+      </c>
+      <c r="N344">
+        <v>72.2</v>
+      </c>
+      <c r="O344">
+        <v>14</v>
+      </c>
+      <c r="P344">
+        <v>70.8</v>
+      </c>
+      <c r="Q344">
+        <v>10</v>
+      </c>
+      <c r="R344">
+        <v>69.8</v>
+      </c>
+      <c r="S344">
+        <v>11</v>
+      </c>
+      <c r="T344">
+        <v>58.2</v>
+      </c>
+      <c r="U344">
+        <v>24</v>
+      </c>
+      <c r="V344">
+        <v>61.9</v>
+      </c>
+      <c r="W344">
+        <v>19</v>
+      </c>
+      <c r="X344">
+        <v>62.8</v>
+      </c>
+      <c r="Y344">
+        <v>24</v>
+      </c>
+      <c r="Z344">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AA344">
+        <v>13</v>
+      </c>
+      <c r="AB344">
+        <v>60.8</v>
+      </c>
+      <c r="AC344">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>46</v>
+      </c>
+      <c r="B345" t="s">
+        <v>28</v>
+      </c>
+      <c r="C345">
+        <v>5</v>
+      </c>
+      <c r="D345" t="s">
+        <v>29</v>
+      </c>
+      <c r="E345">
+        <v>98.2</v>
+      </c>
+      <c r="F345">
+        <v>60.3</v>
+      </c>
+      <c r="G345">
+        <v>11.4</v>
+      </c>
+      <c r="H345">
+        <v>99.1</v>
+      </c>
+      <c r="I345">
+        <v>97.3</v>
+      </c>
+      <c r="J345">
+        <v>62.3</v>
+      </c>
+      <c r="K345">
+        <v>48</v>
+      </c>
+      <c r="L345">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="M345">
+        <v>21</v>
+      </c>
+      <c r="N345">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="O345">
+        <v>10</v>
+      </c>
+      <c r="T345">
+        <v>61</v>
+      </c>
+      <c r="U345">
+        <v>25</v>
+      </c>
+      <c r="V345">
+        <v>60</v>
+      </c>
+      <c r="W345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>46</v>
+      </c>
+      <c r="B346" t="s">
+        <v>28</v>
+      </c>
+      <c r="C346">
+        <v>5</v>
+      </c>
+      <c r="D346" t="s">
+        <v>30</v>
+      </c>
+      <c r="E346">
+        <v>87.4</v>
+      </c>
+      <c r="F346">
+        <v>59.7</v>
+      </c>
+      <c r="G346">
+        <v>100</v>
+      </c>
+      <c r="H346">
+        <v>100</v>
+      </c>
+      <c r="I346">
+        <v>82.3</v>
+      </c>
+      <c r="J346">
+        <v>54.7</v>
+      </c>
+      <c r="K346">
+        <v>83</v>
+      </c>
+      <c r="L346">
+        <v>52.1</v>
+      </c>
+      <c r="M346">
+        <v>100</v>
+      </c>
+      <c r="N346">
+        <v>52.1</v>
+      </c>
+      <c r="O346">
+        <v>100</v>
+      </c>
+      <c r="P346">
+        <v>52.1</v>
+      </c>
+      <c r="Q346">
+        <v>100</v>
+      </c>
+      <c r="R346">
+        <v>52.1</v>
+      </c>
+      <c r="S346">
+        <v>100</v>
+      </c>
+      <c r="T346">
+        <v>61.3</v>
+      </c>
+      <c r="U346">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>46</v>
+      </c>
+      <c r="B347" t="s">
+        <v>28</v>
+      </c>
+      <c r="C347">
+        <v>10</v>
+      </c>
+      <c r="D347" t="s">
+        <v>26</v>
+      </c>
+      <c r="E347">
+        <v>100</v>
+      </c>
+      <c r="F347">
+        <v>61.9</v>
+      </c>
+      <c r="G347">
+        <v>98.5</v>
+      </c>
+      <c r="H347">
+        <v>100</v>
+      </c>
+      <c r="I347">
+        <v>100</v>
+      </c>
+      <c r="J347">
+        <v>66.3</v>
+      </c>
+      <c r="K347">
+        <v>43</v>
+      </c>
+      <c r="L347">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="M347">
+        <v>21</v>
+      </c>
+      <c r="N347">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="O347">
+        <v>15</v>
+      </c>
+      <c r="P347">
+        <v>68.3</v>
+      </c>
+      <c r="Q347">
+        <v>11</v>
+      </c>
+      <c r="R347">
+        <v>67.8</v>
+      </c>
+      <c r="S347">
+        <v>13</v>
+      </c>
+      <c r="T347">
+        <v>58.6</v>
+      </c>
+      <c r="U347">
+        <v>57</v>
+      </c>
+      <c r="V347">
+        <v>63.9</v>
+      </c>
+      <c r="W347">
+        <v>18</v>
+      </c>
+      <c r="X347">
+        <v>64.3</v>
+      </c>
+      <c r="Y347">
+        <v>12</v>
+      </c>
+      <c r="Z347">
+        <v>63.4</v>
+      </c>
+      <c r="AA347">
+        <v>15</v>
+      </c>
+      <c r="AB347">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AC347">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>46</v>
+      </c>
+      <c r="B348" t="s">
+        <v>28</v>
+      </c>
+      <c r="C348">
+        <v>10</v>
+      </c>
+      <c r="D348" t="s">
+        <v>29</v>
+      </c>
+      <c r="E348">
+        <v>99.7</v>
+      </c>
+      <c r="F348">
+        <v>63.2</v>
+      </c>
+      <c r="G348">
+        <v>11.5</v>
+      </c>
+      <c r="H348">
+        <v>99.9</v>
+      </c>
+      <c r="I348">
+        <v>99.5</v>
+      </c>
+      <c r="J348">
+        <v>61.6</v>
+      </c>
+      <c r="K348">
+        <v>66</v>
+      </c>
+      <c r="L348">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="M348">
+        <v>29</v>
+      </c>
+      <c r="N348">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="O348">
+        <v>11</v>
+      </c>
+      <c r="T348">
+        <v>67.7</v>
+      </c>
+      <c r="U348">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>46</v>
+      </c>
+      <c r="B349" t="s">
+        <v>28</v>
+      </c>
+      <c r="C349">
+        <v>10</v>
+      </c>
+      <c r="D349" t="s">
+        <v>30</v>
+      </c>
+      <c r="E349">
+        <v>98.8</v>
+      </c>
+      <c r="F349">
+        <v>58</v>
+      </c>
+      <c r="G349">
+        <v>100</v>
+      </c>
+      <c r="H349">
+        <v>100</v>
+      </c>
+      <c r="I349">
+        <v>98.3</v>
+      </c>
+      <c r="J349">
+        <v>66.7</v>
+      </c>
+      <c r="K349">
+        <v>26</v>
+      </c>
+      <c r="L349">
+        <v>70.3</v>
+      </c>
+      <c r="M349">
+        <v>14</v>
+      </c>
+      <c r="N349">
+        <v>52.1</v>
+      </c>
+      <c r="O349">
+        <v>100</v>
+      </c>
+      <c r="P349">
+        <v>52.1</v>
+      </c>
+      <c r="Q349">
+        <v>100</v>
+      </c>
+      <c r="R349">
+        <v>52.1</v>
+      </c>
+      <c r="S349">
+        <v>100</v>
+      </c>
+      <c r="T349">
+        <v>68.3</v>
+      </c>
+      <c r="U349">
+        <v>29</v>
+      </c>
+      <c r="V349">
+        <v>62.4</v>
+      </c>
+      <c r="W349">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>46</v>
+      </c>
+      <c r="B350" t="s">
+        <v>28</v>
+      </c>
+      <c r="C350">
+        <v>15</v>
+      </c>
+      <c r="D350" t="s">
+        <v>26</v>
+      </c>
+      <c r="E350">
+        <v>100</v>
+      </c>
+      <c r="F350">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G350">
+        <v>99.8</v>
+      </c>
+      <c r="H350">
+        <v>100</v>
+      </c>
+      <c r="I350">
+        <v>100</v>
+      </c>
+      <c r="J350">
+        <v>67.2</v>
+      </c>
+      <c r="K350">
+        <v>37</v>
+      </c>
+      <c r="L350">
+        <v>68.5</v>
+      </c>
+      <c r="M350">
+        <v>30</v>
+      </c>
+      <c r="N350">
+        <v>76.3</v>
+      </c>
+      <c r="O350">
+        <v>15</v>
+      </c>
+      <c r="P350">
+        <v>79.8</v>
+      </c>
+      <c r="Q350">
+        <v>14</v>
+      </c>
+      <c r="R350">
+        <v>76.7</v>
+      </c>
+      <c r="S350">
+        <v>13</v>
+      </c>
+      <c r="T350">
+        <v>71.7</v>
+      </c>
+      <c r="U350">
+        <v>19</v>
+      </c>
+      <c r="V350">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="W350">
+        <v>15</v>
+      </c>
+      <c r="X350">
+        <v>73.8</v>
+      </c>
+      <c r="Y350">
+        <v>11</v>
+      </c>
+      <c r="Z350">
+        <v>75.5</v>
+      </c>
+      <c r="AA350">
+        <v>11</v>
+      </c>
+      <c r="AB350">
+        <v>71</v>
+      </c>
+      <c r="AC350">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>46</v>
+      </c>
+      <c r="B351" t="s">
+        <v>28</v>
+      </c>
+      <c r="C351">
+        <v>15</v>
+      </c>
+      <c r="D351" t="s">
+        <v>29</v>
+      </c>
+      <c r="E351">
+        <v>100</v>
+      </c>
+      <c r="F351">
+        <v>59</v>
+      </c>
+      <c r="G351">
+        <v>27.2</v>
+      </c>
+      <c r="H351">
+        <v>100</v>
+      </c>
+      <c r="I351">
+        <v>99.9</v>
+      </c>
+      <c r="J351">
+        <v>57.1</v>
+      </c>
+      <c r="K351">
+        <v>77</v>
+      </c>
+      <c r="L351">
+        <v>71</v>
+      </c>
+      <c r="M351">
+        <v>30</v>
+      </c>
+      <c r="N351">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="O351">
+        <v>17</v>
+      </c>
+      <c r="T351">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="U351">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>46</v>
+      </c>
+      <c r="B352" t="s">
+        <v>28</v>
+      </c>
+      <c r="C352">
+        <v>15</v>
+      </c>
+      <c r="D352" t="s">
+        <v>30</v>
+      </c>
+      <c r="E352">
+        <v>100</v>
+      </c>
+      <c r="F352">
+        <v>64.8</v>
+      </c>
+      <c r="G352">
+        <v>100</v>
+      </c>
+      <c r="H352">
+        <v>100</v>
+      </c>
+      <c r="I352">
+        <v>100</v>
+      </c>
+      <c r="J352">
+        <v>60.3</v>
+      </c>
+      <c r="K352">
+        <v>71</v>
+      </c>
+      <c r="L352">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="M352">
+        <v>12</v>
+      </c>
+      <c r="N352">
+        <v>61.5</v>
+      </c>
+      <c r="O352">
+        <v>41</v>
+      </c>
+      <c r="P352">
+        <v>59.9</v>
+      </c>
+      <c r="Q352">
+        <v>15</v>
+      </c>
+      <c r="T352">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="U352">
+        <v>13</v>
+      </c>
+      <c r="V352">
+        <v>55.4</v>
+      </c>
+      <c r="W352">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>46</v>
+      </c>
+      <c r="B353" t="s">
+        <v>28</v>
+      </c>
+      <c r="C353">
+        <v>20</v>
+      </c>
+      <c r="D353" t="s">
+        <v>26</v>
+      </c>
+      <c r="E353">
+        <v>100</v>
+      </c>
+      <c r="F353">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G353">
+        <v>99.8</v>
+      </c>
+      <c r="H353">
+        <v>100</v>
+      </c>
+      <c r="I353">
+        <v>100</v>
+      </c>
+      <c r="J353">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K353">
+        <v>52</v>
+      </c>
+      <c r="L353">
+        <v>74</v>
+      </c>
+      <c r="M353">
+        <v>34</v>
+      </c>
+      <c r="N353">
+        <v>77.7</v>
+      </c>
+      <c r="O353">
+        <v>21</v>
+      </c>
+      <c r="P353">
+        <v>81.8</v>
+      </c>
+      <c r="Q353">
+        <v>11</v>
+      </c>
+      <c r="R353">
+        <v>87.2</v>
+      </c>
+      <c r="S353">
+        <v>20</v>
+      </c>
+      <c r="T353">
+        <v>73.7</v>
+      </c>
+      <c r="U353">
+        <v>21</v>
+      </c>
+      <c r="V353">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="W353">
+        <v>12</v>
+      </c>
+      <c r="X353">
+        <v>80.5</v>
+      </c>
+      <c r="Y353">
+        <v>14</v>
+      </c>
+      <c r="Z353">
+        <v>74</v>
+      </c>
+      <c r="AA353">
+        <v>11</v>
+      </c>
+      <c r="AB353">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AC353">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>46</v>
+      </c>
+      <c r="B354" t="s">
+        <v>28</v>
+      </c>
+      <c r="C354">
+        <v>20</v>
+      </c>
+      <c r="D354" t="s">
+        <v>29</v>
+      </c>
+      <c r="E354">
+        <v>100</v>
+      </c>
+      <c r="F354">
+        <v>62.3</v>
+      </c>
+      <c r="G354">
+        <v>13.6</v>
+      </c>
+      <c r="H354">
+        <v>99.9</v>
+      </c>
+      <c r="I354">
+        <v>100</v>
+      </c>
+      <c r="J354">
+        <v>68.7</v>
+      </c>
+      <c r="K354">
+        <v>35</v>
+      </c>
+      <c r="L354">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="M354">
+        <v>25</v>
+      </c>
+      <c r="N354">
+        <v>75.2</v>
+      </c>
+      <c r="O354">
+        <v>12</v>
+      </c>
+      <c r="T354">
+        <v>68.5</v>
+      </c>
+      <c r="U354">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>46</v>
+      </c>
+      <c r="B355" t="s">
+        <v>28</v>
+      </c>
+      <c r="C355">
+        <v>20</v>
+      </c>
+      <c r="D355" t="s">
+        <v>30</v>
+      </c>
+      <c r="E355">
+        <v>100</v>
+      </c>
+      <c r="F355">
+        <v>70.5</v>
+      </c>
+      <c r="G355">
+        <v>100</v>
+      </c>
+      <c r="H355">
+        <v>100</v>
+      </c>
+      <c r="I355">
+        <v>100</v>
+      </c>
+      <c r="J355">
+        <v>81.7</v>
+      </c>
+      <c r="K355">
+        <v>11</v>
+      </c>
+      <c r="L355">
+        <v>86.9</v>
+      </c>
+      <c r="M355">
+        <v>19</v>
+      </c>
+      <c r="N355">
+        <v>86.3</v>
+      </c>
+      <c r="O355">
+        <v>10</v>
+      </c>
+      <c r="P355">
+        <v>63.2</v>
+      </c>
+      <c r="Q355">
+        <v>16</v>
+      </c>
+      <c r="R355">
+        <v>52.1</v>
+      </c>
+      <c r="S355">
+        <v>100</v>
+      </c>
+      <c r="T355">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="U355">
+        <v>15</v>
+      </c>
+      <c r="V355">
+        <v>79.8</v>
+      </c>
+      <c r="W355">
+        <v>11</v>
+      </c>
+      <c r="X355">
+        <v>48.4</v>
+      </c>
+      <c r="Y355">
+        <v>99</v>
+      </c>
+      <c r="Z355">
+        <v>52.9</v>
+      </c>
+      <c r="AA355">
+        <v>85</v>
+      </c>
+      <c r="AB355">
+        <v>47.9</v>
+      </c>
+      <c r="AC355">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>46</v>
+      </c>
+      <c r="B356" t="s">
+        <v>28</v>
+      </c>
+      <c r="C356">
+        <v>25</v>
+      </c>
+      <c r="D356" t="s">
+        <v>26</v>
+      </c>
+      <c r="E356">
+        <v>100</v>
+      </c>
+      <c r="F356">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G356">
+        <v>99.8</v>
+      </c>
+      <c r="H356">
+        <v>100</v>
+      </c>
+      <c r="I356">
+        <v>100</v>
+      </c>
+      <c r="J356">
+        <v>73.2</v>
+      </c>
+      <c r="K356">
+        <v>31</v>
+      </c>
+      <c r="L356">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M356">
+        <v>21</v>
+      </c>
+      <c r="N356">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="O356">
+        <v>34</v>
+      </c>
+      <c r="P356">
+        <v>82.3</v>
+      </c>
+      <c r="Q356">
+        <v>22</v>
+      </c>
+      <c r="R356">
+        <v>86</v>
+      </c>
+      <c r="S356">
+        <v>11</v>
+      </c>
+      <c r="T356">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="U356">
+        <v>22</v>
+      </c>
+      <c r="V356">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="W356">
+        <v>18</v>
+      </c>
+      <c r="X356">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="Y356">
+        <v>10</v>
+      </c>
+      <c r="Z356">
+        <v>79.5</v>
+      </c>
+      <c r="AA356">
+        <v>23</v>
+      </c>
+      <c r="AB356">
+        <v>77.3</v>
+      </c>
+      <c r="AC356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>46</v>
+      </c>
+      <c r="B357" t="s">
+        <v>28</v>
+      </c>
+      <c r="C357">
+        <v>25</v>
+      </c>
+      <c r="D357" t="s">
+        <v>29</v>
+      </c>
+      <c r="E357">
+        <v>100</v>
+      </c>
+      <c r="F357">
+        <v>62.6</v>
+      </c>
+      <c r="G357">
+        <v>13.5</v>
+      </c>
+      <c r="H357">
+        <v>100</v>
+      </c>
+      <c r="I357">
+        <v>100</v>
+      </c>
+      <c r="J357">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="K357">
+        <v>36</v>
+      </c>
+      <c r="L357">
+        <v>72.8</v>
+      </c>
+      <c r="M357">
+        <v>21</v>
+      </c>
+      <c r="N357">
+        <v>73.5</v>
+      </c>
+      <c r="O357">
+        <v>11</v>
+      </c>
+      <c r="T357">
+        <v>67.5</v>
+      </c>
+      <c r="U357">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>46</v>
+      </c>
+      <c r="B358" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358">
+        <v>25</v>
+      </c>
+      <c r="D358" t="s">
+        <v>30</v>
+      </c>
+      <c r="E358">
+        <v>100</v>
+      </c>
+      <c r="F358">
+        <v>70.8</v>
+      </c>
+      <c r="G358">
+        <v>100</v>
+      </c>
+      <c r="H358">
+        <v>100</v>
+      </c>
+      <c r="I358">
+        <v>100</v>
+      </c>
+      <c r="J358">
+        <v>71</v>
+      </c>
+      <c r="K358">
+        <v>48</v>
+      </c>
+      <c r="L358">
+        <v>84.2</v>
+      </c>
+      <c r="M358">
+        <v>10</v>
+      </c>
+      <c r="N358">
+        <v>84.4</v>
+      </c>
+      <c r="O358">
+        <v>12</v>
+      </c>
+      <c r="P358">
+        <v>52.1</v>
+      </c>
+      <c r="Q358">
+        <v>100</v>
+      </c>
+      <c r="R358">
+        <v>52.1</v>
+      </c>
+      <c r="S358">
+        <v>100</v>
+      </c>
+      <c r="T358">
+        <v>83</v>
+      </c>
+      <c r="U358">
+        <v>11</v>
+      </c>
+      <c r="V358">
+        <v>82.4</v>
+      </c>
+      <c r="W358">
+        <v>12</v>
+      </c>
+      <c r="X358">
+        <v>47.9</v>
+      </c>
+      <c r="Y358">
+        <v>100</v>
+      </c>
+      <c r="Z358">
+        <v>56.7</v>
+      </c>
+      <c r="AA358">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>46</v>
+      </c>
+      <c r="B359" t="s">
+        <v>33</v>
+      </c>
+      <c r="C359">
+        <v>5</v>
+      </c>
+      <c r="D359" t="s">
+        <v>26</v>
+      </c>
+      <c r="E359">
+        <v>71.8</v>
+      </c>
+      <c r="F359">
+        <v>74.2</v>
+      </c>
+      <c r="G359">
+        <v>43.6</v>
+      </c>
+      <c r="H359">
+        <v>86.6</v>
+      </c>
+      <c r="I359">
+        <v>77.5</v>
+      </c>
+      <c r="J359">
+        <v>77.8</v>
+      </c>
+      <c r="K359">
+        <v>41</v>
+      </c>
+      <c r="L359">
+        <v>86.8</v>
+      </c>
+      <c r="M359">
+        <v>26</v>
+      </c>
+      <c r="N359">
+        <v>90.6</v>
+      </c>
+      <c r="O359">
+        <v>15</v>
+      </c>
+      <c r="P359">
+        <v>94.4</v>
+      </c>
+      <c r="Q359">
+        <v>13</v>
+      </c>
+      <c r="T359">
+        <v>78.2</v>
+      </c>
+      <c r="U359">
+        <v>22</v>
+      </c>
+      <c r="V359">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="W359">
+        <v>19</v>
+      </c>
+      <c r="X359">
+        <v>90.2</v>
+      </c>
+      <c r="Y359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>46</v>
+      </c>
+      <c r="B360" t="s">
+        <v>33</v>
+      </c>
+      <c r="C360">
+        <v>5</v>
+      </c>
+      <c r="D360" t="s">
+        <v>29</v>
+      </c>
+      <c r="E360">
+        <v>95.9</v>
+      </c>
+      <c r="F360">
+        <v>75</v>
+      </c>
+      <c r="G360">
+        <v>53.2</v>
+      </c>
+      <c r="H360">
+        <v>96.8</v>
+      </c>
+      <c r="I360">
+        <v>94.8</v>
+      </c>
+      <c r="J360">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="K360">
+        <v>42</v>
+      </c>
+      <c r="L360">
+        <v>84.6</v>
+      </c>
+      <c r="M360">
+        <v>34</v>
+      </c>
+      <c r="N360">
+        <v>88.3</v>
+      </c>
+      <c r="O360">
+        <v>21</v>
+      </c>
+      <c r="P360">
+        <v>88.7</v>
+      </c>
+      <c r="Q360">
+        <v>15</v>
+      </c>
+      <c r="T360">
+        <v>72</v>
+      </c>
+      <c r="U360">
+        <v>52</v>
+      </c>
+      <c r="V360">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="W360">
+        <v>36</v>
+      </c>
+      <c r="X360">
+        <v>91.8</v>
+      </c>
+      <c r="Y360">
+        <v>11</v>
+      </c>
+      <c r="Z360">
+        <v>86</v>
+      </c>
+      <c r="AA360">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>46</v>
+      </c>
+      <c r="B361" t="s">
+        <v>33</v>
+      </c>
+      <c r="C361">
+        <v>5</v>
+      </c>
+      <c r="D361" t="s">
+        <v>30</v>
+      </c>
+      <c r="E361">
+        <v>69.7</v>
+      </c>
+      <c r="F361">
+        <v>72.5</v>
+      </c>
+      <c r="G361">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H361">
+        <v>100</v>
+      </c>
+      <c r="I361">
+        <v>72.2</v>
+      </c>
+      <c r="J361">
+        <v>88.3</v>
+      </c>
+      <c r="K361">
+        <v>21</v>
+      </c>
+      <c r="L361">
+        <v>88.8</v>
+      </c>
+      <c r="M361">
+        <v>11</v>
+      </c>
+      <c r="N361">
+        <v>94.1</v>
+      </c>
+      <c r="O361">
+        <v>11</v>
+      </c>
+      <c r="P361">
+        <v>90.8</v>
+      </c>
+      <c r="Q361">
+        <v>11</v>
+      </c>
+      <c r="T361">
+        <v>75.3</v>
+      </c>
+      <c r="U361">
+        <v>21</v>
+      </c>
+      <c r="V361">
+        <v>87.1</v>
+      </c>
+      <c r="W361">
+        <v>14</v>
+      </c>
+      <c r="X361">
+        <v>86.1</v>
+      </c>
+      <c r="Y361">
+        <v>13</v>
+      </c>
+      <c r="Z361">
+        <v>81.8</v>
+      </c>
+      <c r="AA361">
+        <v>11</v>
+      </c>
+      <c r="AB361">
+        <v>82.6</v>
+      </c>
+      <c r="AC361">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>46</v>
+      </c>
+      <c r="B362" t="s">
+        <v>33</v>
+      </c>
+      <c r="C362">
+        <v>10</v>
+      </c>
+      <c r="D362" t="s">
+        <v>26</v>
+      </c>
+      <c r="E362">
+        <v>98.2</v>
+      </c>
+      <c r="F362">
+        <v>72.5</v>
+      </c>
+      <c r="G362">
+        <v>91</v>
+      </c>
+      <c r="H362">
+        <v>98.5</v>
+      </c>
+      <c r="I362">
+        <v>97.9</v>
+      </c>
+      <c r="J362">
+        <v>82</v>
+      </c>
+      <c r="K362">
+        <v>28</v>
+      </c>
+      <c r="L362">
+        <v>90.5</v>
+      </c>
+      <c r="M362">
+        <v>15</v>
+      </c>
+      <c r="N362">
+        <v>88.7</v>
+      </c>
+      <c r="O362">
+        <v>19</v>
+      </c>
+      <c r="P362">
+        <v>91.4</v>
+      </c>
+      <c r="Q362">
+        <v>16</v>
+      </c>
+      <c r="R362">
+        <v>92.3</v>
+      </c>
+      <c r="S362">
+        <v>10</v>
+      </c>
+      <c r="T362">
+        <v>71</v>
+      </c>
+      <c r="U362">
+        <v>39</v>
+      </c>
+      <c r="V362">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="W362">
+        <v>13</v>
+      </c>
+      <c r="X362">
+        <v>85.2</v>
+      </c>
+      <c r="Y362">
+        <v>10</v>
+      </c>
+      <c r="Z362">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AA362">
+        <v>11</v>
+      </c>
+      <c r="AB362">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AC362">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>46</v>
+      </c>
+      <c r="B363" t="s">
+        <v>33</v>
+      </c>
+      <c r="C363">
+        <v>10</v>
+      </c>
+      <c r="D363" t="s">
+        <v>29</v>
+      </c>
+      <c r="E363">
+        <v>98.8</v>
+      </c>
+      <c r="F363">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G363">
+        <v>50.2</v>
+      </c>
+      <c r="H363">
+        <v>99.8</v>
+      </c>
+      <c r="I363">
+        <v>97.6</v>
+      </c>
+      <c r="J363">
+        <v>83.4</v>
+      </c>
+      <c r="K363">
+        <v>36</v>
+      </c>
+      <c r="L363">
+        <v>84.8</v>
+      </c>
+      <c r="M363">
+        <v>34</v>
+      </c>
+      <c r="N363">
+        <v>88.5</v>
+      </c>
+      <c r="O363">
+        <v>26</v>
+      </c>
+      <c r="P363">
+        <v>89.2</v>
+      </c>
+      <c r="Q363">
+        <v>19</v>
+      </c>
+      <c r="T363">
+        <v>70.3</v>
+      </c>
+      <c r="U363">
+        <v>51</v>
+      </c>
+      <c r="V363">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="W363">
+        <v>34</v>
+      </c>
+      <c r="X363">
+        <v>78</v>
+      </c>
+      <c r="Y363">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>46</v>
+      </c>
+      <c r="B364" t="s">
+        <v>33</v>
+      </c>
+      <c r="C364">
+        <v>10</v>
+      </c>
+      <c r="D364" t="s">
+        <v>30</v>
+      </c>
+      <c r="E364">
+        <v>85.9</v>
+      </c>
+      <c r="F364">
+        <v>71.8</v>
+      </c>
+      <c r="G364">
+        <v>49.1</v>
+      </c>
+      <c r="H364">
+        <v>100</v>
+      </c>
+      <c r="I364">
+        <v>85.5</v>
+      </c>
+      <c r="J364">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="K364">
+        <v>46</v>
+      </c>
+      <c r="L364">
+        <v>84.6</v>
+      </c>
+      <c r="M364">
+        <v>13</v>
+      </c>
+      <c r="N364">
+        <v>93.5</v>
+      </c>
+      <c r="O364">
+        <v>10</v>
+      </c>
+      <c r="P364">
+        <v>93.5</v>
+      </c>
+      <c r="Q364">
+        <v>12</v>
+      </c>
+      <c r="T364">
+        <v>69.5</v>
+      </c>
+      <c r="U364">
+        <v>43</v>
+      </c>
+      <c r="V364">
+        <v>77.7</v>
+      </c>
+      <c r="W364">
+        <v>13</v>
+      </c>
+      <c r="X364">
+        <v>83.2</v>
+      </c>
+      <c r="Y364">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>46</v>
+      </c>
+      <c r="B365" t="s">
+        <v>33</v>
+      </c>
+      <c r="C365">
+        <v>15</v>
+      </c>
+      <c r="D365" t="s">
+        <v>26</v>
+      </c>
+      <c r="E365">
+        <v>98.4</v>
+      </c>
+      <c r="F365">
+        <v>74.7</v>
+      </c>
+      <c r="G365">
+        <v>92.2</v>
+      </c>
+      <c r="H365">
+        <v>98.7</v>
+      </c>
+      <c r="I365">
+        <v>98</v>
+      </c>
+      <c r="J365">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K365">
+        <v>47</v>
+      </c>
+      <c r="L365">
+        <v>82.8</v>
+      </c>
+      <c r="M365">
+        <v>35</v>
+      </c>
+      <c r="N365">
+        <v>89.5</v>
+      </c>
+      <c r="O365">
+        <v>25</v>
+      </c>
+      <c r="P365">
+        <v>92.5</v>
+      </c>
+      <c r="Q365">
+        <v>20</v>
+      </c>
+      <c r="R365">
+        <v>95.7</v>
+      </c>
+      <c r="S365">
+        <v>10</v>
+      </c>
+      <c r="T365">
+        <v>72.8</v>
+      </c>
+      <c r="U365">
+        <v>48</v>
+      </c>
+      <c r="V365">
+        <v>77.2</v>
+      </c>
+      <c r="W365">
+        <v>36</v>
+      </c>
+      <c r="X365">
+        <v>83.3</v>
+      </c>
+      <c r="Y365">
+        <v>14</v>
+      </c>
+      <c r="Z365">
+        <v>86.1</v>
+      </c>
+      <c r="AA365">
+        <v>12</v>
+      </c>
+      <c r="AB365">
+        <v>80.2</v>
+      </c>
+      <c r="AC365">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>46</v>
+      </c>
+      <c r="B366" t="s">
+        <v>33</v>
+      </c>
+      <c r="C366">
+        <v>15</v>
+      </c>
+      <c r="D366" t="s">
+        <v>29</v>
+      </c>
+      <c r="E366">
+        <v>99.4</v>
+      </c>
+      <c r="F366">
+        <v>73.5</v>
+      </c>
+      <c r="G366">
+        <v>50.5</v>
+      </c>
+      <c r="H366">
+        <v>99.9</v>
+      </c>
+      <c r="I366">
+        <v>98.8</v>
+      </c>
+      <c r="J366">
+        <v>82.4</v>
+      </c>
+      <c r="K366">
+        <v>37</v>
+      </c>
+      <c r="L366">
+        <v>85.2</v>
+      </c>
+      <c r="M366">
+        <v>34</v>
+      </c>
+      <c r="N366">
+        <v>89</v>
+      </c>
+      <c r="O366">
+        <v>29</v>
+      </c>
+      <c r="P366">
+        <v>89.3</v>
+      </c>
+      <c r="Q366">
+        <v>20</v>
+      </c>
+      <c r="R366">
+        <v>92.3</v>
+      </c>
+      <c r="S366">
+        <v>10</v>
+      </c>
+      <c r="T366">
+        <v>70.2</v>
+      </c>
+      <c r="U366">
+        <v>52</v>
+      </c>
+      <c r="V366">
+        <v>77.2</v>
+      </c>
+      <c r="W366">
+        <v>35</v>
+      </c>
+      <c r="X366">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Y366">
+        <v>10</v>
+      </c>
+      <c r="Z366">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AA366">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>46</v>
+      </c>
+      <c r="B367" t="s">
+        <v>33</v>
+      </c>
+      <c r="C367">
+        <v>15</v>
+      </c>
+      <c r="D367" t="s">
+        <v>30</v>
+      </c>
+      <c r="E367">
+        <v>97.9</v>
+      </c>
+      <c r="F367">
+        <v>75</v>
+      </c>
+      <c r="G367">
+        <v>52.6</v>
+      </c>
+      <c r="H367">
+        <v>100</v>
+      </c>
+      <c r="I367">
+        <v>97.6</v>
+      </c>
+      <c r="J367">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K367">
+        <v>46</v>
+      </c>
+      <c r="L367">
+        <v>84.8</v>
+      </c>
+      <c r="M367">
+        <v>18</v>
+      </c>
+      <c r="N367">
+        <v>94.6</v>
+      </c>
+      <c r="O367">
+        <v>10</v>
+      </c>
+      <c r="P367">
+        <v>93.1</v>
+      </c>
+      <c r="Q367">
+        <v>16</v>
+      </c>
+      <c r="T367">
+        <v>74.5</v>
+      </c>
+      <c r="U367">
+        <v>18</v>
+      </c>
+      <c r="V367">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="W367">
+        <v>26</v>
+      </c>
+      <c r="X367">
+        <v>86.3</v>
+      </c>
+      <c r="Y367">
+        <v>13</v>
+      </c>
+      <c r="Z367">
+        <v>77.3</v>
+      </c>
+      <c r="AA367">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>46</v>
+      </c>
+      <c r="B368" t="s">
+        <v>33</v>
+      </c>
+      <c r="C368">
+        <v>20</v>
+      </c>
+      <c r="D368" t="s">
+        <v>26</v>
+      </c>
+      <c r="E368">
+        <v>99.4</v>
+      </c>
+      <c r="F368">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="G368">
+        <v>92.4</v>
+      </c>
+      <c r="H368">
+        <v>99.5</v>
+      </c>
+      <c r="I368">
+        <v>99.2</v>
+      </c>
+      <c r="J368">
+        <v>78.7</v>
+      </c>
+      <c r="K368">
+        <v>46</v>
+      </c>
+      <c r="L368">
+        <v>83</v>
+      </c>
+      <c r="M368">
+        <v>35</v>
+      </c>
+      <c r="N368">
+        <v>89</v>
+      </c>
+      <c r="O368">
+        <v>25</v>
+      </c>
+      <c r="P368">
+        <v>93.5</v>
+      </c>
+      <c r="Q368">
+        <v>15</v>
+      </c>
+      <c r="R368">
+        <v>96.8</v>
+      </c>
+      <c r="S368">
+        <v>10</v>
+      </c>
+      <c r="T368">
+        <v>73.8</v>
+      </c>
+      <c r="U368">
+        <v>24</v>
+      </c>
+      <c r="V368">
+        <v>78.3</v>
+      </c>
+      <c r="W368">
+        <v>14</v>
+      </c>
+      <c r="X368">
+        <v>85.8</v>
+      </c>
+      <c r="Y368">
+        <v>14</v>
+      </c>
+      <c r="Z368">
+        <v>85.7</v>
+      </c>
+      <c r="AA368">
+        <v>11</v>
+      </c>
+      <c r="AB368">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AC368">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>46</v>
+      </c>
+      <c r="B369" t="s">
+        <v>33</v>
+      </c>
+      <c r="C369">
+        <v>20</v>
+      </c>
+      <c r="D369" t="s">
+        <v>29</v>
+      </c>
+      <c r="E369">
+        <v>99.7</v>
+      </c>
+      <c r="F369">
+        <v>73.8</v>
+      </c>
+      <c r="G369">
+        <v>51.1</v>
+      </c>
+      <c r="H369">
+        <v>100</v>
+      </c>
+      <c r="I369">
+        <v>99.4</v>
+      </c>
+      <c r="J369">
+        <v>82.4</v>
+      </c>
+      <c r="K369">
+        <v>36</v>
+      </c>
+      <c r="L369">
+        <v>84.9</v>
+      </c>
+      <c r="M369">
+        <v>34</v>
+      </c>
+      <c r="N369">
+        <v>89.5</v>
+      </c>
+      <c r="O369">
+        <v>27</v>
+      </c>
+      <c r="P369">
+        <v>91.6</v>
+      </c>
+      <c r="Q369">
+        <v>19</v>
+      </c>
+      <c r="R369">
+        <v>96.6</v>
+      </c>
+      <c r="S369">
+        <v>10</v>
+      </c>
+      <c r="T369">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="U369">
+        <v>52</v>
+      </c>
+      <c r="V369">
+        <v>77.2</v>
+      </c>
+      <c r="W369">
+        <v>35</v>
+      </c>
+      <c r="X369">
+        <v>79.7</v>
+      </c>
+      <c r="Y369">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>46</v>
+      </c>
+      <c r="B370" t="s">
+        <v>33</v>
+      </c>
+      <c r="C370">
+        <v>20</v>
+      </c>
+      <c r="D370" t="s">
+        <v>30</v>
+      </c>
+      <c r="E370">
+        <v>99.9</v>
+      </c>
+      <c r="F370">
+        <v>74</v>
+      </c>
+      <c r="G370">
+        <v>49.4</v>
+      </c>
+      <c r="H370">
+        <v>100</v>
+      </c>
+      <c r="I370">
+        <v>99.9</v>
+      </c>
+      <c r="J370">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K370">
+        <v>46</v>
+      </c>
+      <c r="L370">
+        <v>84.4</v>
+      </c>
+      <c r="M370">
+        <v>35</v>
+      </c>
+      <c r="N370">
+        <v>92.6</v>
+      </c>
+      <c r="O370">
+        <v>10</v>
+      </c>
+      <c r="P370">
+        <v>93.8</v>
+      </c>
+      <c r="Q370">
+        <v>12</v>
+      </c>
+      <c r="T370">
+        <v>73</v>
+      </c>
+      <c r="U370">
+        <v>22</v>
+      </c>
+      <c r="V370">
+        <v>78.7</v>
+      </c>
+      <c r="W370">
+        <v>29</v>
+      </c>
+      <c r="X370">
+        <v>87.9</v>
+      </c>
+      <c r="Y370">
+        <v>14</v>
+      </c>
+      <c r="Z370">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AA370">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>46</v>
+      </c>
+      <c r="B371" t="s">
+        <v>33</v>
+      </c>
+      <c r="C371">
+        <v>25</v>
+      </c>
+      <c r="D371" t="s">
+        <v>26</v>
+      </c>
+      <c r="E371">
+        <v>100</v>
+      </c>
+      <c r="F371">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G371">
+        <v>94.7</v>
+      </c>
+      <c r="H371">
+        <v>99.9</v>
+      </c>
+      <c r="I371">
+        <v>100</v>
+      </c>
+      <c r="J371">
+        <v>76.7</v>
+      </c>
+      <c r="K371">
+        <v>44</v>
+      </c>
+      <c r="L371">
+        <v>82.8</v>
+      </c>
+      <c r="M371">
+        <v>39</v>
+      </c>
+      <c r="N371">
+        <v>86.4</v>
+      </c>
+      <c r="O371">
+        <v>28</v>
+      </c>
+      <c r="P371">
+        <v>93.5</v>
+      </c>
+      <c r="Q371">
+        <v>17</v>
+      </c>
+      <c r="R371">
+        <v>96</v>
+      </c>
+      <c r="S371">
+        <v>11</v>
+      </c>
+      <c r="T371">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="U371">
+        <v>36</v>
+      </c>
+      <c r="V371">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="W371">
+        <v>29</v>
+      </c>
+      <c r="X371">
+        <v>86.6</v>
+      </c>
+      <c r="Y371">
+        <v>13</v>
+      </c>
+      <c r="Z371">
+        <v>84.5</v>
+      </c>
+      <c r="AA371">
+        <v>11</v>
+      </c>
+      <c r="AB371">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AC371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>46</v>
+      </c>
+      <c r="B372" t="s">
+        <v>33</v>
+      </c>
+      <c r="C372">
+        <v>25</v>
+      </c>
+      <c r="D372" t="s">
+        <v>29</v>
+      </c>
+      <c r="E372">
+        <v>99.9</v>
+      </c>
+      <c r="F372">
+        <v>73.5</v>
+      </c>
+      <c r="G372">
+        <v>43.7</v>
+      </c>
+      <c r="H372">
+        <v>100</v>
+      </c>
+      <c r="I372">
+        <v>99.8</v>
+      </c>
+      <c r="J372">
+        <v>82.4</v>
+      </c>
+      <c r="K372">
+        <v>36</v>
+      </c>
+      <c r="L372">
+        <v>85.4</v>
+      </c>
+      <c r="M372">
+        <v>34</v>
+      </c>
+      <c r="N372">
+        <v>88.6</v>
+      </c>
+      <c r="O372">
+        <v>27</v>
+      </c>
+      <c r="P372">
+        <v>91.3</v>
+      </c>
+      <c r="Q372">
+        <v>16</v>
+      </c>
+      <c r="T372">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="U372">
+        <v>52</v>
+      </c>
+      <c r="V372">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="W372">
+        <v>36</v>
+      </c>
+      <c r="X372">
+        <v>82.4</v>
+      </c>
+      <c r="Y372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>46</v>
+      </c>
+      <c r="B373" t="s">
+        <v>33</v>
+      </c>
+      <c r="C373">
+        <v>25</v>
+      </c>
+      <c r="D373" t="s">
+        <v>30</v>
+      </c>
+      <c r="E373">
+        <v>100</v>
+      </c>
+      <c r="F373">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G373">
+        <v>43.3</v>
+      </c>
+      <c r="H373">
+        <v>100</v>
+      </c>
+      <c r="I373">
+        <v>100</v>
+      </c>
+      <c r="J373">
+        <v>77.7</v>
+      </c>
+      <c r="K373">
+        <v>46</v>
+      </c>
+      <c r="L373">
+        <v>89.6</v>
+      </c>
+      <c r="M373">
+        <v>11</v>
+      </c>
+      <c r="N373">
+        <v>92.5</v>
+      </c>
+      <c r="O373">
+        <v>14</v>
+      </c>
+      <c r="P373">
+        <v>94.4</v>
+      </c>
+      <c r="Q373">
+        <v>14</v>
+      </c>
+      <c r="T373">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="U373">
+        <v>47</v>
+      </c>
+      <c r="V373">
+        <v>81</v>
+      </c>
+      <c r="W373">
+        <v>26</v>
+      </c>
+      <c r="X373">
+        <v>87.9</v>
+      </c>
+      <c r="Y373">
+        <v>11</v>
+      </c>
+      <c r="Z373">
+        <v>81.2</v>
+      </c>
+      <c r="AA373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>46</v>
+      </c>
+      <c r="B374" t="s">
+        <v>34</v>
+      </c>
+      <c r="C374">
+        <v>5</v>
+      </c>
+      <c r="D374" t="s">
+        <v>26</v>
+      </c>
+      <c r="E374">
+        <v>70.7</v>
+      </c>
+      <c r="F374">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G374">
+        <v>45.8</v>
+      </c>
+      <c r="H374">
+        <v>88.3</v>
+      </c>
+      <c r="I374">
+        <v>88.4</v>
+      </c>
+      <c r="J374">
+        <v>86.5</v>
+      </c>
+      <c r="K374">
+        <v>27</v>
+      </c>
+      <c r="L374">
+        <v>88.1</v>
+      </c>
+      <c r="M374">
+        <v>24</v>
+      </c>
+      <c r="N374">
+        <v>91.3</v>
+      </c>
+      <c r="O374">
+        <v>11</v>
+      </c>
+      <c r="P374">
+        <v>92.4</v>
+      </c>
+      <c r="Q374">
+        <v>13</v>
+      </c>
+      <c r="T374">
+        <v>79.7</v>
+      </c>
+      <c r="U374">
+        <v>20</v>
+      </c>
+      <c r="V374">
+        <v>81.8</v>
+      </c>
+      <c r="W374">
+        <v>10</v>
+      </c>
+      <c r="X374">
+        <v>84.7</v>
+      </c>
+      <c r="Y374">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>46</v>
+      </c>
+      <c r="B375" t="s">
+        <v>34</v>
+      </c>
+      <c r="C375">
+        <v>5</v>
+      </c>
+      <c r="D375" t="s">
+        <v>29</v>
+      </c>
+      <c r="E375">
+        <v>96</v>
+      </c>
+      <c r="F375">
+        <v>71.8</v>
+      </c>
+      <c r="G375">
+        <v>55.1</v>
+      </c>
+      <c r="H375">
+        <v>97.6</v>
+      </c>
+      <c r="I375">
+        <v>94.4</v>
+      </c>
+      <c r="J375">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K375">
+        <v>41</v>
+      </c>
+      <c r="L375">
+        <v>83.9</v>
+      </c>
+      <c r="M375">
+        <v>32</v>
+      </c>
+      <c r="N375">
+        <v>88.2</v>
+      </c>
+      <c r="O375">
+        <v>26</v>
+      </c>
+      <c r="P375">
+        <v>89</v>
+      </c>
+      <c r="Q375">
+        <v>17</v>
+      </c>
+      <c r="T375">
+        <v>68</v>
+      </c>
+      <c r="U375">
+        <v>50</v>
+      </c>
+      <c r="V375">
+        <v>73.3</v>
+      </c>
+      <c r="W375">
+        <v>37</v>
+      </c>
+      <c r="X375">
+        <v>82</v>
+      </c>
+      <c r="Y375">
+        <v>10</v>
+      </c>
+      <c r="Z375">
+        <v>77.2</v>
+      </c>
+      <c r="AA375">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>46</v>
+      </c>
+      <c r="B376" t="s">
+        <v>34</v>
+      </c>
+      <c r="C376">
+        <v>5</v>
+      </c>
+      <c r="D376" t="s">
+        <v>30</v>
+      </c>
+      <c r="E376">
+        <v>69</v>
+      </c>
+      <c r="F376">
+        <v>72.3</v>
+      </c>
+      <c r="G376">
+        <v>88.5</v>
+      </c>
+      <c r="H376">
+        <v>100</v>
+      </c>
+      <c r="I376">
+        <v>80.8</v>
+      </c>
+      <c r="J376">
+        <v>86.7</v>
+      </c>
+      <c r="K376">
+        <v>26</v>
+      </c>
+      <c r="L376">
+        <v>88.9</v>
+      </c>
+      <c r="M376">
+        <v>15</v>
+      </c>
+      <c r="N376">
+        <v>91.5</v>
+      </c>
+      <c r="O376">
+        <v>13</v>
+      </c>
+      <c r="P376">
+        <v>91</v>
+      </c>
+      <c r="Q376">
+        <v>11</v>
+      </c>
+      <c r="T376">
+        <v>74.7</v>
+      </c>
+      <c r="U376">
+        <v>30</v>
+      </c>
+      <c r="V376">
+        <v>80.3</v>
+      </c>
+      <c r="W376">
+        <v>16</v>
+      </c>
+      <c r="X376">
+        <v>86.5</v>
+      </c>
+      <c r="Y376">
+        <v>10</v>
+      </c>
+      <c r="Z376">
+        <v>82.8</v>
+      </c>
+      <c r="AA376">
+        <v>10</v>
+      </c>
+      <c r="AB376">
+        <v>79.8</v>
+      </c>
+      <c r="AC376">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>46</v>
+      </c>
+      <c r="B377" t="s">
+        <v>34</v>
+      </c>
+      <c r="C377">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>26</v>
+      </c>
+      <c r="E377">
+        <v>97.8</v>
+      </c>
+      <c r="F377">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G377">
+        <v>91.2</v>
+      </c>
+      <c r="H377">
+        <v>97.9</v>
+      </c>
+      <c r="I377">
+        <v>97.7</v>
+      </c>
+      <c r="J377">
+        <v>82</v>
+      </c>
+      <c r="K377">
+        <v>34</v>
+      </c>
+      <c r="L377">
+        <v>90.5</v>
+      </c>
+      <c r="M377">
+        <v>15</v>
+      </c>
+      <c r="N377">
+        <v>89</v>
+      </c>
+      <c r="O377">
+        <v>25</v>
+      </c>
+      <c r="P377">
+        <v>92.8</v>
+      </c>
+      <c r="Q377">
+        <v>16</v>
+      </c>
+      <c r="R377">
+        <v>96.7</v>
+      </c>
+      <c r="S377">
+        <v>10</v>
+      </c>
+      <c r="T377">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="U377">
+        <v>47</v>
+      </c>
+      <c r="V377">
+        <v>77.5</v>
+      </c>
+      <c r="W377">
+        <v>31</v>
+      </c>
+      <c r="X377">
+        <v>85.8</v>
+      </c>
+      <c r="Y377">
+        <v>18</v>
+      </c>
+      <c r="Z377">
+        <v>89.8</v>
+      </c>
+      <c r="AA377">
+        <v>11</v>
+      </c>
+      <c r="AB377">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AC377">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>46</v>
+      </c>
+      <c r="B378" t="s">
+        <v>34</v>
+      </c>
+      <c r="C378">
+        <v>10</v>
+      </c>
+      <c r="D378" t="s">
+        <v>29</v>
+      </c>
+      <c r="E378">
+        <v>98.8</v>
+      </c>
+      <c r="F378">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G378">
+        <v>51</v>
+      </c>
+      <c r="H378">
+        <v>99.9</v>
+      </c>
+      <c r="I378">
+        <v>97.5</v>
+      </c>
+      <c r="J378">
+        <v>80.3</v>
+      </c>
+      <c r="K378">
+        <v>38</v>
+      </c>
+      <c r="L378">
+        <v>84.4</v>
+      </c>
+      <c r="M378">
+        <v>36</v>
+      </c>
+      <c r="N378">
+        <v>88.2</v>
+      </c>
+      <c r="O378">
+        <v>26</v>
+      </c>
+      <c r="P378">
+        <v>90</v>
+      </c>
+      <c r="Q378">
+        <v>14</v>
+      </c>
+      <c r="T378">
+        <v>69.8</v>
+      </c>
+      <c r="U378">
+        <v>51</v>
+      </c>
+      <c r="V378">
+        <v>74.5</v>
+      </c>
+      <c r="W378">
+        <v>39</v>
+      </c>
+      <c r="X378">
+        <v>81</v>
+      </c>
+      <c r="Y378">
+        <v>17</v>
+      </c>
+      <c r="Z378">
+        <v>81.3</v>
+      </c>
+      <c r="AA378">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>46</v>
+      </c>
+      <c r="B379" t="s">
+        <v>34</v>
+      </c>
+      <c r="C379">
+        <v>10</v>
+      </c>
+      <c r="D379" t="s">
+        <v>30</v>
+      </c>
+      <c r="E379">
+        <v>84.8</v>
+      </c>
+      <c r="F379">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G379">
+        <v>53</v>
+      </c>
+      <c r="H379">
+        <v>100</v>
+      </c>
+      <c r="I379">
+        <v>83.8</v>
+      </c>
+      <c r="J379">
+        <v>77.5</v>
+      </c>
+      <c r="K379">
+        <v>47</v>
+      </c>
+      <c r="L379">
+        <v>85</v>
+      </c>
+      <c r="M379">
+        <v>16</v>
+      </c>
+      <c r="N379">
+        <v>93.3</v>
+      </c>
+      <c r="O379">
+        <v>10</v>
+      </c>
+      <c r="P379">
+        <v>94.5</v>
+      </c>
+      <c r="Q379">
+        <v>16</v>
+      </c>
+      <c r="T379">
+        <v>72.8</v>
+      </c>
+      <c r="U379">
+        <v>49</v>
+      </c>
+      <c r="V379">
+        <v>79.5</v>
+      </c>
+      <c r="W379">
+        <v>31</v>
+      </c>
+      <c r="X379">
+        <v>87.4</v>
+      </c>
+      <c r="Y379">
+        <v>15</v>
+      </c>
+      <c r="Z379">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AA379">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>46</v>
+      </c>
+      <c r="B380" t="s">
+        <v>34</v>
+      </c>
+      <c r="C380">
+        <v>15</v>
+      </c>
+      <c r="D380" t="s">
+        <v>26</v>
+      </c>
+      <c r="E380">
+        <v>85.2</v>
+      </c>
+      <c r="F380">
+        <v>74.8</v>
+      </c>
+      <c r="G380">
+        <v>74.5</v>
+      </c>
+      <c r="H380">
+        <v>86.4</v>
+      </c>
+      <c r="I380">
+        <v>84.7</v>
+      </c>
+      <c r="J380">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K380">
+        <v>48</v>
+      </c>
+      <c r="L380">
+        <v>82.8</v>
+      </c>
+      <c r="M380">
+        <v>36</v>
+      </c>
+      <c r="N380">
+        <v>88.3</v>
+      </c>
+      <c r="O380">
+        <v>27</v>
+      </c>
+      <c r="P380">
+        <v>94</v>
+      </c>
+      <c r="Q380">
+        <v>13</v>
+      </c>
+      <c r="R380">
+        <v>97.9</v>
+      </c>
+      <c r="S380">
+        <v>10</v>
+      </c>
+      <c r="T380">
+        <v>72.7</v>
+      </c>
+      <c r="U380">
+        <v>47</v>
+      </c>
+      <c r="V380">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="W380">
+        <v>35</v>
+      </c>
+      <c r="X380">
+        <v>88.4</v>
+      </c>
+      <c r="Y380">
+        <v>16</v>
+      </c>
+      <c r="Z380">
+        <v>89.8</v>
+      </c>
+      <c r="AA380">
+        <v>10</v>
+      </c>
+      <c r="AB380">
+        <v>78.7</v>
+      </c>
+      <c r="AC380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>46</v>
+      </c>
+      <c r="B381" t="s">
+        <v>34</v>
+      </c>
+      <c r="C381">
+        <v>15</v>
+      </c>
+      <c r="D381" t="s">
+        <v>29</v>
+      </c>
+      <c r="E381">
+        <v>99.3</v>
+      </c>
+      <c r="F381">
+        <v>73.2</v>
+      </c>
+      <c r="G381">
+        <v>48.2</v>
+      </c>
+      <c r="H381">
+        <v>99.9</v>
+      </c>
+      <c r="I381">
+        <v>98.7</v>
+      </c>
+      <c r="J381">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K381">
+        <v>38</v>
+      </c>
+      <c r="L381">
+        <v>84.5</v>
+      </c>
+      <c r="M381">
+        <v>33</v>
+      </c>
+      <c r="N381">
+        <v>88.3</v>
+      </c>
+      <c r="O381">
+        <v>30</v>
+      </c>
+      <c r="P381">
+        <v>91.6</v>
+      </c>
+      <c r="Q381">
+        <v>19</v>
+      </c>
+      <c r="T381">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="U381">
+        <v>52</v>
+      </c>
+      <c r="V381">
+        <v>75.5</v>
+      </c>
+      <c r="W381">
+        <v>37</v>
+      </c>
+      <c r="X381">
+        <v>81.2</v>
+      </c>
+      <c r="Y381">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>46</v>
+      </c>
+      <c r="B382" t="s">
+        <v>34</v>
+      </c>
+      <c r="C382">
+        <v>15</v>
+      </c>
+      <c r="D382" t="s">
+        <v>30</v>
+      </c>
+      <c r="E382">
+        <v>98.3</v>
+      </c>
+      <c r="F382">
+        <v>74.7</v>
+      </c>
+      <c r="G382">
+        <v>53.2</v>
+      </c>
+      <c r="H382">
+        <v>100</v>
+      </c>
+      <c r="I382">
+        <v>98.4</v>
+      </c>
+      <c r="J382">
+        <v>78.2</v>
+      </c>
+      <c r="K382">
+        <v>47</v>
+      </c>
+      <c r="L382">
+        <v>87.7</v>
+      </c>
+      <c r="M382">
+        <v>18</v>
+      </c>
+      <c r="N382">
+        <v>94.3</v>
+      </c>
+      <c r="O382">
+        <v>10</v>
+      </c>
+      <c r="P382">
+        <v>94.3</v>
+      </c>
+      <c r="Q382">
+        <v>17</v>
+      </c>
+      <c r="T382">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="U382">
+        <v>45</v>
+      </c>
+      <c r="V382">
+        <v>80.8</v>
+      </c>
+      <c r="W382">
+        <v>28</v>
+      </c>
+      <c r="X382">
+        <v>87.9</v>
+      </c>
+      <c r="Y382">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>46</v>
+      </c>
+      <c r="B383" t="s">
+        <v>34</v>
+      </c>
+      <c r="C383">
+        <v>20</v>
+      </c>
+      <c r="D383" t="s">
+        <v>26</v>
+      </c>
+      <c r="E383">
+        <v>91.2</v>
+      </c>
+      <c r="F383">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G383">
+        <v>82</v>
+      </c>
+      <c r="H383">
+        <v>90.1</v>
+      </c>
+      <c r="I383">
+        <v>92.6</v>
+      </c>
+      <c r="J383">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="K383">
+        <v>47</v>
+      </c>
+      <c r="L383">
+        <v>82.3</v>
+      </c>
+      <c r="M383">
+        <v>37</v>
+      </c>
+      <c r="N383">
+        <v>88.8</v>
+      </c>
+      <c r="O383">
+        <v>21</v>
+      </c>
+      <c r="P383">
+        <v>93.5</v>
+      </c>
+      <c r="Q383">
+        <v>17</v>
+      </c>
+      <c r="R383">
+        <v>95.8</v>
+      </c>
+      <c r="S383">
+        <v>10</v>
+      </c>
+      <c r="T383">
+        <v>73.3</v>
+      </c>
+      <c r="U383">
+        <v>45</v>
+      </c>
+      <c r="V383">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="W383">
+        <v>35</v>
+      </c>
+      <c r="X383">
+        <v>84.3</v>
+      </c>
+      <c r="Y383">
+        <v>17</v>
+      </c>
+      <c r="Z383">
+        <v>86.3</v>
+      </c>
+      <c r="AA383">
+        <v>13</v>
+      </c>
+      <c r="AB383">
+        <v>83.3</v>
+      </c>
+      <c r="AC383">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>46</v>
+      </c>
+      <c r="B384" t="s">
+        <v>34</v>
+      </c>
+      <c r="C384">
+        <v>20</v>
+      </c>
+      <c r="D384" t="s">
+        <v>29</v>
+      </c>
+      <c r="E384">
+        <v>99.6</v>
+      </c>
+      <c r="F384">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G384">
+        <v>46.1</v>
+      </c>
+      <c r="H384">
+        <v>100</v>
+      </c>
+      <c r="I384">
+        <v>99.1</v>
+      </c>
+      <c r="J384">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="K384">
+        <v>38</v>
+      </c>
+      <c r="L384">
+        <v>85</v>
+      </c>
+      <c r="M384">
+        <v>33</v>
+      </c>
+      <c r="N384">
+        <v>88.5</v>
+      </c>
+      <c r="O384">
+        <v>26</v>
+      </c>
+      <c r="P384">
+        <v>91.3</v>
+      </c>
+      <c r="Q384">
+        <v>19</v>
+      </c>
+      <c r="T384">
+        <v>70.3</v>
+      </c>
+      <c r="U384">
+        <v>51</v>
+      </c>
+      <c r="V384">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="W384">
+        <v>35</v>
+      </c>
+      <c r="X384">
+        <v>85</v>
+      </c>
+      <c r="Y384">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>46</v>
+      </c>
+      <c r="B385" t="s">
+        <v>34</v>
+      </c>
+      <c r="C385">
+        <v>20</v>
+      </c>
+      <c r="D385" t="s">
+        <v>30</v>
+      </c>
+      <c r="E385">
+        <v>100</v>
+      </c>
+      <c r="F385">
+        <v>74.5</v>
+      </c>
+      <c r="G385">
+        <v>51.7</v>
+      </c>
+      <c r="H385">
+        <v>100</v>
+      </c>
+      <c r="I385">
+        <v>100</v>
+      </c>
+      <c r="J385">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="K385">
+        <v>26</v>
+      </c>
+      <c r="L385">
+        <v>87.2</v>
+      </c>
+      <c r="M385">
+        <v>12</v>
+      </c>
+      <c r="N385">
+        <v>94.6</v>
+      </c>
+      <c r="O385">
+        <v>10</v>
+      </c>
+      <c r="P385">
+        <v>95.2</v>
+      </c>
+      <c r="Q385">
+        <v>11</v>
+      </c>
+      <c r="T385">
+        <v>72.8</v>
+      </c>
+      <c r="U385">
+        <v>45</v>
+      </c>
+      <c r="V385">
+        <v>82.7</v>
+      </c>
+      <c r="W385">
+        <v>21</v>
+      </c>
+      <c r="X385">
+        <v>88</v>
+      </c>
+      <c r="Y385">
+        <v>11</v>
+      </c>
+      <c r="Z385">
+        <v>32.6</v>
+      </c>
+      <c r="AA385">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>46</v>
+      </c>
+      <c r="B386" t="s">
+        <v>34</v>
+      </c>
+      <c r="C386">
+        <v>25</v>
+      </c>
+      <c r="D386" t="s">
+        <v>26</v>
+      </c>
+      <c r="E386">
+        <v>86.5</v>
+      </c>
+      <c r="F386">
+        <v>74.5</v>
+      </c>
+      <c r="G386">
+        <v>83</v>
+      </c>
+      <c r="H386">
+        <v>87.5</v>
+      </c>
+      <c r="I386">
+        <v>85.3</v>
+      </c>
+      <c r="J386">
+        <v>77.3</v>
+      </c>
+      <c r="K386">
+        <v>49</v>
+      </c>
+      <c r="L386">
+        <v>81.5</v>
+      </c>
+      <c r="M386">
+        <v>38</v>
+      </c>
+      <c r="N386">
+        <v>87.7</v>
+      </c>
+      <c r="O386">
+        <v>25</v>
+      </c>
+      <c r="P386">
+        <v>92.4</v>
+      </c>
+      <c r="Q386">
+        <v>17</v>
+      </c>
+      <c r="R386">
+        <v>97.7</v>
+      </c>
+      <c r="S386">
+        <v>10</v>
+      </c>
+      <c r="T386">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="U386">
+        <v>46</v>
+      </c>
+      <c r="V386">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="W386">
+        <v>35</v>
+      </c>
+      <c r="X386">
+        <v>83.8</v>
+      </c>
+      <c r="Y386">
+        <v>17</v>
+      </c>
+      <c r="Z386">
+        <v>89.8</v>
+      </c>
+      <c r="AA386">
+        <v>10</v>
+      </c>
+      <c r="AB386">
+        <v>82.9</v>
+      </c>
+      <c r="AC386">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>46</v>
+      </c>
+      <c r="B387" t="s">
+        <v>34</v>
+      </c>
+      <c r="C387">
+        <v>25</v>
+      </c>
+      <c r="D387" t="s">
+        <v>29</v>
+      </c>
+      <c r="E387">
+        <v>99.6</v>
+      </c>
+      <c r="F387">
+        <v>73.2</v>
+      </c>
+      <c r="G387">
+        <v>46.6</v>
+      </c>
+      <c r="H387">
+        <v>100</v>
+      </c>
+      <c r="I387">
+        <v>99.2</v>
+      </c>
+      <c r="J387">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="K387">
+        <v>38</v>
+      </c>
+      <c r="L387">
+        <v>85</v>
+      </c>
+      <c r="M387">
+        <v>33</v>
+      </c>
+      <c r="N387">
+        <v>88.2</v>
+      </c>
+      <c r="O387">
+        <v>27</v>
+      </c>
+      <c r="P387">
+        <v>90.8</v>
+      </c>
+      <c r="Q387">
+        <v>19</v>
+      </c>
+      <c r="T387">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U387">
+        <v>51</v>
+      </c>
+      <c r="V387">
+        <v>76.5</v>
+      </c>
+      <c r="W387">
+        <v>35</v>
+      </c>
+      <c r="X387">
+        <v>82.9</v>
+      </c>
+      <c r="Y387">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>46</v>
+      </c>
+      <c r="B388" t="s">
+        <v>34</v>
+      </c>
+      <c r="C388">
+        <v>25</v>
+      </c>
+      <c r="D388" t="s">
+        <v>30</v>
+      </c>
+      <c r="E388">
+        <v>100</v>
+      </c>
+      <c r="F388">
+        <v>73.8</v>
+      </c>
+      <c r="G388">
+        <v>49.5</v>
+      </c>
+      <c r="H388">
+        <v>100</v>
+      </c>
+      <c r="I388">
+        <v>100</v>
+      </c>
+      <c r="J388">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="K388">
+        <v>35</v>
+      </c>
+      <c r="L388">
+        <v>88.9</v>
+      </c>
+      <c r="M388">
+        <v>11</v>
+      </c>
+      <c r="N388">
+        <v>94</v>
+      </c>
+      <c r="O388">
+        <v>11</v>
+      </c>
+      <c r="P388">
+        <v>96</v>
+      </c>
+      <c r="Q388">
+        <v>11</v>
+      </c>
+      <c r="T388">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="U388">
+        <v>16</v>
+      </c>
+      <c r="V388">
+        <v>81.5</v>
+      </c>
+      <c r="W388">
+        <v>26</v>
+      </c>
+      <c r="X388">
+        <v>88.1</v>
+      </c>
+      <c r="Y388">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC328" xr:uid="{3CACE78E-09B0-4A51-A9AF-2F3B2E4BAEFC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC313">
+  <autoFilter ref="A1:AC343" xr:uid="{3CACE78E-09B0-4A51-A9AF-2F3B2E4BAEFC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC343">
       <sortCondition ref="A2:A97"/>
       <sortCondition ref="B2:B97"/>
       <sortCondition ref="C2:C97"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2EFB5-D634-4815-8B2E-926BD0BFC418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B0A514-16C7-4947-A86F-48EEA34FD849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="51">
   <si>
     <t>Te_cal</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>test7</t>
+  </si>
+  <si>
+    <t>test8 loc</t>
+  </si>
+  <si>
+    <t>test8 col</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>test10 col</t>
   </si>
 </sst>
 </file>
@@ -550,13 +562,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC388"/>
+  <dimension ref="A1:AC436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E351" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E389" sqref="E389"/>
+      <selection pane="bottomRight" activeCell="E436" sqref="E436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30581,9 +30593,1797 @@
         <v>16</v>
       </c>
     </row>
+    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>48</v>
+      </c>
+      <c r="B389" t="s">
+        <v>34</v>
+      </c>
+      <c r="C389">
+        <v>15</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F389">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G389">
+        <v>100</v>
+      </c>
+      <c r="H389">
+        <v>100</v>
+      </c>
+      <c r="I389">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J389">
+        <v>73.3</v>
+      </c>
+      <c r="K389">
+        <v>92</v>
+      </c>
+      <c r="L389">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="M389">
+        <v>74</v>
+      </c>
+      <c r="N389">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="O389">
+        <v>46</v>
+      </c>
+      <c r="P389">
+        <v>87.5</v>
+      </c>
+      <c r="Q389">
+        <v>10</v>
+      </c>
+      <c r="R389">
+        <v>91.5</v>
+      </c>
+      <c r="S389">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>47</v>
+      </c>
+      <c r="B390" t="s">
+        <v>34</v>
+      </c>
+      <c r="C390">
+        <v>15</v>
+      </c>
+      <c r="D390" t="s">
+        <v>26</v>
+      </c>
+      <c r="E390">
+        <v>73.7</v>
+      </c>
+      <c r="F390">
+        <v>72.2</v>
+      </c>
+      <c r="G390">
+        <v>91.5</v>
+      </c>
+      <c r="H390">
+        <v>100</v>
+      </c>
+      <c r="I390">
+        <v>14.7</v>
+      </c>
+      <c r="J390">
+        <v>72.7</v>
+      </c>
+      <c r="K390">
+        <v>91</v>
+      </c>
+      <c r="L390">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M390">
+        <v>77</v>
+      </c>
+      <c r="N390">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="O390">
+        <v>49</v>
+      </c>
+      <c r="P390">
+        <v>86.9</v>
+      </c>
+      <c r="Q390">
+        <v>19</v>
+      </c>
+      <c r="R390">
+        <v>90.4</v>
+      </c>
+      <c r="S390">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>49</v>
+      </c>
+      <c r="B391" t="s">
+        <v>28</v>
+      </c>
+      <c r="C391">
+        <v>5</v>
+      </c>
+      <c r="D391" t="s">
+        <v>26</v>
+      </c>
+      <c r="E391">
+        <v>68</v>
+      </c>
+      <c r="F391">
+        <v>60.5</v>
+      </c>
+      <c r="G391">
+        <v>28.5</v>
+      </c>
+      <c r="H391">
+        <v>100</v>
+      </c>
+      <c r="I391">
+        <v>47.7</v>
+      </c>
+      <c r="T391">
+        <v>44</v>
+      </c>
+      <c r="U391">
+        <v>87</v>
+      </c>
+      <c r="V391">
+        <v>42.6</v>
+      </c>
+      <c r="W391">
+        <v>13</v>
+      </c>
+      <c r="X391">
+        <v>39.6</v>
+      </c>
+      <c r="Y391">
+        <v>12</v>
+      </c>
+      <c r="Z391">
+        <v>35.9</v>
+      </c>
+      <c r="AA391">
+        <v>20</v>
+      </c>
+      <c r="AB391">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AC391">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>49</v>
+      </c>
+      <c r="B392" t="s">
+        <v>28</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+      <c r="D392" t="s">
+        <v>29</v>
+      </c>
+      <c r="E392">
+        <v>98.6</v>
+      </c>
+      <c r="F392">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G392">
+        <v>32.6</v>
+      </c>
+      <c r="H392">
+        <v>99.8</v>
+      </c>
+      <c r="I392">
+        <v>97</v>
+      </c>
+      <c r="T392">
+        <v>43.7</v>
+      </c>
+      <c r="U392">
+        <v>91</v>
+      </c>
+      <c r="V392">
+        <v>41.2</v>
+      </c>
+      <c r="W392">
+        <v>39</v>
+      </c>
+      <c r="X392">
+        <v>31.6</v>
+      </c>
+      <c r="Y392">
+        <v>15</v>
+      </c>
+      <c r="Z392">
+        <v>18.5</v>
+      </c>
+      <c r="AA392">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>49</v>
+      </c>
+      <c r="B393" t="s">
+        <v>28</v>
+      </c>
+      <c r="C393">
+        <v>5</v>
+      </c>
+      <c r="D393" t="s">
+        <v>30</v>
+      </c>
+      <c r="E393">
+        <v>89</v>
+      </c>
+      <c r="F393">
+        <v>63.7</v>
+      </c>
+      <c r="G393">
+        <v>7.9</v>
+      </c>
+      <c r="H393">
+        <v>100</v>
+      </c>
+      <c r="I393">
+        <v>83.9</v>
+      </c>
+      <c r="T393">
+        <v>43.3</v>
+      </c>
+      <c r="U393">
+        <v>99</v>
+      </c>
+      <c r="V393">
+        <v>43.3</v>
+      </c>
+      <c r="W393">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>49</v>
+      </c>
+      <c r="B394" t="s">
+        <v>28</v>
+      </c>
+      <c r="C394">
+        <v>10</v>
+      </c>
+      <c r="D394" t="s">
+        <v>26</v>
+      </c>
+      <c r="E394">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F394">
+        <v>62.3</v>
+      </c>
+      <c r="G394">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H394">
+        <v>100</v>
+      </c>
+      <c r="I394">
+        <v>61.3</v>
+      </c>
+      <c r="T394">
+        <v>43.9</v>
+      </c>
+      <c r="U394">
+        <v>92</v>
+      </c>
+      <c r="V394">
+        <v>42.7</v>
+      </c>
+      <c r="W394">
+        <v>39</v>
+      </c>
+      <c r="X394">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="Y394">
+        <v>15</v>
+      </c>
+      <c r="Z394">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AA394">
+        <v>13</v>
+      </c>
+      <c r="AB394">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AC394">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>49</v>
+      </c>
+      <c r="B395" t="s">
+        <v>28</v>
+      </c>
+      <c r="C395">
+        <v>10</v>
+      </c>
+      <c r="D395" t="s">
+        <v>29</v>
+      </c>
+      <c r="E395">
+        <v>99.7</v>
+      </c>
+      <c r="F395">
+        <v>68.5</v>
+      </c>
+      <c r="G395">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H395">
+        <v>100</v>
+      </c>
+      <c r="I395">
+        <v>99.3</v>
+      </c>
+      <c r="T395">
+        <v>43.1</v>
+      </c>
+      <c r="U395">
+        <v>89</v>
+      </c>
+      <c r="V395">
+        <v>40.1</v>
+      </c>
+      <c r="W395">
+        <v>35</v>
+      </c>
+      <c r="X395">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Y395">
+        <v>10</v>
+      </c>
+      <c r="Z395">
+        <v>19.2</v>
+      </c>
+      <c r="AA395">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>49</v>
+      </c>
+      <c r="B396" t="s">
+        <v>28</v>
+      </c>
+      <c r="C396">
+        <v>10</v>
+      </c>
+      <c r="D396" t="s">
+        <v>30</v>
+      </c>
+      <c r="E396">
+        <v>100</v>
+      </c>
+      <c r="F396">
+        <v>70.2</v>
+      </c>
+      <c r="G396">
+        <v>25.1</v>
+      </c>
+      <c r="H396">
+        <v>100</v>
+      </c>
+      <c r="I396">
+        <v>100</v>
+      </c>
+      <c r="T396">
+        <v>43.2</v>
+      </c>
+      <c r="U396">
+        <v>100</v>
+      </c>
+      <c r="V396">
+        <v>47.4</v>
+      </c>
+      <c r="W396">
+        <v>15</v>
+      </c>
+      <c r="X396">
+        <v>33</v>
+      </c>
+      <c r="Y396">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>49</v>
+      </c>
+      <c r="B397" t="s">
+        <v>28</v>
+      </c>
+      <c r="C397">
+        <v>15</v>
+      </c>
+      <c r="D397" t="s">
+        <v>26</v>
+      </c>
+      <c r="E397">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F397">
+        <v>62.2</v>
+      </c>
+      <c r="G397">
+        <v>40.5</v>
+      </c>
+      <c r="H397">
+        <v>100</v>
+      </c>
+      <c r="I397">
+        <v>65.8</v>
+      </c>
+      <c r="T397">
+        <v>43.7</v>
+      </c>
+      <c r="U397">
+        <v>89</v>
+      </c>
+      <c r="V397">
+        <v>42.4</v>
+      </c>
+      <c r="W397">
+        <v>34</v>
+      </c>
+      <c r="X397">
+        <v>39.4</v>
+      </c>
+      <c r="Y397">
+        <v>25</v>
+      </c>
+      <c r="Z397">
+        <v>38.5</v>
+      </c>
+      <c r="AA397">
+        <v>23</v>
+      </c>
+      <c r="AB397">
+        <v>36</v>
+      </c>
+      <c r="AC397">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>49</v>
+      </c>
+      <c r="B398" t="s">
+        <v>28</v>
+      </c>
+      <c r="C398">
+        <v>15</v>
+      </c>
+      <c r="D398" t="s">
+        <v>29</v>
+      </c>
+      <c r="E398">
+        <v>100</v>
+      </c>
+      <c r="F398">
+        <v>68.3</v>
+      </c>
+      <c r="G398">
+        <v>28.3</v>
+      </c>
+      <c r="H398">
+        <v>100</v>
+      </c>
+      <c r="I398">
+        <v>100</v>
+      </c>
+      <c r="T398">
+        <v>43.3</v>
+      </c>
+      <c r="U398">
+        <v>89</v>
+      </c>
+      <c r="V398">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="W398">
+        <v>32</v>
+      </c>
+      <c r="X398">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Y398">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>49</v>
+      </c>
+      <c r="B399" t="s">
+        <v>28</v>
+      </c>
+      <c r="C399">
+        <v>15</v>
+      </c>
+      <c r="D399" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>49</v>
+      </c>
+      <c r="B400" t="s">
+        <v>28</v>
+      </c>
+      <c r="C400">
+        <v>20</v>
+      </c>
+      <c r="D400" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>49</v>
+      </c>
+      <c r="B401" t="s">
+        <v>28</v>
+      </c>
+      <c r="C401">
+        <v>20</v>
+      </c>
+      <c r="D401" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>49</v>
+      </c>
+      <c r="B402" t="s">
+        <v>28</v>
+      </c>
+      <c r="C402">
+        <v>20</v>
+      </c>
+      <c r="D402" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>49</v>
+      </c>
+      <c r="B403" t="s">
+        <v>28</v>
+      </c>
+      <c r="C403">
+        <v>25</v>
+      </c>
+      <c r="D403" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>49</v>
+      </c>
+      <c r="B404" t="s">
+        <v>28</v>
+      </c>
+      <c r="C404">
+        <v>25</v>
+      </c>
+      <c r="D404" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>49</v>
+      </c>
+      <c r="B405" t="s">
+        <v>28</v>
+      </c>
+      <c r="C405">
+        <v>25</v>
+      </c>
+      <c r="D405" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>49</v>
+      </c>
+      <c r="B406" t="s">
+        <v>33</v>
+      </c>
+      <c r="C406">
+        <v>5</v>
+      </c>
+      <c r="D406" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>49</v>
+      </c>
+      <c r="B407" t="s">
+        <v>33</v>
+      </c>
+      <c r="C407">
+        <v>5</v>
+      </c>
+      <c r="D407" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>49</v>
+      </c>
+      <c r="B408" t="s">
+        <v>33</v>
+      </c>
+      <c r="C408">
+        <v>5</v>
+      </c>
+      <c r="D408" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>49</v>
+      </c>
+      <c r="B409" t="s">
+        <v>33</v>
+      </c>
+      <c r="C409">
+        <v>10</v>
+      </c>
+      <c r="D409" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>49</v>
+      </c>
+      <c r="B410" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410">
+        <v>10</v>
+      </c>
+      <c r="D410" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>49</v>
+      </c>
+      <c r="B411" t="s">
+        <v>33</v>
+      </c>
+      <c r="C411">
+        <v>10</v>
+      </c>
+      <c r="D411" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>49</v>
+      </c>
+      <c r="B412" t="s">
+        <v>33</v>
+      </c>
+      <c r="C412">
+        <v>15</v>
+      </c>
+      <c r="D412" t="s">
+        <v>26</v>
+      </c>
+      <c r="E412">
+        <v>73.3</v>
+      </c>
+      <c r="F412">
+        <v>62.4</v>
+      </c>
+      <c r="G412">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H412">
+        <v>100</v>
+      </c>
+      <c r="I412">
+        <v>60.8</v>
+      </c>
+      <c r="T412">
+        <v>43.5</v>
+      </c>
+      <c r="U412">
+        <v>81</v>
+      </c>
+      <c r="V412">
+        <v>41.9</v>
+      </c>
+      <c r="W412">
+        <v>48</v>
+      </c>
+      <c r="X412">
+        <v>41.5</v>
+      </c>
+      <c r="Y412">
+        <v>17</v>
+      </c>
+      <c r="Z412">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA412">
+        <v>12</v>
+      </c>
+      <c r="AB412">
+        <v>29.3</v>
+      </c>
+      <c r="AC412">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>49</v>
+      </c>
+      <c r="B413" t="s">
+        <v>33</v>
+      </c>
+      <c r="C413">
+        <v>15</v>
+      </c>
+      <c r="D413" t="s">
+        <v>29</v>
+      </c>
+      <c r="E413">
+        <v>99.9</v>
+      </c>
+      <c r="F413">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G413">
+        <v>36.6</v>
+      </c>
+      <c r="H413">
+        <v>100</v>
+      </c>
+      <c r="I413">
+        <v>99.8</v>
+      </c>
+      <c r="T413">
+        <v>41.7</v>
+      </c>
+      <c r="U413">
+        <v>89</v>
+      </c>
+      <c r="V413">
+        <v>39.9</v>
+      </c>
+      <c r="W413">
+        <v>50</v>
+      </c>
+      <c r="X413">
+        <v>24.6</v>
+      </c>
+      <c r="Y413">
+        <v>21</v>
+      </c>
+      <c r="Z413">
+        <v>14.5</v>
+      </c>
+      <c r="AA413">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>49</v>
+      </c>
+      <c r="B414" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414">
+        <v>15</v>
+      </c>
+      <c r="D414" t="s">
+        <v>30</v>
+      </c>
+      <c r="E414">
+        <v>100</v>
+      </c>
+      <c r="F414">
+        <v>76</v>
+      </c>
+      <c r="G414">
+        <v>44</v>
+      </c>
+      <c r="H414">
+        <v>100</v>
+      </c>
+      <c r="I414">
+        <v>100</v>
+      </c>
+      <c r="T414">
+        <v>44.2</v>
+      </c>
+      <c r="U414">
+        <v>90</v>
+      </c>
+      <c r="V414">
+        <v>44.9</v>
+      </c>
+      <c r="W414">
+        <v>20</v>
+      </c>
+      <c r="X414">
+        <v>28.7</v>
+      </c>
+      <c r="Y414">
+        <v>13</v>
+      </c>
+      <c r="Z414">
+        <v>22</v>
+      </c>
+      <c r="AA414">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>49</v>
+      </c>
+      <c r="B415" t="s">
+        <v>33</v>
+      </c>
+      <c r="C415">
+        <v>20</v>
+      </c>
+      <c r="D415" t="s">
+        <v>26</v>
+      </c>
+      <c r="E415">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F415">
+        <v>64.8</v>
+      </c>
+      <c r="G415">
+        <v>41</v>
+      </c>
+      <c r="H415">
+        <v>100</v>
+      </c>
+      <c r="I415">
+        <v>63.1</v>
+      </c>
+      <c r="T415">
+        <v>43.3</v>
+      </c>
+      <c r="U415">
+        <v>92</v>
+      </c>
+      <c r="V415">
+        <v>44.5</v>
+      </c>
+      <c r="W415">
+        <v>23</v>
+      </c>
+      <c r="X415">
+        <v>36.5</v>
+      </c>
+      <c r="Y415">
+        <v>16</v>
+      </c>
+      <c r="Z415">
+        <v>29.5</v>
+      </c>
+      <c r="AA415">
+        <v>10</v>
+      </c>
+      <c r="AB415">
+        <v>26.2</v>
+      </c>
+      <c r="AC415">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>49</v>
+      </c>
+      <c r="B416" t="s">
+        <v>33</v>
+      </c>
+      <c r="C416">
+        <v>20</v>
+      </c>
+      <c r="D416" t="s">
+        <v>29</v>
+      </c>
+      <c r="E416">
+        <v>100</v>
+      </c>
+      <c r="F416">
+        <v>72.8</v>
+      </c>
+      <c r="G416">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H416">
+        <v>100</v>
+      </c>
+      <c r="I416">
+        <v>99.9</v>
+      </c>
+      <c r="T416">
+        <v>42</v>
+      </c>
+      <c r="U416">
+        <v>90</v>
+      </c>
+      <c r="V416">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="W416">
+        <v>51</v>
+      </c>
+      <c r="X416">
+        <v>24.8</v>
+      </c>
+      <c r="Y416">
+        <v>22</v>
+      </c>
+      <c r="Z416">
+        <v>14.3</v>
+      </c>
+      <c r="AA416">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>49</v>
+      </c>
+      <c r="B417" t="s">
+        <v>33</v>
+      </c>
+      <c r="C417">
+        <v>20</v>
+      </c>
+      <c r="D417" t="s">
+        <v>30</v>
+      </c>
+      <c r="E417">
+        <v>100</v>
+      </c>
+      <c r="F417">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="G417">
+        <v>43.7</v>
+      </c>
+      <c r="H417">
+        <v>100</v>
+      </c>
+      <c r="I417">
+        <v>100</v>
+      </c>
+      <c r="T417">
+        <v>43.7</v>
+      </c>
+      <c r="U417">
+        <v>88</v>
+      </c>
+      <c r="V417">
+        <v>48.5</v>
+      </c>
+      <c r="W417">
+        <v>14</v>
+      </c>
+      <c r="X417">
+        <v>34.6</v>
+      </c>
+      <c r="Y417">
+        <v>11</v>
+      </c>
+      <c r="Z417">
+        <v>28.9</v>
+      </c>
+      <c r="AA417">
+        <v>10</v>
+      </c>
+      <c r="AB417">
+        <v>18</v>
+      </c>
+      <c r="AC417">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>49</v>
+      </c>
+      <c r="B418" t="s">
+        <v>33</v>
+      </c>
+      <c r="C418">
+        <v>25</v>
+      </c>
+      <c r="D418" t="s">
+        <v>26</v>
+      </c>
+      <c r="E418">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F418">
+        <v>66.8</v>
+      </c>
+      <c r="G418">
+        <v>52.7</v>
+      </c>
+      <c r="H418">
+        <v>100</v>
+      </c>
+      <c r="I418">
+        <v>73.8</v>
+      </c>
+      <c r="T418">
+        <v>43.6</v>
+      </c>
+      <c r="U418">
+        <v>82</v>
+      </c>
+      <c r="V418">
+        <v>42.3</v>
+      </c>
+      <c r="W418">
+        <v>46</v>
+      </c>
+      <c r="X418">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="Y418">
+        <v>19</v>
+      </c>
+      <c r="Z418">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AA418">
+        <v>14</v>
+      </c>
+      <c r="AB418">
+        <v>28.8</v>
+      </c>
+      <c r="AC418">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="419" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>49</v>
+      </c>
+      <c r="B419" t="s">
+        <v>33</v>
+      </c>
+      <c r="C419">
+        <v>25</v>
+      </c>
+      <c r="D419" t="s">
+        <v>29</v>
+      </c>
+      <c r="E419">
+        <v>100</v>
+      </c>
+      <c r="F419">
+        <v>72.8</v>
+      </c>
+      <c r="G419">
+        <v>33.4</v>
+      </c>
+      <c r="H419">
+        <v>100</v>
+      </c>
+      <c r="I419">
+        <v>100</v>
+      </c>
+      <c r="T419">
+        <v>41.8</v>
+      </c>
+      <c r="U419">
+        <v>91</v>
+      </c>
+      <c r="V419">
+        <v>40.5</v>
+      </c>
+      <c r="W419">
+        <v>52</v>
+      </c>
+      <c r="X419">
+        <v>23.3</v>
+      </c>
+      <c r="Y419">
+        <v>29</v>
+      </c>
+      <c r="Z419">
+        <v>13.6</v>
+      </c>
+      <c r="AA419">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>49</v>
+      </c>
+      <c r="B420" t="s">
+        <v>33</v>
+      </c>
+      <c r="C420">
+        <v>25</v>
+      </c>
+      <c r="D420" t="s">
+        <v>30</v>
+      </c>
+      <c r="E420">
+        <v>100</v>
+      </c>
+      <c r="F420">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G420">
+        <v>44.2</v>
+      </c>
+      <c r="H420">
+        <v>100</v>
+      </c>
+      <c r="I420">
+        <v>100</v>
+      </c>
+      <c r="T420">
+        <v>43.6</v>
+      </c>
+      <c r="U420">
+        <v>90</v>
+      </c>
+      <c r="V420">
+        <v>54.2</v>
+      </c>
+      <c r="W420">
+        <v>14</v>
+      </c>
+      <c r="X420">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Y420">
+        <v>12</v>
+      </c>
+      <c r="Z420">
+        <v>25.2</v>
+      </c>
+      <c r="AA420">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>49</v>
+      </c>
+      <c r="B421" t="s">
+        <v>34</v>
+      </c>
+      <c r="C421">
+        <v>5</v>
+      </c>
+      <c r="D421" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="422" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>49</v>
+      </c>
+      <c r="B422" t="s">
+        <v>34</v>
+      </c>
+      <c r="C422">
+        <v>5</v>
+      </c>
+      <c r="D422" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="423" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>49</v>
+      </c>
+      <c r="B423" t="s">
+        <v>34</v>
+      </c>
+      <c r="C423">
+        <v>5</v>
+      </c>
+      <c r="D423" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>49</v>
+      </c>
+      <c r="B424" t="s">
+        <v>34</v>
+      </c>
+      <c r="C424">
+        <v>10</v>
+      </c>
+      <c r="D424" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="425" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>49</v>
+      </c>
+      <c r="B425" t="s">
+        <v>34</v>
+      </c>
+      <c r="C425">
+        <v>10</v>
+      </c>
+      <c r="D425" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>49</v>
+      </c>
+      <c r="B426" t="s">
+        <v>34</v>
+      </c>
+      <c r="C426">
+        <v>10</v>
+      </c>
+      <c r="D426" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>49</v>
+      </c>
+      <c r="B427" t="s">
+        <v>34</v>
+      </c>
+      <c r="C427">
+        <v>15</v>
+      </c>
+      <c r="D427" t="s">
+        <v>26</v>
+      </c>
+      <c r="E427">
+        <v>66.2</v>
+      </c>
+      <c r="F427">
+        <v>58.6</v>
+      </c>
+      <c r="G427">
+        <v>24.6</v>
+      </c>
+      <c r="H427">
+        <v>100</v>
+      </c>
+      <c r="I427">
+        <v>42.8</v>
+      </c>
+      <c r="T427">
+        <v>43</v>
+      </c>
+      <c r="U427">
+        <v>99</v>
+      </c>
+      <c r="V427">
+        <v>42.5</v>
+      </c>
+      <c r="W427">
+        <v>41</v>
+      </c>
+      <c r="X427">
+        <v>45.3</v>
+      </c>
+      <c r="Y427">
+        <v>15</v>
+      </c>
+      <c r="Z427">
+        <v>29.3</v>
+      </c>
+      <c r="AA427">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>49</v>
+      </c>
+      <c r="B428" t="s">
+        <v>34</v>
+      </c>
+      <c r="C428">
+        <v>15</v>
+      </c>
+      <c r="D428" t="s">
+        <v>29</v>
+      </c>
+      <c r="E428">
+        <v>99.8</v>
+      </c>
+      <c r="F428">
+        <v>67</v>
+      </c>
+      <c r="G428">
+        <v>30.3</v>
+      </c>
+      <c r="H428">
+        <v>100</v>
+      </c>
+      <c r="I428">
+        <v>99.6</v>
+      </c>
+      <c r="T428">
+        <v>41.8</v>
+      </c>
+      <c r="U428">
+        <v>94</v>
+      </c>
+      <c r="V428">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="W428">
+        <v>40</v>
+      </c>
+      <c r="X428">
+        <v>30.3</v>
+      </c>
+      <c r="Y428">
+        <v>17</v>
+      </c>
+      <c r="Z428">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AA428">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="429" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>49</v>
+      </c>
+      <c r="B429" t="s">
+        <v>34</v>
+      </c>
+      <c r="C429">
+        <v>15</v>
+      </c>
+      <c r="D429" t="s">
+        <v>30</v>
+      </c>
+      <c r="E429">
+        <v>96.9</v>
+      </c>
+      <c r="F429">
+        <v>62.9</v>
+      </c>
+      <c r="G429">
+        <v>18.7</v>
+      </c>
+      <c r="H429">
+        <v>100</v>
+      </c>
+      <c r="I429">
+        <v>95.4</v>
+      </c>
+      <c r="T429">
+        <v>43.1</v>
+      </c>
+      <c r="U429">
+        <v>100</v>
+      </c>
+      <c r="V429">
+        <v>48.6</v>
+      </c>
+      <c r="W429">
+        <v>23</v>
+      </c>
+      <c r="X429">
+        <v>31.9</v>
+      </c>
+      <c r="Y429">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>49</v>
+      </c>
+      <c r="B430" t="s">
+        <v>34</v>
+      </c>
+      <c r="C430">
+        <v>20</v>
+      </c>
+      <c r="D430" t="s">
+        <v>26</v>
+      </c>
+      <c r="E430">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F430">
+        <v>60.4</v>
+      </c>
+      <c r="G430">
+        <v>36</v>
+      </c>
+      <c r="H430">
+        <v>100</v>
+      </c>
+      <c r="I430">
+        <v>51.7</v>
+      </c>
+      <c r="T430">
+        <v>43</v>
+      </c>
+      <c r="U430">
+        <v>100</v>
+      </c>
+      <c r="V430">
+        <v>42.1</v>
+      </c>
+      <c r="W430">
+        <v>40</v>
+      </c>
+      <c r="X430">
+        <v>43.7</v>
+      </c>
+      <c r="Y430">
+        <v>11</v>
+      </c>
+      <c r="Z430">
+        <v>37.6</v>
+      </c>
+      <c r="AA430">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>49</v>
+      </c>
+      <c r="B431" t="s">
+        <v>34</v>
+      </c>
+      <c r="C431">
+        <v>20</v>
+      </c>
+      <c r="D431" t="s">
+        <v>29</v>
+      </c>
+      <c r="E431">
+        <v>100</v>
+      </c>
+      <c r="F431">
+        <v>68</v>
+      </c>
+      <c r="G431">
+        <v>31.9</v>
+      </c>
+      <c r="H431">
+        <v>100</v>
+      </c>
+      <c r="I431">
+        <v>99.9</v>
+      </c>
+      <c r="T431">
+        <v>42.2</v>
+      </c>
+      <c r="U431">
+        <v>91</v>
+      </c>
+      <c r="V431">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="W431">
+        <v>45</v>
+      </c>
+      <c r="X431">
+        <v>26.3</v>
+      </c>
+      <c r="Y431">
+        <v>19</v>
+      </c>
+      <c r="Z431">
+        <v>15.4</v>
+      </c>
+      <c r="AA431">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>49</v>
+      </c>
+      <c r="B432" t="s">
+        <v>34</v>
+      </c>
+      <c r="C432">
+        <v>20</v>
+      </c>
+      <c r="D432" t="s">
+        <v>30</v>
+      </c>
+      <c r="E432">
+        <v>99.8</v>
+      </c>
+      <c r="F432">
+        <v>69.2</v>
+      </c>
+      <c r="G432">
+        <v>30.2</v>
+      </c>
+      <c r="H432">
+        <v>100</v>
+      </c>
+      <c r="I432">
+        <v>99.8</v>
+      </c>
+      <c r="T432">
+        <v>43</v>
+      </c>
+      <c r="U432">
+        <v>100</v>
+      </c>
+      <c r="V432">
+        <v>48.5</v>
+      </c>
+      <c r="W432">
+        <v>11</v>
+      </c>
+      <c r="X432">
+        <v>29</v>
+      </c>
+      <c r="Y432">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>49</v>
+      </c>
+      <c r="B433" t="s">
+        <v>34</v>
+      </c>
+      <c r="C433">
+        <v>25</v>
+      </c>
+      <c r="D433" t="s">
+        <v>26</v>
+      </c>
+      <c r="E433">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F433">
+        <v>60.1</v>
+      </c>
+      <c r="G433">
+        <v>37.5</v>
+      </c>
+      <c r="H433">
+        <v>100</v>
+      </c>
+      <c r="I433">
+        <v>57.2</v>
+      </c>
+      <c r="T433">
+        <v>43</v>
+      </c>
+      <c r="U433">
+        <v>100</v>
+      </c>
+      <c r="V433">
+        <v>40.4</v>
+      </c>
+      <c r="W433">
+        <v>24</v>
+      </c>
+      <c r="X433">
+        <v>40.1</v>
+      </c>
+      <c r="Y433">
+        <v>15</v>
+      </c>
+      <c r="Z433">
+        <v>37.5</v>
+      </c>
+      <c r="AA433">
+        <v>15</v>
+      </c>
+      <c r="AB433">
+        <v>34.6</v>
+      </c>
+      <c r="AC433">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>49</v>
+      </c>
+      <c r="B434" t="s">
+        <v>34</v>
+      </c>
+      <c r="C434">
+        <v>25</v>
+      </c>
+      <c r="D434" t="s">
+        <v>29</v>
+      </c>
+      <c r="E434">
+        <v>100</v>
+      </c>
+      <c r="F434">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G434">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H434">
+        <v>100</v>
+      </c>
+      <c r="I434">
+        <v>100</v>
+      </c>
+      <c r="T434">
+        <v>41.8</v>
+      </c>
+      <c r="U434">
+        <v>90</v>
+      </c>
+      <c r="V434">
+        <v>39.1</v>
+      </c>
+      <c r="W434">
+        <v>47</v>
+      </c>
+      <c r="X434">
+        <v>26.1</v>
+      </c>
+      <c r="Y434">
+        <v>21</v>
+      </c>
+      <c r="Z434">
+        <v>13.4</v>
+      </c>
+      <c r="AA434">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>49</v>
+      </c>
+      <c r="B435" t="s">
+        <v>34</v>
+      </c>
+      <c r="C435">
+        <v>25</v>
+      </c>
+      <c r="D435" t="s">
+        <v>30</v>
+      </c>
+      <c r="E435">
+        <v>100</v>
+      </c>
+      <c r="F435">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G435">
+        <v>32.4</v>
+      </c>
+      <c r="H435">
+        <v>100</v>
+      </c>
+      <c r="I435">
+        <v>100</v>
+      </c>
+      <c r="T435">
+        <v>43.2</v>
+      </c>
+      <c r="U435">
+        <v>98</v>
+      </c>
+      <c r="V435">
+        <v>47.3</v>
+      </c>
+      <c r="W435">
+        <v>14</v>
+      </c>
+      <c r="X435">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Y435">
+        <v>10</v>
+      </c>
+      <c r="Z435">
+        <v>19.3</v>
+      </c>
+      <c r="AA435">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>50</v>
+      </c>
+      <c r="B436" t="s">
+        <v>34</v>
+      </c>
+      <c r="C436">
+        <v>15</v>
+      </c>
+      <c r="D436" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AC343" xr:uid="{3CACE78E-09B0-4A51-A9AF-2F3B2E4BAEFC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC343">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC390">
       <sortCondition ref="A2:A97"/>
       <sortCondition ref="B2:B97"/>
       <sortCondition ref="C2:C97"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B0A514-16C7-4947-A86F-48EEA34FD849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB57231-14BB-4EF9-A610-5A4CB2E12814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="52">
   <si>
     <t>Te_cal</t>
   </si>
@@ -188,12 +190,15 @@
   <si>
     <t>test10 col</t>
   </si>
+  <si>
+    <t>test11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +217,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -238,9 +251,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,13 +576,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC436"/>
+  <dimension ref="A1:AC437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E406" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E436" sqref="E436"/>
+      <selection pane="bottomRight" activeCell="A386" sqref="A386:XFD386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31896,56 +31910,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="427" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="2">
         <v>15</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E427">
+      <c r="E427" s="2">
         <v>66.2</v>
       </c>
-      <c r="F427">
+      <c r="F427" s="2">
         <v>58.6</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="2">
         <v>24.6</v>
       </c>
-      <c r="H427">
-        <v>100</v>
-      </c>
-      <c r="I427">
+      <c r="H427" s="2">
+        <v>100</v>
+      </c>
+      <c r="I427" s="2">
         <v>42.8</v>
       </c>
-      <c r="T427">
+      <c r="T427" s="2">
         <v>43</v>
       </c>
-      <c r="U427">
+      <c r="U427" s="2">
         <v>99</v>
       </c>
-      <c r="V427">
+      <c r="V427" s="2">
         <v>42.5</v>
       </c>
-      <c r="W427">
+      <c r="W427" s="2">
         <v>41</v>
       </c>
-      <c r="X427">
+      <c r="X427" s="2">
         <v>45.3</v>
       </c>
-      <c r="Y427">
+      <c r="Y427" s="2">
         <v>15</v>
       </c>
-      <c r="Z427">
+      <c r="Z427" s="2">
         <v>29.3</v>
       </c>
-      <c r="AA427">
+      <c r="AA427" s="2">
         <v>11</v>
       </c>
     </row>
@@ -32367,18 +32381,182 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+    <row r="436" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="2">
         <v>15</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E436" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="F436" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="G436" s="2">
+        <v>95.6</v>
+      </c>
+      <c r="H436" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="I436" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="J436" s="2">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K436" s="2">
+        <v>10</v>
+      </c>
+      <c r="L436" s="2">
+        <v>64</v>
+      </c>
+      <c r="M436" s="2">
+        <v>30</v>
+      </c>
+      <c r="N436" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="O436" s="2">
+        <v>25</v>
+      </c>
+      <c r="P436" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Q436" s="2">
+        <v>11</v>
+      </c>
+      <c r="R436" s="2">
+        <v>80</v>
+      </c>
+      <c r="S436" s="2">
+        <v>10</v>
+      </c>
+      <c r="T436" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="U436" s="2">
+        <v>10</v>
+      </c>
+      <c r="V436" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="W436" s="2">
+        <v>10</v>
+      </c>
+      <c r="X436" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="Y436" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z436" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="AA436" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB436" s="2">
+        <v>50</v>
+      </c>
+      <c r="AC436" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C437" s="2">
+        <v>15</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E437">
+        <v>100</v>
+      </c>
+      <c r="F437">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G437">
+        <v>98.5</v>
+      </c>
+      <c r="H437">
+        <v>100</v>
+      </c>
+      <c r="I437">
+        <v>100</v>
+      </c>
+      <c r="J437">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="K437">
+        <v>53</v>
+      </c>
+      <c r="L437">
+        <v>83.4</v>
+      </c>
+      <c r="M437">
+        <v>33</v>
+      </c>
+      <c r="N437">
+        <v>88.1</v>
+      </c>
+      <c r="O437">
+        <v>15</v>
+      </c>
+      <c r="P437">
+        <v>88.6</v>
+      </c>
+      <c r="Q437">
+        <v>10</v>
+      </c>
+      <c r="R437">
+        <v>92.6</v>
+      </c>
+      <c r="S437">
+        <v>10</v>
+      </c>
+      <c r="T437">
+        <v>42.3</v>
+      </c>
+      <c r="U437">
+        <v>31</v>
+      </c>
+      <c r="V437">
+        <v>47.6</v>
+      </c>
+      <c r="W437">
+        <v>20</v>
+      </c>
+      <c r="X437">
+        <v>52</v>
+      </c>
+      <c r="Y437">
+        <v>11</v>
+      </c>
+      <c r="Z437">
+        <v>49</v>
+      </c>
+      <c r="AA437">
+        <v>10</v>
+      </c>
+      <c r="AB437">
+        <v>44.4</v>
+      </c>
+      <c r="AC437">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
